--- a/output/endemo2_amount_prognosis.xlsx
+++ b/output/endemo2_amount_prognosis.xlsx
@@ -490,12 +490,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>4815.54</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18364.59</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00041967602655065134</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00041967602655065134</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4804.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4804.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,12 +519,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>139.15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2567.62</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00002462900204516436</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00002462900204516436</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>175.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,12 +548,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3935.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8015.55</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00037272643630247015</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00037272643630247015</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3926.52</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3926.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,12 +577,20 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-86.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>477.82</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-98.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-98.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -542,12 +598,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>29005.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37558.4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00034837983225994174</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00034837983225994174</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>28879.54</v>
+      </c>
+      <c r="G6" t="n">
+        <v>28879.54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -555,12 +627,20 @@
           <t>Ireland</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-19.36</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47.27</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-28.52</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-28.52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,12 +648,20 @@
           <t>Greece</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-276.76</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1754.42</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-312.76</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-312.76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -581,12 +669,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>3480.16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8583.34</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00006842934707084782</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00006842934707084782</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3201.95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3201.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -594,12 +698,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>8249.879999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28553.24</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00011316504492600056</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00011316504492600056</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>7274</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7274</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -620,12 +740,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>7237.02</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16074.37</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00012050753621851984</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00012050753621851984</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>7215.68</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7215.68</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -662,12 +798,20 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-1216.22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7341.25</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-2084.31</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2084.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,12 +819,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>900.79</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1896.44</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00009591746402117483</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00009591746402117483</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>937.72</v>
+      </c>
+      <c r="G15" t="n">
+        <v>937.72</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -688,12 +848,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>6966.56</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2916.71</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00040442504588242799</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00040442504588242799</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>6990.91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6990.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -701,12 +877,28 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>6947.55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>378.96</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00081135752909413869</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.00081135752909413869</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>7172.82</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7172.82</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -714,12 +906,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2709.03</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9557.059999999999</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00006036280547156922</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00006036280547156922</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2325.26</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2325.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -727,12 +935,20 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-15.05</v>
+      </c>
+      <c r="C19" t="n">
+        <v>719.3</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-22.86</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-22.86</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -740,12 +956,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>934.17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5921.94</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00005033176427873473</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00005033176427873473</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>986.84</v>
+      </c>
+      <c r="G20" t="n">
+        <v>986.84</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -766,12 +998,28 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>3849.54</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3092.47</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00068138270465327617</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00068138270465327617</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3711.32</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3711.32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,12 +1027,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>3121.36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1123.24</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00057336303702197958</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00057336303702197958</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3162.36</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3162.36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -792,12 +1056,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>3429.35</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1727.35</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00035526126957069449</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00035526126957069449</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3610.27</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3610.27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -805,12 +1085,28 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>8118.98</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17315.23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00012527809024174674</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.00012527809024174674</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>8322.6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8322.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -818,12 +1114,20 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>-134.03</v>
+      </c>
+      <c r="C26" t="n">
+        <v>815.1799999999999</v>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-175.25</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-175.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -831,12 +1135,20 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>-154.07</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2300.24</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-206.19</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-206.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -857,12 +1169,20 @@
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>-12.71</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.01</v>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-14.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -870,12 +1190,28 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00000099415529650527</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.00000099415529650527</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -883,12 +1219,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>794.8200000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00011027925924644508</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00011027925924644508</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>819.8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>819.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -896,12 +1248,28 @@
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>307.12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00009822606898414986</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.00009822606898414986</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>333.98</v>
+      </c>
+      <c r="G32" t="n">
+        <v>333.98</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1020,12 +1388,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2648.99</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2648.99</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00023181705380931951</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00023181705380931951</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2653.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2653.98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1046,12 +1430,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00002047050553870168</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00002047050553870168</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>215.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>215.65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1072,12 +1472,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4942.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4942.25</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00005961279134105910</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00005961279134105910</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4941.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4941.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1111,12 +1527,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>792</v>
+      </c>
+      <c r="C9" t="n">
+        <v>792</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00001692388912510630</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00001692388912510630</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>791.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>791.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1124,12 +1556,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2622.98</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2622.98</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00003908955956383569</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00003908955956383569</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2512.59</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2512.59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1150,12 +1598,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00001655032888813566</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00001655032888813566</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>990.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>990.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1189,12 +1653,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>580.39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>580.39</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00005937171502329687</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00005937171502329687</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>580.4400000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>580.4400000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1202,12 +1682,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>2496.34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2496.34</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00014486955785479071</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00014486955785479071</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2504.22</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2504.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1215,12 +1711,28 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00002262310105931540</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.00002262310105931540</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1228,12 +1740,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>467.84</v>
+      </c>
+      <c r="C18" t="n">
+        <v>467.84</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00001231965977392873</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00001231965977392873</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>474.57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>474.57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1241,12 +1769,28 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>297.16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>297.16</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00002889585858740068</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.00002889585858740068</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>297.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>297.33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1280,12 +1824,28 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00000660093211246491</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00000660093211246491</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="G22" t="n">
+        <v>35.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1293,12 +1853,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>178</v>
+      </c>
+      <c r="C23" t="n">
+        <v>178</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00003227253978542387</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00003227253978542387</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>178</v>
+      </c>
+      <c r="G23" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1306,12 +1882,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00002031453097694063</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00002031453097694063</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>206.44</v>
+      </c>
+      <c r="G24" t="n">
+        <v>206.44</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1397,12 +1989,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>160</v>
+      </c>
+      <c r="C31" t="n">
+        <v>160</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00002291408763836529</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00002291408763836529</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>170.34</v>
+      </c>
+      <c r="G31" t="n">
+        <v>170.34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1518,12 +2126,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1193.05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1193.05</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00010440543138001511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00010440543138001511</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1195.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1195.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1544,12 +2168,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00002047050553870168</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00002047050553870168</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>215.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>215.65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1570,12 +2210,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>3838.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3838.25</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00004629658399458798</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00004629658399458798</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3837.83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3837.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1609,12 +2265,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1219.68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1219.68</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00002606280207379183</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00002606280207379183</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1219.53</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1219.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1622,12 +2294,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2176.82</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2176.82</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00003244045826749444</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00003244045826749444</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2085.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2085.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1648,12 +2336,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00001737784533254245</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00001737784533254245</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1040.54</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1040.54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1687,12 +2391,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>360.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>360.03</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00003682969084955098</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00003682969084955098</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>360.06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>360.06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1700,12 +2420,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1980.53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1980.53</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00011493560803196390</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00011493560803196390</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1986.78</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1986.78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1713,12 +2449,28 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00002262310105931540</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.00002262310105931540</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1726,12 +2478,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>357.44</v>
+      </c>
+      <c r="C18" t="n">
+        <v>357.44</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00000941247144484164</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00000941247144484164</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>362.58</v>
+      </c>
+      <c r="G18" t="n">
+        <v>362.58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1739,12 +2507,28 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>142.49</v>
+      </c>
+      <c r="C19" t="n">
+        <v>142.49</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00001385553936075517</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.00001385553936075517</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>142.57</v>
+      </c>
+      <c r="G19" t="n">
+        <v>142.57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1752,12 +2536,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>240.65</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240.65</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00001235749613458375</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00001235749613458375</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>242.29</v>
+      </c>
+      <c r="G20" t="n">
+        <v>242.29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1778,12 +2578,28 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00000621197350967827</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00000621197350967827</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="G22" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1791,12 +2607,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>168</v>
+      </c>
+      <c r="C23" t="n">
+        <v>168</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00003045947575253489</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00003045947575253489</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>168</v>
+      </c>
+      <c r="G23" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1804,12 +2636,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>267.88</v>
+      </c>
+      <c r="C24" t="n">
+        <v>267.88</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00002632692540913636</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00002632692540913636</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>267.54</v>
+      </c>
+      <c r="G24" t="n">
+        <v>267.54</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1830,12 +2678,28 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>175.26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>175.26</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00003299380738199424</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.00003299380738199424</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>175.27</v>
+      </c>
+      <c r="G26" t="n">
+        <v>175.27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1895,12 +2759,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00001367684605914928</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00001367684605914928</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>101.67</v>
+      </c>
+      <c r="G31" t="n">
+        <v>101.67</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1934,12 +2814,28 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="C34" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00001772621837323218</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.00001772621837323218</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="G34" t="n">
+        <v>50.98</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2016,12 +2912,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>785.42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>785.42</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00006873347960900509</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00006873347960900509</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>786.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2042,12 +2954,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>448.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>448.2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00004216427430176385</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00004216427430176385</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>444.18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>444.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2068,12 +2996,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>3360.68</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3360.68</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00004053610820533603</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00004053610820533603</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3360.31</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3360.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2107,12 +3051,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>542.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>542.35</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00001158912989713139</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00001158912989713139</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>542.28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>542.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2120,12 +3080,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1104.73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1104.73</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00001646345575554484</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00001646345575554484</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1058.23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1058.23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2133,12 +3109,28 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00000388167223317203</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.00000388167223317203</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2146,12 +3138,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>952.73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>952.73</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00001576796036174164</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00001576796036174164</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>944.14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>944.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2185,12 +3193,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>471.71</v>
+      </c>
+      <c r="C15" t="n">
+        <v>471.71</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00004825356368184997</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00004825356368184997</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>471.74</v>
+      </c>
+      <c r="G15" t="n">
+        <v>471.74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2198,12 +3222,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>2320.45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2320.45</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00013466246903561346</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00013466246903561346</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2327.78</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2327.78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2224,12 +3264,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>552.78</v>
+      </c>
+      <c r="C18" t="n">
+        <v>552.78</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00001455664290087493</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00001455664290087493</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>560.74</v>
+      </c>
+      <c r="G18" t="n">
+        <v>560.74</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2237,12 +3293,28 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>304.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>304.94</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00002965287105805604</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.00002965287105805604</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>305.12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>305.12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2250,12 +3322,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00000219647431930931</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00000219647431930931</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="G20" t="n">
+        <v>43.07</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2276,12 +3364,28 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>123.31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>123.31</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00002265517769220594</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00002265517769220594</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2302,12 +3406,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00000102165801022847</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00000102165801022847</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2315,12 +3435,28 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="C25" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00000100470543945725</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.00000100470543945725</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>66.75</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2445,12 +3581,28 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00000000228893991796</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.00000000228893991796</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4534,12 +5686,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1696.26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00014844264138592569</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00014844264138592569</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1699.46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1699.46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4547,12 +5715,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>170.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00002429538805276043</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00002429538805276043</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>172.92</v>
+      </c>
+      <c r="G3" t="n">
+        <v>172.92</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4560,12 +5744,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1448.77</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00013629175969479942</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00013629175969479942</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1435.78</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1435.78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4573,12 +5773,28 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>346.91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00005987767842738709</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00005987767842738709</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>345.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>345.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4586,12 +5802,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>7038.42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00008489655899214533</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00008489655899214533</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>7037.64</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7037.64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4599,12 +5831,28 @@
           <t>Ireland</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00000480791877905605</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.00000480791877905605</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>23.24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4612,12 +5860,28 @@
           <t>Greece</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>322.56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00003005337305177367</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.00003005337305177367</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>319.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>319.57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4625,12 +5889,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>3402.26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00007270133504571985</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00007270133504571985</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3401.84</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3401.84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4638,12 +5918,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>5747.49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00008565319009277903</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00008565319009277903</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5505.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5505.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4651,12 +5947,28 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>450.01</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00011008446263714140</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.00011008446263714140</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>458</v>
+      </c>
+      <c r="G11" t="n">
+        <v>458</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4664,12 +5976,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>5078.75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00008405499077504139</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00008405499077504139</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5033</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5033</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4677,12 +6005,28 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00001423907569871129</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.00001423907569871129</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="G13" t="n">
+        <v>27.56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4690,12 +6034,28 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>307.77</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00050624969158647912</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.00050624969158647912</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>307.76</v>
+      </c>
+      <c r="G14" t="n">
+        <v>307.76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4703,12 +6063,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>612.84</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00006269083229707598</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00006269083229707598</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>612.89</v>
+      </c>
+      <c r="G15" t="n">
+        <v>612.89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4716,12 +6092,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1308.14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00007591484468369570</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00007591484468369570</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1312.27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1312.27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4742,12 +6134,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2365.38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00006228830709879591</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00006228830709879591</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2399.44</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2399.44</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4755,12 +6163,28 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1442.61</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00014027939223374344</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.00014027939223374344</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1443.45</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1443.45</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4768,12 +6192,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>450.04</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00002310989969345405</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00002310989969345405</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>453.11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>453.11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4781,12 +6221,28 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>112.56</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00005427273525069266</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.00005427273525069266</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="G21" t="n">
+        <v>114.29</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4794,12 +6250,28 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>341.57</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00006275208386827738</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00006275208386827738</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>341.79</v>
+      </c>
+      <c r="G22" t="n">
+        <v>341.79</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4807,12 +6279,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>580.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00010532022658678873</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00010532022658678873</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>580.89</v>
+      </c>
+      <c r="G23" t="n">
+        <v>580.89</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4820,12 +6308,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>447.41</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00004397078954146157</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00004397078954146157</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>446.84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>446.84</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4833,12 +6337,28 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>3363.47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00005060870258121409</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.00005060870258121409</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3362.09</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3362.09</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4911,12 +6431,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00001568182872750624</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00001568182872750624</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>116.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>116.58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4950,12 +6486,28 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00001826158656140562</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.00001826158656140562</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>52.52</v>
+      </c>
+      <c r="G34" t="n">
+        <v>52.52</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4963,12 +6515,28 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>134.96</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00010208826124307255</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.00010208826124307255</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>134.98</v>
+      </c>
+      <c r="G35" t="n">
+        <v>134.98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5119,12 +6687,28 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>1046.58</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-171.6</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00019594173561675223</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00019594173561675223</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1129.93</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1129.93</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5161,12 +6745,28 @@
           <t>Ireland</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>435.16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>209.98</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00011172234016713694</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.00011172234016713694</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>540.12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>540.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5319,12 +6919,28 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>625.1799999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-244.59</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00030661968901252168</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.00030661968901252168</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>593.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5390,12 +7006,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>78.41</v>
+      </c>
+      <c r="C16" t="n">
+        <v>466.28</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00000363156918997275</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00000363156918997275</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="G16" t="n">
+        <v>62.78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5780,12 +7412,28 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>427.07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00014686107090422160</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.00014686107090422160</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>422.52</v>
+      </c>
+      <c r="G30" t="n">
+        <v>422.52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5822,12 +7470,28 @@
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>210.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00005596192513811216</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.00005596192513811216</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>190.28</v>
+      </c>
+      <c r="G32" t="n">
+        <v>190.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6111,12 +7775,20 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="C11" t="n">
+        <v>59.77</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-6.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6124,12 +7796,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>134.29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>161.32</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00000226793945155301</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00000226793945155301</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6163,12 +7851,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00000068543521858095</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00000068543521858095</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6205,12 +7909,20 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>144.5</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-16.36</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-16.36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6218,12 +7930,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>78.08</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00000027318916082772</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00000027318916082772</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6431,12 +8159,28 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C27" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00000029929158527680</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.00000029929158527680</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6665,12 +8409,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00000185052406129676</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00000185052406129676</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6678,12 +8438,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00000141111021636271</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00000141111021636271</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6691,12 +8467,28 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00000431507951138111</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00000431507951138111</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24.88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6704,12 +8496,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>796</v>
+      </c>
+      <c r="C6" t="n">
+        <v>796</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00000960126038012644</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00000960126038012644</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>795.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>795.91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6730,12 +8538,28 @@
           <t>Greece</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00000027951485910308</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.00000027951485910308</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6743,12 +8567,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>243</v>
+      </c>
+      <c r="C9" t="n">
+        <v>243</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00000519255689065762</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00000519255689065762</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>242.97</v>
+      </c>
+      <c r="G9" t="n">
+        <v>242.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6756,12 +8596,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>222</v>
+      </c>
+      <c r="C10" t="n">
+        <v>222</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00000330839962427310</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00000330839962427310</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>212.66</v>
+      </c>
+      <c r="G10" t="n">
+        <v>212.66</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6769,12 +8625,28 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00000048925558051031</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.00000048925558051031</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6782,12 +8654,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>666</v>
+      </c>
+      <c r="C12" t="n">
+        <v>666</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00001102251903949835</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00001102251903949835</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>660</v>
+      </c>
+      <c r="G12" t="n">
+        <v>660</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6821,12 +8709,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00000511479439958656</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00000511479439958656</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6834,12 +8738,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00000145082088606390</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00000145082088606390</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25.08</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6847,12 +8767,28 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>150</v>
+      </c>
+      <c r="C17" t="n">
+        <v>150</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00001696732579448655</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.00001696732579448655</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>150</v>
+      </c>
+      <c r="G17" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6860,12 +8796,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00000050033245775153</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00000050033245775153</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19.27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6873,12 +8825,28 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00000175032201062990</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.00000175032201062990</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6886,12 +8854,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00000056485657521296</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00000056485657521296</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11.08</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6899,12 +8883,28 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00000964369442218358</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.00000964369442218358</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6925,12 +8925,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00000652703051840033</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00000652703051840033</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>36</v>
+      </c>
+      <c r="G23" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6938,12 +8954,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>32</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00000314489700167485</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00000314489700167485</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="G24" t="n">
+        <v>31.96</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6951,12 +8983,28 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>198</v>
+      </c>
+      <c r="C25" t="n">
+        <v>198</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00000297922020987433</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.00000297922020987433</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>197.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>197.92</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6977,12 +9025,28 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>190</v>
+      </c>
+      <c r="C27" t="n">
+        <v>190</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00002231532279290594</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.00002231532279290594</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>190</v>
+      </c>
+      <c r="G27" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7029,12 +9093,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00000014321304773978</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00000014321304773978</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7042,12 +9122,28 @@
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00000000451273177014</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.00000000451273177014</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7150,12 +9246,20 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.779999999999999</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7163,12 +9267,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>290.67</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-27.08</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00003982494233005290</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00003982494233005290</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>283.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>283.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7176,12 +9296,20 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.13</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7202,12 +9330,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>339.47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00000411774627832462</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00000411774627832462</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>341.35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>341.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7241,12 +9385,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>311.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-114.57</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00000683398098480384</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00000683398098480384</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>319.78</v>
+      </c>
+      <c r="G9" t="n">
+        <v>319.78</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7254,12 +9414,20 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.04</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7345,12 +9513,20 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.16</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7358,12 +9534,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>571.86</v>
+      </c>
+      <c r="C18" t="n">
+        <v>375.66</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00001491633867882236</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00001491633867882236</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>574.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>574.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7371,12 +9563,20 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.99</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7384,12 +9584,20 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-6.36</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32.16</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-5.69</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-5.69</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7410,12 +9618,20 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.02</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.73</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7423,12 +9639,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-36.52</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00003505182138688594</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00003505182138688594</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>193.33</v>
+      </c>
+      <c r="G23" t="n">
+        <v>193.33</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7436,12 +9668,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>185.29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-76.87</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00001950675093224095</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00001950675093224095</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>198.23</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198.23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7462,12 +9710,28 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>40</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00000131556537246515</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.00000131556537246515</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.99</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7514,12 +9778,28 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00000009030477172395</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.00000009030477172395</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7527,12 +9807,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00000316305124045755</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00000316305124045755</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="G31" t="n">
+        <v>23.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7648,12 +9944,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>152.22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-15.85</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00001387913632578633</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00001387913632578633</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7661,12 +9973,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-24.47</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00000638493506206072</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00000638493506206072</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45.44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7700,12 +10028,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>253.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-132.21</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00000309016572794286</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00000309016572794286</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>256.16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>256.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7739,12 +10083,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C9" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00000024498514135593</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00000024498514135593</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7752,12 +10112,20 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.54</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7817,12 +10185,20 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.16</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7843,12 +10219,28 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>85.06999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-37.08</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00001007006105477066</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.00001007006105477066</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>89.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>89.02</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7856,12 +10248,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-6.89</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00000168971588522526</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00000168971588522526</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>65.09</v>
+      </c>
+      <c r="G18" t="n">
+        <v>65.09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7869,12 +10277,20 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.68</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7882,12 +10298,20 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.81</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7908,12 +10332,28 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-24.75</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00000541511141343955</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00000541511141343955</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="G22" t="n">
+        <v>29.49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7921,12 +10361,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00000014849164427775</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00000014849164427775</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7934,12 +10390,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-26.85</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00000552530733395899</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00000552530733395899</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>56.15</v>
+      </c>
+      <c r="G24" t="n">
+        <v>56.15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8025,12 +10497,20 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>42.08</v>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8175,12 +10655,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00001412106732624503</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00001412106732624503</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>100.51</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8980,12 +11476,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>830</v>
+      </c>
+      <c r="C2" t="n">
+        <v>830</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00007263464406486571</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00007263464406486571</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>831.5599999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>831.5599999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8993,12 +11505,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>320</v>
+      </c>
+      <c r="C3" t="n">
+        <v>320</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00004555136150884330</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00004555136150884330</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>324.21</v>
+      </c>
+      <c r="G3" t="n">
+        <v>324.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9006,12 +11534,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>200</v>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00001881480288483610</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00001881480288483610</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>198.21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>198.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9019,12 +11563,28 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00000003850224625779</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00000003850224625779</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9032,12 +11592,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>2583.01</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2583.01</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00003115600449515894</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00003115600449515894</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2582.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2582.73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9058,12 +11634,28 @@
           <t>Greece</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>52.98</v>
+      </c>
+      <c r="C8" t="n">
+        <v>52.98</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00000493582450640937</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.00000493582450640937</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>52.48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52.48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9071,12 +11663,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>417.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>417.77</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00000892716631942066</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00000892716631942066</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>417.72</v>
+      </c>
+      <c r="G9" t="n">
+        <v>417.72</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9084,12 +11692,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>785.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>785.25</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00001170237734344353</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00001170237734344353</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>752.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>752.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9097,12 +11721,28 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>325.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>325.59</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00007964940189728421</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.00007964940189728421</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>331.38</v>
+      </c>
+      <c r="G11" t="n">
+        <v>331.38</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9110,12 +11750,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>304.98</v>
+      </c>
+      <c r="C12" t="n">
+        <v>304.98</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00000504750275397473</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.00000504750275397473</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>302.23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>302.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9149,12 +11805,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>300</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00003068876639751936</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00003068876639751936</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>300.02</v>
+      </c>
+      <c r="G15" t="n">
+        <v>300.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9162,12 +11834,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00010445910379660095</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00010445910379660095</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1805.68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1805.68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9175,12 +11863,28 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" t="n">
+        <v>400</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00004524620211863079</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.00004524620211863079</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9188,12 +11892,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2028.43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2028.43</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00005341517719010658</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00005341517719010658</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2057.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2057.63</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9214,12 +11934,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>750.92</v>
+      </c>
+      <c r="C20" t="n">
+        <v>750.92</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00003856025617786204</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00003856025617786204</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>756.04</v>
+      </c>
+      <c r="G20" t="n">
+        <v>756.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9240,12 +11976,28 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00007333956260380076</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00007333956260380076</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>399.46</v>
+      </c>
+      <c r="G22" t="n">
+        <v>399.46</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9279,12 +12031,28 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>313.39</v>
+      </c>
+      <c r="C25" t="n">
+        <v>313.39</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00000471548843472733</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.00000471548843472733</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>313.26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>313.26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9357,12 +12125,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>70</v>
+      </c>
+      <c r="C31" t="n">
+        <v>70</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00001002491334178481</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00001002491334178481</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>74.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>74.52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9396,12 +12180,28 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>763.55</v>
+      </c>
+      <c r="C34" t="n">
+        <v>763.55</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00027254491777685847</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.00027254491777685847</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>783.87</v>
+      </c>
+      <c r="G34" t="n">
+        <v>783.87</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9409,12 +12209,28 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00003833372290138180</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.00003833372290138180</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="G35" t="n">
+        <v>50.68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9478,12 +12294,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00000047956953734532</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.00000047956953734532</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9504,12 +12336,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00000004543774896688</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00000004543774896688</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9517,12 +12365,28 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00000004343559036156</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00000004343559036156</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9530,12 +12394,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1129.56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1129.56</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00001362458652160111</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00001362458652160111</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1129.43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1129.43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9569,12 +12449,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00000001736194433605</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00000001736194433605</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9582,12 +12478,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00000020323060752500</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00000020323060752500</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9595,12 +12507,28 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00000000032095166081</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.00000000032095166081</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9647,12 +12575,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00000001053647646315</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00000001053647646315</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9660,12 +12604,28 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>477.34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>477.34</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00002770139367014972</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00002770139367014972</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>478.85</v>
+      </c>
+      <c r="G16" t="n">
+        <v>478.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9712,12 +12672,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00000000051663836393</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00000000051663836393</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9777,12 +12753,28 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00000000247342986970</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.00000000247342986970</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9790,12 +12782,28 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>720</v>
+      </c>
+      <c r="C26" t="n">
+        <v>720</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00013554431207119991</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.00013554431207119991</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>720.05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>720.05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9855,12 +12863,28 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>156</v>
+      </c>
+      <c r="C31" t="n">
+        <v>156</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00002234123544740615</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00002234123544740615</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>166.08</v>
+      </c>
+      <c r="G31" t="n">
+        <v>166.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">

--- a/output/endemo2_amount_prognosis.xlsx
+++ b/output/endemo2_amount_prognosis.xlsx
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4815.54</v>
+        <v>4815.5410628</v>
       </c>
       <c r="C2" t="n">
-        <v>18364.59</v>
+        <v>18364.5922884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4804.7</v>
+        <v>4804.7012789</v>
       </c>
       <c r="G2" t="n">
-        <v>4804.7</v>
+        <v>4804.7012789</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.15</v>
+        <v>139.152657</v>
       </c>
       <c r="C3" t="n">
-        <v>2567.62</v>
+        <v>2567.6204988</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>175.3</v>
+        <v>175.2952227</v>
       </c>
       <c r="G3" t="n">
-        <v>175.3</v>
+        <v>175.2952227</v>
       </c>
     </row>
     <row r="4">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3935.44</v>
+        <v>3935.4362311</v>
       </c>
       <c r="C4" t="n">
-        <v>8015.55</v>
+        <v>8015.5535181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3926.52</v>
+        <v>3926.5213068</v>
       </c>
       <c r="G4" t="n">
-        <v>3926.52</v>
+        <v>3926.5213068</v>
       </c>
     </row>
     <row r="5">
@@ -578,18 +578,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-86.88</v>
+        <v>-86.87536230000001</v>
       </c>
       <c r="C5" t="n">
-        <v>477.82</v>
+        <v>477.8190511</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-98.7</v>
+        <v>-98.7023641</v>
       </c>
       <c r="G5" t="n">
-        <v>-98.7</v>
+        <v>-98.7023641</v>
       </c>
     </row>
     <row r="6">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29005.05</v>
+        <v>29005.0531401</v>
       </c>
       <c r="C6" t="n">
-        <v>37558.4</v>
+        <v>37558.3974122</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28879.54</v>
+        <v>28879.5370474</v>
       </c>
       <c r="G6" t="n">
-        <v>28879.54</v>
+        <v>28879.5370474</v>
       </c>
     </row>
     <row r="7">
@@ -628,18 +628,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.36</v>
+        <v>-19.3603865</v>
       </c>
       <c r="C7" t="n">
-        <v>47.27</v>
+        <v>47.2733321</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-28.52</v>
+        <v>-28.5246151</v>
       </c>
       <c r="G7" t="n">
-        <v>-28.52</v>
+        <v>-28.5246151</v>
       </c>
     </row>
     <row r="8">
@@ -649,18 +649,18 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-276.76</v>
+        <v>-276.7613527</v>
       </c>
       <c r="C8" t="n">
-        <v>1754.42</v>
+        <v>1754.4237425</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-312.76</v>
+        <v>-312.762388</v>
       </c>
       <c r="G8" t="n">
-        <v>-312.76</v>
+        <v>-312.762388</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3480.16</v>
+        <v>3480.1603865</v>
       </c>
       <c r="C9" t="n">
-        <v>8583.34</v>
+        <v>8583.3393916</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3201.95</v>
+        <v>3201.9489506</v>
       </c>
       <c r="G9" t="n">
-        <v>3201.95</v>
+        <v>3201.9489506</v>
       </c>
     </row>
     <row r="10">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8249.879999999999</v>
+        <v>8249.8811594</v>
       </c>
       <c r="C10" t="n">
-        <v>28553.24</v>
+        <v>28553.2417471</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7274</v>
+        <v>7274.0010301</v>
       </c>
       <c r="G10" t="n">
-        <v>7274</v>
+        <v>7274.0010301</v>
       </c>
     </row>
     <row r="11">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7237.02</v>
+        <v>7237.0202899</v>
       </c>
       <c r="C12" t="n">
-        <v>16074.37</v>
+        <v>16074.3736498</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7215.68</v>
+        <v>7215.6810824</v>
       </c>
       <c r="G12" t="n">
-        <v>7215.68</v>
+        <v>7215.6810824</v>
       </c>
     </row>
     <row r="13">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.48999999999999</v>
+        <v>82.4931521</v>
       </c>
       <c r="C13" t="n">
-        <v>659.6900000000001</v>
+        <v>659.6913835</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>79.45</v>
+        <v>79.45070370000001</v>
       </c>
       <c r="G13" t="n">
-        <v>79.45</v>
+        <v>79.45070370000001</v>
       </c>
     </row>
     <row r="14">
@@ -799,18 +799,18 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1216.22</v>
+        <v>-1216.221256</v>
       </c>
       <c r="C14" t="n">
-        <v>7341.25</v>
+        <v>7341.2457476</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>-2084.31</v>
+        <v>-2084.3126324</v>
       </c>
       <c r="G14" t="n">
-        <v>-2084.31</v>
+        <v>-2084.3126324</v>
       </c>
     </row>
     <row r="15">
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.79</v>
+        <v>900.7932367</v>
       </c>
       <c r="C15" t="n">
-        <v>1896.44</v>
+        <v>1896.4425357</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>937.72</v>
+        <v>937.7234667</v>
       </c>
       <c r="G15" t="n">
-        <v>937.72</v>
+        <v>937.7234667</v>
       </c>
     </row>
     <row r="16">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6966.56</v>
+        <v>6966.5594203</v>
       </c>
       <c r="C16" t="n">
-        <v>2916.71</v>
+        <v>2916.7071948</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6990.91</v>
+        <v>6990.9087334</v>
       </c>
       <c r="G16" t="n">
-        <v>6990.91</v>
+        <v>6990.9087334</v>
       </c>
     </row>
     <row r="17">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6947.55</v>
+        <v>6947.5497585</v>
       </c>
       <c r="C17" t="n">
-        <v>378.96</v>
+        <v>378.9550999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7172.82</v>
+        <v>7172.8167836</v>
       </c>
       <c r="G17" t="n">
-        <v>7172.82</v>
+        <v>7172.8167836</v>
       </c>
     </row>
     <row r="18">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2709.03</v>
+        <v>2709.0318841</v>
       </c>
       <c r="C18" t="n">
-        <v>9557.059999999999</v>
+        <v>9557.0617131</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2325.26</v>
+        <v>2325.2632154</v>
       </c>
       <c r="G18" t="n">
-        <v>2325.26</v>
+        <v>2325.2632154</v>
       </c>
     </row>
     <row r="19">
@@ -936,18 +936,18 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-15.05</v>
+        <v>-15.0483092</v>
       </c>
       <c r="C19" t="n">
-        <v>719.3</v>
+        <v>719.2993545</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-22.86</v>
+        <v>-22.8603774</v>
       </c>
       <c r="G19" t="n">
-        <v>-22.86</v>
+        <v>-22.8603774</v>
       </c>
     </row>
     <row r="20">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>934.17</v>
+        <v>934.1652174</v>
       </c>
       <c r="C20" t="n">
-        <v>5921.94</v>
+        <v>5921.939308</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>986.84</v>
+        <v>986.8439802</v>
       </c>
       <c r="G20" t="n">
-        <v>986.84</v>
+        <v>986.8439802</v>
       </c>
     </row>
     <row r="21">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3849.54</v>
+        <v>3849.5444453</v>
       </c>
       <c r="C22" t="n">
-        <v>3092.47</v>
+        <v>3092.466609</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3711.32</v>
+        <v>3711.318521</v>
       </c>
       <c r="G22" t="n">
-        <v>3711.32</v>
+        <v>3711.318521</v>
       </c>
     </row>
     <row r="23">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3121.36</v>
+        <v>3121.3594203</v>
       </c>
       <c r="C23" t="n">
-        <v>1123.24</v>
+        <v>1123.2386439</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3162.36</v>
+        <v>3162.3614695</v>
       </c>
       <c r="G23" t="n">
-        <v>3162.36</v>
+        <v>3162.3614695</v>
       </c>
     </row>
     <row r="24">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3429.35</v>
+        <v>3429.3507246</v>
       </c>
       <c r="C24" t="n">
-        <v>1727.35</v>
+        <v>1727.351848</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3610.27</v>
+        <v>3610.2708892</v>
       </c>
       <c r="G24" t="n">
-        <v>3610.27</v>
+        <v>3610.2708892</v>
       </c>
     </row>
     <row r="25">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8118.98</v>
+        <v>8118.9768116</v>
       </c>
       <c r="C25" t="n">
-        <v>17315.23</v>
+        <v>17315.228725</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8322.6</v>
+        <v>8322.598617400001</v>
       </c>
       <c r="G25" t="n">
-        <v>8322.6</v>
+        <v>8322.598617400001</v>
       </c>
     </row>
     <row r="26">
@@ -1115,18 +1115,18 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-134.03</v>
+        <v>-134.0328502</v>
       </c>
       <c r="C26" t="n">
-        <v>815.1799999999999</v>
+        <v>815.1762301</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-175.25</v>
+        <v>-175.2484237</v>
       </c>
       <c r="G26" t="n">
-        <v>-175.25</v>
+        <v>-175.2484237</v>
       </c>
     </row>
     <row r="27">
@@ -1136,18 +1136,18 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-154.07</v>
+        <v>-154.0695652</v>
       </c>
       <c r="C27" t="n">
-        <v>2300.24</v>
+        <v>2300.2429977</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>-206.19</v>
+        <v>-206.1948851</v>
       </c>
       <c r="G27" t="n">
-        <v>-206.19</v>
+        <v>-206.1948851</v>
       </c>
     </row>
     <row r="28">
@@ -1170,18 +1170,18 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-12.71</v>
+        <v>-12.7144817</v>
       </c>
       <c r="C29" t="n">
-        <v>14.01</v>
+        <v>14.0058977</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>-14.4</v>
+        <v>-14.3984652</v>
       </c>
       <c r="G29" t="n">
-        <v>-14.4</v>
+        <v>-14.3984652</v>
       </c>
     </row>
     <row r="30">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.97</v>
+        <v>2.9652174</v>
       </c>
       <c r="C30" t="n">
-        <v>13.6</v>
+        <v>13.597583</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.86</v>
+        <v>2.8601977</v>
       </c>
       <c r="G30" t="n">
-        <v>2.86</v>
+        <v>2.8601977</v>
       </c>
     </row>
     <row r="31">
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>794.8200000000001</v>
+        <v>794.8190267</v>
       </c>
       <c r="C31" t="n">
-        <v>251.8</v>
+        <v>251.8029739</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>819.8</v>
+        <v>819.7959423999999</v>
       </c>
       <c r="G31" t="n">
-        <v>819.8</v>
+        <v>819.7959423999999</v>
       </c>
     </row>
     <row r="32">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>307.12</v>
+        <v>307.116711</v>
       </c>
       <c r="C32" t="n">
-        <v>24.64</v>
+        <v>24.6393879</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>333.98</v>
+        <v>333.9813057</v>
       </c>
       <c r="G32" t="n">
-        <v>333.98</v>
+        <v>333.9813057</v>
       </c>
     </row>
     <row r="33">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.0732873</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.06</v>
+        <v>-0.0565855</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.06</v>
+        <v>-0.0565855</v>
       </c>
     </row>
     <row r="35">
@@ -1312,18 +1312,18 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.14</v>
+        <v>-0.1381215</v>
       </c>
       <c r="C35" t="n">
-        <v>3.46</v>
+        <v>3.4614715</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.11</v>
+        <v>-0.1120739</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.11</v>
+        <v>-0.1120739</v>
       </c>
     </row>
   </sheetData>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2648.99</v>
+        <v>2648.985992</v>
       </c>
       <c r="C2" t="n">
-        <v>2648.99</v>
+        <v>2648.985992</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2653.98</v>
+        <v>2653.979795</v>
       </c>
       <c r="G2" t="n">
-        <v>2653.98</v>
+        <v>2653.979795</v>
       </c>
     </row>
     <row r="3">
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>215.65</v>
+        <v>215.6484444</v>
       </c>
       <c r="G4" t="n">
-        <v>215.65</v>
+        <v>215.6484444</v>
       </c>
     </row>
     <row r="5">
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4942.25</v>
+        <v>4942.2450833</v>
       </c>
       <c r="C6" t="n">
-        <v>4942.25</v>
+        <v>4942.2450833</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4941.7</v>
+        <v>4941.7034415</v>
       </c>
       <c r="G6" t="n">
-        <v>4941.7</v>
+        <v>4941.7034415</v>
       </c>
     </row>
     <row r="7">
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>791.9</v>
+        <v>791.9033477</v>
       </c>
       <c r="G9" t="n">
-        <v>791.9</v>
+        <v>791.9033477</v>
       </c>
     </row>
     <row r="10">
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2622.98</v>
+        <v>2622.9848896</v>
       </c>
       <c r="C10" t="n">
-        <v>2622.98</v>
+        <v>2622.9848896</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2512.59</v>
+        <v>2512.5912044</v>
       </c>
       <c r="G10" t="n">
-        <v>2512.59</v>
+        <v>2512.5912044</v>
       </c>
     </row>
     <row r="11">
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>990.99</v>
+        <v>990.9910933</v>
       </c>
       <c r="G12" t="n">
-        <v>990.99</v>
+        <v>990.9910933</v>
       </c>
     </row>
     <row r="13">
@@ -1654,10 +1654,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>580.39</v>
+        <v>580.3920000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>580.39</v>
+        <v>580.3920000000001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>580.4400000000001</v>
+        <v>580.4391411</v>
       </c>
       <c r="G15" t="n">
-        <v>580.4400000000001</v>
+        <v>580.4391411</v>
       </c>
     </row>
     <row r="16">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2496.34</v>
+        <v>2496.33775</v>
       </c>
       <c r="C16" t="n">
-        <v>2496.34</v>
+        <v>2496.33775</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2504.22</v>
+        <v>2504.2214065</v>
       </c>
       <c r="G16" t="n">
-        <v>2504.22</v>
+        <v>2504.2214065</v>
       </c>
     </row>
     <row r="17">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>199.999819</v>
       </c>
       <c r="G17" t="n">
-        <v>200</v>
+        <v>199.999819</v>
       </c>
     </row>
     <row r="18">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>467.84</v>
+        <v>467.836</v>
       </c>
       <c r="C18" t="n">
-        <v>467.84</v>
+        <v>467.836</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>474.57</v>
+        <v>474.5712442</v>
       </c>
       <c r="G18" t="n">
-        <v>474.57</v>
+        <v>474.5712442</v>
       </c>
     </row>
     <row r="19">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>297.16</v>
+        <v>297.1598662</v>
       </c>
       <c r="C19" t="n">
-        <v>297.16</v>
+        <v>297.1598662</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>297.33</v>
+        <v>297.333617</v>
       </c>
       <c r="G19" t="n">
-        <v>297.33</v>
+        <v>297.333617</v>
       </c>
     </row>
     <row r="20">
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.93</v>
+        <v>35.9296656</v>
       </c>
       <c r="C22" t="n">
-        <v>35.93</v>
+        <v>35.9296656</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>35.95</v>
+        <v>35.9536006</v>
       </c>
       <c r="G22" t="n">
-        <v>35.95</v>
+        <v>35.9536006</v>
       </c>
     </row>
     <row r="23">
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>178</v>
+        <v>177.9979346</v>
       </c>
       <c r="G23" t="n">
-        <v>178</v>
+        <v>177.9979346</v>
       </c>
     </row>
     <row r="24">
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.7</v>
+        <v>206.7047</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7</v>
+        <v>206.7047</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>206.44</v>
+        <v>206.4423175</v>
       </c>
       <c r="G24" t="n">
-        <v>206.44</v>
+        <v>206.4423175</v>
       </c>
     </row>
     <row r="25">
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>170.34</v>
+        <v>170.3391571</v>
       </c>
       <c r="G31" t="n">
-        <v>170.34</v>
+        <v>170.3391571</v>
       </c>
     </row>
     <row r="32">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.05</v>
+        <v>1193.0465023</v>
       </c>
       <c r="C2" t="n">
-        <v>1193.05</v>
+        <v>1193.0465023</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1195.3</v>
+        <v>1195.2956041</v>
       </c>
       <c r="G2" t="n">
-        <v>1195.3</v>
+        <v>1195.2956041</v>
       </c>
     </row>
     <row r="3">
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>215.65</v>
+        <v>215.6484444</v>
       </c>
       <c r="G4" t="n">
-        <v>215.65</v>
+        <v>215.6484444</v>
       </c>
     </row>
     <row r="5">
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3838.25</v>
+        <v>3838.2545</v>
       </c>
       <c r="C6" t="n">
-        <v>3838.25</v>
+        <v>3838.2545</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2227,10 +2227,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3837.83</v>
+        <v>3837.8338492</v>
       </c>
       <c r="G6" t="n">
-        <v>3837.83</v>
+        <v>3837.8338492</v>
       </c>
     </row>
     <row r="7">
@@ -2266,10 +2266,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1219.68</v>
+        <v>1219.6806</v>
       </c>
       <c r="C9" t="n">
-        <v>1219.68</v>
+        <v>1219.6806</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1219.53</v>
+        <v>1219.5317553</v>
       </c>
       <c r="G9" t="n">
-        <v>1219.53</v>
+        <v>1219.5317553</v>
       </c>
     </row>
     <row r="10">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2176.82</v>
+        <v>2176.8173598</v>
       </c>
       <c r="C10" t="n">
-        <v>2176.82</v>
+        <v>2176.8173598</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2311,10 +2311,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2085.2</v>
+        <v>2085.201548</v>
       </c>
       <c r="G10" t="n">
-        <v>2085.2</v>
+        <v>2085.201548</v>
       </c>
     </row>
     <row r="11">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1040.54</v>
+        <v>1040.5406479</v>
       </c>
       <c r="G12" t="n">
-        <v>1040.54</v>
+        <v>1040.5406479</v>
       </c>
     </row>
     <row r="13">
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>360.03</v>
+        <v>360.031</v>
       </c>
       <c r="C15" t="n">
-        <v>360.03</v>
+        <v>360.031</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>360.06</v>
+        <v>360.0602428</v>
       </c>
       <c r="G15" t="n">
-        <v>360.06</v>
+        <v>360.0602428</v>
       </c>
     </row>
     <row r="16">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1980.53</v>
+        <v>1980.5271818</v>
       </c>
       <c r="C16" t="n">
-        <v>1980.53</v>
+        <v>1980.5271818</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1986.78</v>
+        <v>1986.7818627</v>
       </c>
       <c r="G16" t="n">
-        <v>1986.78</v>
+        <v>1986.7818627</v>
       </c>
     </row>
     <row r="17">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>199.999819</v>
       </c>
       <c r="G17" t="n">
-        <v>200</v>
+        <v>199.999819</v>
       </c>
     </row>
     <row r="18">
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>357.44</v>
+        <v>357.43625</v>
       </c>
       <c r="C18" t="n">
-        <v>357.44</v>
+        <v>357.43625</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>362.58</v>
+        <v>362.582114</v>
       </c>
       <c r="G18" t="n">
-        <v>362.58</v>
+        <v>362.582114</v>
       </c>
     </row>
     <row r="19">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.49</v>
+        <v>142.4879005</v>
       </c>
       <c r="C19" t="n">
-        <v>142.49</v>
+        <v>142.4879005</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>142.57</v>
+        <v>142.5712139</v>
       </c>
       <c r="G19" t="n">
-        <v>142.57</v>
+        <v>142.5712139</v>
       </c>
     </row>
     <row r="20">
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>240.65</v>
+        <v>240.649509</v>
       </c>
       <c r="C20" t="n">
-        <v>240.65</v>
+        <v>240.649509</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>242.29</v>
+        <v>242.2907451</v>
       </c>
       <c r="G20" t="n">
-        <v>242.29</v>
+        <v>242.2907451</v>
       </c>
     </row>
     <row r="21">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.81</v>
+        <v>33.8125172</v>
       </c>
       <c r="C22" t="n">
-        <v>33.81</v>
+        <v>33.8125172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>33.84</v>
+        <v>33.8350419</v>
       </c>
       <c r="G22" t="n">
-        <v>33.84</v>
+        <v>33.8350419</v>
       </c>
     </row>
     <row r="23">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>168</v>
+        <v>167.9980506</v>
       </c>
       <c r="G23" t="n">
-        <v>168</v>
+        <v>167.9980506</v>
       </c>
     </row>
     <row r="24">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>267.88</v>
+        <v>267.8821</v>
       </c>
       <c r="C24" t="n">
-        <v>267.88</v>
+        <v>267.8821</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>267.54</v>
+        <v>267.5420614</v>
       </c>
       <c r="G24" t="n">
-        <v>267.54</v>
+        <v>267.5420614</v>
       </c>
     </row>
     <row r="25">
@@ -2679,10 +2679,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175.26</v>
+        <v>175.2603333</v>
       </c>
       <c r="C26" t="n">
-        <v>175.26</v>
+        <v>175.2603333</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>175.27</v>
+        <v>175.2736628</v>
       </c>
       <c r="G26" t="n">
-        <v>175.27</v>
+        <v>175.2736628</v>
       </c>
     </row>
     <row r="27">
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>101.67</v>
+        <v>101.6711844</v>
       </c>
       <c r="G31" t="n">
-        <v>101.67</v>
+        <v>101.6711844</v>
       </c>
     </row>
     <row r="32">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49.66</v>
+        <v>49.660763</v>
       </c>
       <c r="C34" t="n">
-        <v>49.66</v>
+        <v>49.660763</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50.98</v>
+        <v>50.982873</v>
       </c>
       <c r="G34" t="n">
-        <v>50.98</v>
+        <v>50.982873</v>
       </c>
     </row>
     <row r="35">
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>785.42</v>
+        <v>785.4211831</v>
       </c>
       <c r="C2" t="n">
-        <v>785.42</v>
+        <v>785.4211831</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>786.9</v>
+        <v>786.9018397</v>
       </c>
       <c r="G2" t="n">
-        <v>786.9</v>
+        <v>786.9018397</v>
       </c>
     </row>
     <row r="3">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.2</v>
+        <v>448.2032</v>
       </c>
       <c r="C4" t="n">
-        <v>448.2</v>
+        <v>448.2032</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>444.18</v>
+        <v>444.1834689</v>
       </c>
       <c r="G4" t="n">
-        <v>444.18</v>
+        <v>444.1834689</v>
       </c>
     </row>
     <row r="5">
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3360.68</v>
+        <v>3360.67775</v>
       </c>
       <c r="C6" t="n">
-        <v>3360.68</v>
+        <v>3360.67775</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3360.31</v>
+        <v>3360.3094389</v>
       </c>
       <c r="G6" t="n">
-        <v>3360.31</v>
+        <v>3360.3094389</v>
       </c>
     </row>
     <row r="7">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.35</v>
+        <v>542.34525</v>
       </c>
       <c r="C9" t="n">
-        <v>542.35</v>
+        <v>542.34525</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>542.28</v>
+        <v>542.2790645</v>
       </c>
       <c r="G9" t="n">
-        <v>542.28</v>
+        <v>542.2790645</v>
       </c>
     </row>
     <row r="10">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1104.73</v>
+        <v>1104.7296557</v>
       </c>
       <c r="C10" t="n">
-        <v>1104.73</v>
+        <v>1104.7296557</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1058.23</v>
+        <v>1058.2348481</v>
       </c>
       <c r="G10" t="n">
-        <v>1058.23</v>
+        <v>1058.2348481</v>
       </c>
     </row>
     <row r="11">
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.87</v>
+        <v>15.8676667</v>
       </c>
       <c r="C11" t="n">
-        <v>15.87</v>
+        <v>15.8676667</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3126,10 +3126,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16.15</v>
+        <v>16.1496391</v>
       </c>
       <c r="G11" t="n">
-        <v>16.15</v>
+        <v>16.1496391</v>
       </c>
     </row>
     <row r="12">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>952.73</v>
+        <v>952.7279167</v>
       </c>
       <c r="C12" t="n">
-        <v>952.73</v>
+        <v>952.7279167</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>944.14</v>
+        <v>944.1448797</v>
       </c>
       <c r="G12" t="n">
-        <v>944.14</v>
+        <v>944.1448797</v>
       </c>
     </row>
     <row r="13">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>471.71</v>
+        <v>471.7058</v>
       </c>
       <c r="C15" t="n">
-        <v>471.71</v>
+        <v>471.7058</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -3210,10 +3210,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>471.74</v>
+        <v>471.7441133</v>
       </c>
       <c r="G15" t="n">
-        <v>471.74</v>
+        <v>471.7441133</v>
       </c>
     </row>
     <row r="16">
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2320.45</v>
+        <v>2320.4530333</v>
       </c>
       <c r="C16" t="n">
-        <v>2320.45</v>
+        <v>2320.4530333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2327.78</v>
+        <v>2327.7812302</v>
       </c>
       <c r="G16" t="n">
-        <v>2327.78</v>
+        <v>2327.7812302</v>
       </c>
     </row>
     <row r="17">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>552.78</v>
+        <v>552.7848750000001</v>
       </c>
       <c r="C18" t="n">
-        <v>552.78</v>
+        <v>552.7848750000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>560.74</v>
+        <v>560.7430936</v>
       </c>
       <c r="G18" t="n">
-        <v>560.74</v>
+        <v>560.7430936</v>
       </c>
     </row>
     <row r="19">
@@ -3294,10 +3294,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>304.94</v>
+        <v>304.9448478</v>
       </c>
       <c r="C19" t="n">
-        <v>304.94</v>
+        <v>304.9448478</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>305.12</v>
+        <v>305.1231505</v>
       </c>
       <c r="G19" t="n">
-        <v>305.12</v>
+        <v>305.1231505</v>
       </c>
     </row>
     <row r="20">
@@ -3323,10 +3323,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.77</v>
+        <v>42.774075</v>
       </c>
       <c r="C20" t="n">
-        <v>42.77</v>
+        <v>42.774075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>43.07</v>
+        <v>43.0657953</v>
       </c>
       <c r="G20" t="n">
-        <v>43.07</v>
+        <v>43.0657953</v>
       </c>
     </row>
     <row r="21">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.31</v>
+        <v>123.3148508</v>
       </c>
       <c r="C22" t="n">
-        <v>123.31</v>
+        <v>123.3148508</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>123.4</v>
+        <v>123.3969985</v>
       </c>
       <c r="G22" t="n">
-        <v>123.4</v>
+        <v>123.3969985</v>
       </c>
     </row>
     <row r="23">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.4</v>
+        <v>10.3955889</v>
       </c>
       <c r="C24" t="n">
-        <v>10.4</v>
+        <v>10.3955889</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10.38</v>
+        <v>10.3823932</v>
       </c>
       <c r="G24" t="n">
-        <v>10.38</v>
+        <v>10.3823932</v>
       </c>
     </row>
     <row r="25">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.77</v>
+        <v>66.7730691</v>
       </c>
       <c r="C25" t="n">
-        <v>66.77</v>
+        <v>66.7730691</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>66.75</v>
+        <v>66.7455904</v>
       </c>
       <c r="G25" t="n">
-        <v>66.75</v>
+        <v>66.7455904</v>
       </c>
     </row>
     <row r="26">
@@ -3582,10 +3582,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.0030259</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.0030259</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.0030263</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0030263</v>
       </c>
     </row>
   </sheetData>
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2211.75</v>
+        <v>2211.7495015</v>
       </c>
       <c r="C2" t="n">
-        <v>-350.49</v>
+        <v>-350.4861603</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2330.54</v>
+        <v>2330.5420295</v>
       </c>
       <c r="G2" t="n">
-        <v>2330.54</v>
+        <v>2330.5420295</v>
       </c>
     </row>
     <row r="3">
@@ -3696,10 +3696,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330.29</v>
+        <v>330.2861469</v>
       </c>
       <c r="C3" t="n">
-        <v>267.11</v>
+        <v>267.1139471</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>311.84</v>
+        <v>311.8444718</v>
       </c>
       <c r="G3" t="n">
-        <v>311.84</v>
+        <v>311.8444718</v>
       </c>
     </row>
     <row r="4">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927.88</v>
+        <v>927.8759307</v>
       </c>
       <c r="C4" t="n">
-        <v>676.49</v>
+        <v>676.4948764</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>931.64</v>
+        <v>931.6389663</v>
       </c>
       <c r="G4" t="n">
-        <v>931.64</v>
+        <v>931.6389663</v>
       </c>
     </row>
     <row r="5">
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.38</v>
+        <v>481.3763559</v>
       </c>
       <c r="C5" t="n">
-        <v>46.65</v>
+        <v>46.6501344</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3770,10 +3770,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>495.6</v>
+        <v>495.6006342</v>
       </c>
       <c r="G5" t="n">
-        <v>495.6</v>
+        <v>495.6006342</v>
       </c>
     </row>
     <row r="6">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24201.08</v>
+        <v>24201.0801318</v>
       </c>
       <c r="C6" t="n">
-        <v>-7557.67</v>
+        <v>-7557.6674643</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3799,10 +3799,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>24442.17</v>
+        <v>24442.1652086</v>
       </c>
       <c r="G6" t="n">
-        <v>24442.17</v>
+        <v>24442.1652086</v>
       </c>
     </row>
     <row r="7">
@@ -3812,10 +3812,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.59</v>
+        <v>28.5875706</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17</v>
+        <v>68.17473270000001</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>16.1</v>
+        <v>16.0965894</v>
       </c>
       <c r="G7" t="n">
-        <v>16.1</v>
+        <v>16.0965894</v>
       </c>
     </row>
     <row r="8">
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>642.84</v>
+        <v>642.8426378</v>
       </c>
       <c r="C8" t="n">
-        <v>-25.14</v>
+        <v>-25.1447556</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3857,10 +3857,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>622.3</v>
+        <v>622.2991372</v>
       </c>
       <c r="G8" t="n">
-        <v>622.3</v>
+        <v>622.2991372</v>
       </c>
     </row>
     <row r="9">
@@ -3870,10 +3870,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6642.98</v>
+        <v>6642.9794237</v>
       </c>
       <c r="C9" t="n">
-        <v>-1431.85</v>
+        <v>-1431.8489897</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6932.54</v>
+        <v>6932.5421346</v>
       </c>
       <c r="G9" t="n">
-        <v>6932.54</v>
+        <v>6932.5421346</v>
       </c>
     </row>
     <row r="10">
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10079.72</v>
+        <v>10079.7249068</v>
       </c>
       <c r="C10" t="n">
-        <v>-36.47</v>
+        <v>-36.4744488</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9970.73</v>
+        <v>9970.7312573</v>
       </c>
       <c r="G10" t="n">
-        <v>9970.73</v>
+        <v>9970.7312573</v>
       </c>
     </row>
     <row r="11">
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>472.84</v>
+        <v>472.836522</v>
       </c>
       <c r="C11" t="n">
-        <v>181.78</v>
+        <v>181.7773951</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>453.35</v>
+        <v>453.3507337</v>
       </c>
       <c r="G11" t="n">
-        <v>453.35</v>
+        <v>453.3507337</v>
       </c>
     </row>
     <row r="12">
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10209.94</v>
+        <v>10209.940209</v>
       </c>
       <c r="C12" t="n">
-        <v>-1442.01</v>
+        <v>-1442.0091894</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10332.31</v>
+        <v>10332.3062555</v>
       </c>
       <c r="G12" t="n">
-        <v>10332.31</v>
+        <v>10332.3062555</v>
       </c>
     </row>
     <row r="13">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.24</v>
+        <v>41.2421262</v>
       </c>
       <c r="C13" t="n">
-        <v>16.47</v>
+        <v>16.4676511</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>36.4</v>
+        <v>36.3951042</v>
       </c>
       <c r="G13" t="n">
-        <v>36.4</v>
+        <v>36.3951042</v>
       </c>
     </row>
     <row r="14">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.68</v>
+        <v>6.6818577</v>
       </c>
       <c r="C14" t="n">
-        <v>16.01</v>
+        <v>16.0126419</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -4031,10 +4031,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7.07</v>
+        <v>7.0730814</v>
       </c>
       <c r="G14" t="n">
-        <v>7.07</v>
+        <v>7.0730814</v>
       </c>
     </row>
     <row r="15">
@@ -4044,10 +4044,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>632.09</v>
+        <v>632.0943927</v>
       </c>
       <c r="C15" t="n">
-        <v>100.44</v>
+        <v>100.442797</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4060,10 +4060,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>616.2</v>
+        <v>616.2000532</v>
       </c>
       <c r="G15" t="n">
-        <v>616.2</v>
+        <v>616.2000532</v>
       </c>
     </row>
     <row r="16">
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3407.45</v>
+        <v>3407.4514124</v>
       </c>
       <c r="C16" t="n">
-        <v>356.12</v>
+        <v>356.1155758</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -4089,10 +4089,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3491.97</v>
+        <v>3491.9743097</v>
       </c>
       <c r="G16" t="n">
-        <v>3491.97</v>
+        <v>3491.9743097</v>
       </c>
     </row>
     <row r="17">
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5608.14</v>
+        <v>5608.1354972</v>
       </c>
       <c r="C17" t="n">
-        <v>-1448.69</v>
+        <v>-1448.6864389</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -4118,10 +4118,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5937.26</v>
+        <v>5937.2597674</v>
       </c>
       <c r="G17" t="n">
-        <v>5937.26</v>
+        <v>5937.2597674</v>
       </c>
     </row>
     <row r="18">
@@ -4131,10 +4131,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3655.52</v>
+        <v>3655.5220734</v>
       </c>
       <c r="C18" t="n">
-        <v>-169.47</v>
+        <v>-169.4747808</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3641.35</v>
+        <v>3641.3479146</v>
       </c>
       <c r="G18" t="n">
-        <v>3641.35</v>
+        <v>3641.3479146</v>
       </c>
     </row>
     <row r="19">
@@ -4160,10 +4160,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2023.36</v>
+        <v>2023.3581977</v>
       </c>
       <c r="C19" t="n">
-        <v>-404.78</v>
+        <v>-404.7757318</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4176,10 +4176,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1997.85</v>
+        <v>1997.8478353</v>
       </c>
       <c r="G19" t="n">
-        <v>1997.85</v>
+        <v>1997.8478353</v>
       </c>
     </row>
     <row r="20">
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>431.9</v>
+        <v>431.899904</v>
       </c>
       <c r="C20" t="n">
-        <v>352.42</v>
+        <v>352.4201178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>392.81</v>
+        <v>392.8070473</v>
       </c>
       <c r="G20" t="n">
-        <v>392.81</v>
+        <v>392.8070473</v>
       </c>
     </row>
     <row r="21">
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>801.1799999999999</v>
+        <v>801.1790031</v>
       </c>
       <c r="C21" t="n">
-        <v>12.63</v>
+        <v>12.6251735</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>815.9400000000001</v>
+        <v>815.9434664</v>
       </c>
       <c r="G21" t="n">
-        <v>815.9400000000001</v>
+        <v>815.9434664</v>
       </c>
     </row>
     <row r="22">
@@ -4247,10 +4247,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.66</v>
+        <v>866.6606783</v>
       </c>
       <c r="C22" t="n">
-        <v>305.36</v>
+        <v>305.3644061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>859.97</v>
+        <v>859.9722682</v>
       </c>
       <c r="G22" t="n">
-        <v>859.97</v>
+        <v>859.9722682</v>
       </c>
     </row>
     <row r="23">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13506.59</v>
+        <v>13506.5934087</v>
       </c>
       <c r="C23" t="n">
-        <v>-33.53</v>
+        <v>-33.527229</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13933.14</v>
+        <v>13933.1439887</v>
       </c>
       <c r="G23" t="n">
-        <v>13933.14</v>
+        <v>13933.1439887</v>
       </c>
     </row>
     <row r="24">
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12505.5</v>
+        <v>12505.4988333</v>
       </c>
       <c r="C24" t="n">
-        <v>-1101.81</v>
+        <v>-1101.8141418</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13544.11</v>
+        <v>13544.1149953</v>
       </c>
       <c r="G24" t="n">
-        <v>13544.11</v>
+        <v>13544.1149953</v>
       </c>
     </row>
     <row r="25">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4769.27</v>
+        <v>4769.2724802</v>
       </c>
       <c r="C25" t="n">
-        <v>4034.08</v>
+        <v>4034.0782462</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -4350,10 +4350,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5035.37</v>
+        <v>5035.369196</v>
       </c>
       <c r="G25" t="n">
-        <v>5035.37</v>
+        <v>5035.369196</v>
       </c>
     </row>
     <row r="26">
@@ -4363,10 +4363,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1856.33</v>
+        <v>1856.3259887</v>
       </c>
       <c r="C26" t="n">
-        <v>935.52</v>
+        <v>935.5186825</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2029.15</v>
+        <v>2029.1459141</v>
       </c>
       <c r="G26" t="n">
-        <v>2029.15</v>
+        <v>2029.1459141</v>
       </c>
     </row>
     <row r="27">
@@ -4392,10 +4392,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1689.59</v>
+        <v>1689.5944633</v>
       </c>
       <c r="C27" t="n">
-        <v>354.14</v>
+        <v>354.1398932</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4408,10 +4408,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1845.41</v>
+        <v>1845.4135431</v>
       </c>
       <c r="G27" t="n">
-        <v>1845.41</v>
+        <v>1845.4135431</v>
       </c>
     </row>
     <row r="28">
@@ -4434,10 +4434,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.3</v>
+        <v>29.3013502</v>
       </c>
       <c r="C29" t="n">
-        <v>16.07</v>
+        <v>16.0679045</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4450,10 +4450,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>29.37</v>
+        <v>29.3719505</v>
       </c>
       <c r="G29" t="n">
-        <v>29.37</v>
+        <v>29.3719505</v>
       </c>
     </row>
     <row r="30">
@@ -4476,10 +4476,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>309.24</v>
+        <v>309.2448014</v>
       </c>
       <c r="C31" t="n">
-        <v>-75.95</v>
+        <v>-75.95450390000001</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4492,10 +4492,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>320.4</v>
+        <v>320.3985231</v>
       </c>
       <c r="G31" t="n">
-        <v>320.4</v>
+        <v>320.3985231</v>
       </c>
     </row>
     <row r="32">
@@ -4521,7 +4521,7 @@
         <v>3.3</v>
       </c>
       <c r="C33" t="n">
-        <v>-8.15</v>
+        <v>-8.152199100000001</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.43</v>
+        <v>3.4266238</v>
       </c>
       <c r="G33" t="n">
-        <v>3.43</v>
+        <v>3.4266238</v>
       </c>
     </row>
     <row r="34">
@@ -4547,10 +4547,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.86</v>
+        <v>119.8622525</v>
       </c>
       <c r="C34" t="n">
-        <v>6.15</v>
+        <v>6.14927</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4563,10 +4563,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>110.32</v>
+        <v>110.3220202</v>
       </c>
       <c r="G34" t="n">
-        <v>110.32</v>
+        <v>110.3220202</v>
       </c>
     </row>
     <row r="35">
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>76.06999999999999</v>
+        <v>76.0747418</v>
       </c>
       <c r="C35" t="n">
-        <v>31.02</v>
+        <v>31.0235961</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>73.3</v>
+        <v>73.30310040000001</v>
       </c>
       <c r="G35" t="n">
-        <v>73.3</v>
+        <v>73.30310040000001</v>
       </c>
     </row>
   </sheetData>
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7603.37</v>
+        <v>7603.3702509</v>
       </c>
       <c r="C2" t="n">
-        <v>5416.12</v>
+        <v>5416.118281</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7963.78</v>
+        <v>7963.7780626</v>
       </c>
       <c r="G2" t="n">
-        <v>7963.78</v>
+        <v>7963.7780626</v>
       </c>
     </row>
     <row r="3">
@@ -4690,10 +4690,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2664.78</v>
+        <v>2664.7763523</v>
       </c>
       <c r="C3" t="n">
-        <v>4586.39</v>
+        <v>4586.389253</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2480.44</v>
+        <v>2480.4423466</v>
       </c>
       <c r="G3" t="n">
-        <v>2480.44</v>
+        <v>2480.4423466</v>
       </c>
     </row>
     <row r="4">
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4415.56</v>
+        <v>4415.5634905</v>
       </c>
       <c r="C4" t="n">
-        <v>6402.96</v>
+        <v>6402.9566966</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4401.24</v>
+        <v>4401.2399949</v>
       </c>
       <c r="G4" t="n">
-        <v>4401.24</v>
+        <v>4401.2399949</v>
       </c>
     </row>
     <row r="5">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1955</v>
+        <v>1954.998283</v>
       </c>
       <c r="C5" t="n">
-        <v>2394.5</v>
+        <v>2394.4985604</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -4764,10 +4764,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1967.47</v>
+        <v>1967.4708913</v>
       </c>
       <c r="G5" t="n">
-        <v>1967.47</v>
+        <v>1967.4708913</v>
       </c>
     </row>
     <row r="6">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31167.45</v>
+        <v>31167.4541948</v>
       </c>
       <c r="C6" t="n">
-        <v>57877.32</v>
+        <v>57877.3234351</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4793,10 +4793,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30817.62</v>
+        <v>30817.6245282</v>
       </c>
       <c r="G6" t="n">
-        <v>30817.62</v>
+        <v>30817.6245282</v>
       </c>
     </row>
     <row r="7">
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2987.18</v>
+        <v>2987.1770127</v>
       </c>
       <c r="C7" t="n">
-        <v>1038.69</v>
+        <v>1038.6865066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4822,10 +4822,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3221.33</v>
+        <v>3221.3292818</v>
       </c>
       <c r="G7" t="n">
-        <v>3221.33</v>
+        <v>3221.3292818</v>
       </c>
     </row>
     <row r="8">
@@ -4835,10 +4835,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14304.77</v>
+        <v>14304.7686741</v>
       </c>
       <c r="C8" t="n">
-        <v>268.71</v>
+        <v>268.7134104</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4851,10 +4851,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13857.78</v>
+        <v>13857.7775305</v>
       </c>
       <c r="G8" t="n">
-        <v>13857.78</v>
+        <v>13857.7775305</v>
       </c>
     </row>
     <row r="9">
@@ -4864,10 +4864,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33749.77</v>
+        <v>33749.7685483</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.1</v>
+        <v>7862.098326</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>35400.1</v>
+        <v>35400.1047483</v>
       </c>
       <c r="G9" t="n">
-        <v>35400.1</v>
+        <v>35400.1047483</v>
       </c>
     </row>
     <row r="10">
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18525.97</v>
+        <v>18525.9732417</v>
       </c>
       <c r="C10" t="n">
-        <v>28332.92</v>
+        <v>28332.9198689</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -4909,10 +4909,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17204.46</v>
+        <v>17204.4565791</v>
       </c>
       <c r="G10" t="n">
-        <v>17204.46</v>
+        <v>17204.4565791</v>
       </c>
     </row>
     <row r="11">
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3174.2</v>
+        <v>3174.2038793</v>
       </c>
       <c r="C11" t="n">
-        <v>1831.68</v>
+        <v>1831.6790491</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3038.48</v>
+        <v>3038.4757041</v>
       </c>
       <c r="G11" t="n">
-        <v>3038.48</v>
+        <v>3038.4757041</v>
       </c>
     </row>
     <row r="12">
@@ -4951,10 +4951,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35728.91</v>
+        <v>35728.9050122</v>
       </c>
       <c r="C12" t="n">
-        <v>23492.96</v>
+        <v>23492.9571521</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35890.18</v>
+        <v>35890.1762528</v>
       </c>
       <c r="G12" t="n">
-        <v>35890.18</v>
+        <v>35890.1762528</v>
       </c>
     </row>
     <row r="13">
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.38</v>
+        <v>687.3846717</v>
       </c>
       <c r="C13" t="n">
-        <v>-177.33</v>
+        <v>-177.3346375</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>643.85</v>
+        <v>643.8459715</v>
       </c>
       <c r="G13" t="n">
-        <v>643.85</v>
+        <v>643.8459715</v>
       </c>
     </row>
     <row r="14">
@@ -5009,10 +5009,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1074.24</v>
+        <v>1074.2359249</v>
       </c>
       <c r="C14" t="n">
-        <v>-50</v>
+        <v>-50.0004566</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -5025,10 +5025,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1283.52</v>
+        <v>1283.5196096</v>
       </c>
       <c r="G14" t="n">
-        <v>1283.52</v>
+        <v>1283.5196096</v>
       </c>
     </row>
     <row r="15">
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2921.64</v>
+        <v>2921.6403312</v>
       </c>
       <c r="C15" t="n">
-        <v>3353.31</v>
+        <v>3353.3137487</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2829.93</v>
+        <v>2829.9271634</v>
       </c>
       <c r="G15" t="n">
-        <v>2829.93</v>
+        <v>2829.9271634</v>
       </c>
     </row>
     <row r="16">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2694.86</v>
+        <v>2694.8609945</v>
       </c>
       <c r="C16" t="n">
-        <v>3636.75</v>
+        <v>3636.7547136</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -5083,10 +5083,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2605.15</v>
+        <v>2605.1478495</v>
       </c>
       <c r="G16" t="n">
-        <v>2605.15</v>
+        <v>2605.1478495</v>
       </c>
     </row>
     <row r="17">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4537.63</v>
+        <v>4537.6343891</v>
       </c>
       <c r="C17" t="n">
-        <v>4718.03</v>
+        <v>4718.0252948</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4685.24</v>
+        <v>4685.2405258</v>
       </c>
       <c r="G17" t="n">
-        <v>4685.24</v>
+        <v>4685.2405258</v>
       </c>
     </row>
     <row r="18">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16362.9</v>
+        <v>16362.8991987</v>
       </c>
       <c r="C18" t="n">
-        <v>11605.22</v>
+        <v>11605.217968</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -5141,10 +5141,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15884.79</v>
+        <v>15884.7919834</v>
       </c>
       <c r="G18" t="n">
-        <v>15884.79</v>
+        <v>15884.7919834</v>
       </c>
     </row>
     <row r="19">
@@ -5154,10 +5154,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9278.32</v>
+        <v>9278.322096899999</v>
       </c>
       <c r="C19" t="n">
-        <v>700.6799999999999</v>
+        <v>700.6776165</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9130.24</v>
+        <v>9130.241187400001</v>
       </c>
       <c r="G19" t="n">
-        <v>9130.24</v>
+        <v>9130.241187400001</v>
       </c>
     </row>
     <row r="20">
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8015.59</v>
+        <v>8015.5890799</v>
       </c>
       <c r="C20" t="n">
-        <v>6496.1</v>
+        <v>6496.096788</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7312.1</v>
+        <v>7312.0989503</v>
       </c>
       <c r="G20" t="n">
-        <v>7312.1</v>
+        <v>7312.0989503</v>
       </c>
     </row>
     <row r="21">
@@ -5212,10 +5212,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1229.36</v>
+        <v>1229.3576763</v>
       </c>
       <c r="C21" t="n">
-        <v>1445.66</v>
+        <v>1445.6555511</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1249.34</v>
+        <v>1249.3410186</v>
       </c>
       <c r="G21" t="n">
-        <v>1249.34</v>
+        <v>1249.3410186</v>
       </c>
     </row>
     <row r="22">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3616.78</v>
+        <v>3616.7759052</v>
       </c>
       <c r="C22" t="n">
-        <v>2411.06</v>
+        <v>2411.0600952</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3492.23</v>
+        <v>3492.2337749</v>
       </c>
       <c r="G22" t="n">
-        <v>3492.23</v>
+        <v>3492.2337749</v>
       </c>
     </row>
     <row r="23">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1225.12</v>
+        <v>1225.1236179</v>
       </c>
       <c r="C23" t="n">
-        <v>1795.1</v>
+        <v>1795.0955388</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -5286,10 +5286,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1199.73</v>
+        <v>1199.7346616</v>
       </c>
       <c r="G23" t="n">
-        <v>1199.73</v>
+        <v>1199.7346616</v>
       </c>
     </row>
     <row r="24">
@@ -5299,10 +5299,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2270.68</v>
+        <v>2270.6781695</v>
       </c>
       <c r="C24" t="n">
-        <v>3514.34</v>
+        <v>3514.3383123</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2271.89</v>
+        <v>2271.8903002</v>
       </c>
       <c r="G24" t="n">
-        <v>2271.89</v>
+        <v>2271.8903002</v>
       </c>
     </row>
     <row r="25">
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8912.639999999999</v>
+        <v>8912.644331900001</v>
       </c>
       <c r="C25" t="n">
-        <v>20275.72</v>
+        <v>20275.7153346</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9056.35</v>
+        <v>9056.347303500001</v>
       </c>
       <c r="G25" t="n">
-        <v>9056.35</v>
+        <v>9056.347303500001</v>
       </c>
     </row>
     <row r="26">
@@ -5357,10 +5357,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1617.85</v>
+        <v>1617.8542939</v>
       </c>
       <c r="C26" t="n">
-        <v>2125.2</v>
+        <v>2125.1962556</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1643.68</v>
+        <v>1643.6766414</v>
       </c>
       <c r="G26" t="n">
-        <v>1643.68</v>
+        <v>1643.6766414</v>
       </c>
     </row>
     <row r="27">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4340.45</v>
+        <v>4340.4522948</v>
       </c>
       <c r="C27" t="n">
-        <v>3942.98</v>
+        <v>3942.9783712</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4472.4</v>
+        <v>4472.3963103</v>
       </c>
       <c r="G27" t="n">
-        <v>4472.4</v>
+        <v>4472.3963103</v>
       </c>
     </row>
     <row r="28">
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>893.75</v>
+        <v>893.7473154</v>
       </c>
       <c r="C29" t="n">
-        <v>408.81</v>
+        <v>408.8148656</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -5444,10 +5444,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>902.51</v>
+        <v>902.5140603999999</v>
       </c>
       <c r="G29" t="n">
-        <v>902.51</v>
+        <v>902.5140603999999</v>
       </c>
     </row>
     <row r="30">
@@ -5457,10 +5457,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1352.26</v>
+        <v>1352.2632136</v>
       </c>
       <c r="C30" t="n">
-        <v>679.6900000000001</v>
+        <v>679.6912681</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -5473,10 +5473,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1293.07</v>
+        <v>1293.0703603</v>
       </c>
       <c r="G30" t="n">
-        <v>1293.07</v>
+        <v>1293.0703603</v>
       </c>
     </row>
     <row r="31">
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2403.45</v>
+        <v>2403.4549792</v>
       </c>
       <c r="C31" t="n">
-        <v>2196.3</v>
+        <v>2196.2987091</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -5502,10 +5502,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2399.88</v>
+        <v>2399.8779115</v>
       </c>
       <c r="G31" t="n">
-        <v>2399.88</v>
+        <v>2399.8779115</v>
       </c>
     </row>
     <row r="32">
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>955.8</v>
+        <v>955.8014846999999</v>
       </c>
       <c r="C32" t="n">
-        <v>492.82</v>
+        <v>492.8198198</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -5531,10 +5531,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>876.6900000000001</v>
+        <v>876.6919092000001</v>
       </c>
       <c r="G32" t="n">
-        <v>876.6900000000001</v>
+        <v>876.6919092000001</v>
       </c>
     </row>
     <row r="33">
@@ -5544,10 +5544,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.08</v>
+        <v>100.0756923</v>
       </c>
       <c r="C33" t="n">
-        <v>-15.81</v>
+        <v>-15.8075686</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>60.55</v>
+        <v>60.5506521</v>
       </c>
       <c r="G33" t="n">
-        <v>60.55</v>
+        <v>60.5506521</v>
       </c>
     </row>
     <row r="34">
@@ -5573,10 +5573,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>913.24</v>
+        <v>913.2389815</v>
       </c>
       <c r="C34" t="n">
-        <v>479.34</v>
+        <v>479.3396469</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>788.77</v>
+        <v>788.7682165</v>
       </c>
       <c r="G34" t="n">
-        <v>788.77</v>
+        <v>788.7682165</v>
       </c>
     </row>
     <row r="35">
@@ -5602,10 +5602,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>560.71</v>
+        <v>560.7144603</v>
       </c>
       <c r="C35" t="n">
-        <v>278.68</v>
+        <v>278.678864</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5618,10 +5618,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>537.51</v>
+        <v>537.5141794</v>
       </c>
       <c r="G35" t="n">
-        <v>537.51</v>
+        <v>537.5141794</v>
       </c>
     </row>
   </sheetData>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.26</v>
+        <v>1696.262079</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1699.46</v>
+        <v>1699.4598304</v>
       </c>
       <c r="G2" t="n">
-        <v>1699.46</v>
+        <v>1699.4598304</v>
       </c>
     </row>
     <row r="3">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.68</v>
+        <v>170.676</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>172.92</v>
+        <v>172.9207481</v>
       </c>
       <c r="G3" t="n">
-        <v>172.92</v>
+        <v>172.9207481</v>
       </c>
     </row>
     <row r="4">
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1448.77</v>
+        <v>1448.7715925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1435.78</v>
+        <v>1435.7782176</v>
       </c>
       <c r="G4" t="n">
-        <v>1435.78</v>
+        <v>1435.7782176</v>
       </c>
     </row>
     <row r="5">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346.91</v>
+        <v>346.9094733</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>345.3</v>
+        <v>345.2957699</v>
       </c>
       <c r="G5" t="n">
-        <v>345.3</v>
+        <v>345.2957699</v>
       </c>
     </row>
     <row r="6">
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7038.42</v>
+        <v>7038.4156124</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7037.64</v>
+        <v>7037.6442422</v>
       </c>
       <c r="G6" t="n">
-        <v>7037.64</v>
+        <v>7037.6442422</v>
       </c>
     </row>
     <row r="7">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.4</v>
+        <v>23.40166</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5848,10 +5848,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>23.24</v>
+        <v>23.243917</v>
       </c>
       <c r="G7" t="n">
-        <v>23.24</v>
+        <v>23.243917</v>
       </c>
     </row>
     <row r="8">
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.56</v>
+        <v>322.5593067</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>319.57</v>
+        <v>319.5656601</v>
       </c>
       <c r="G8" t="n">
-        <v>319.57</v>
+        <v>319.5656601</v>
       </c>
     </row>
     <row r="9">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3402.26</v>
+        <v>3402.2591929</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3401.84</v>
+        <v>3401.8439956</v>
       </c>
       <c r="G9" t="n">
-        <v>3401.84</v>
+        <v>3401.8439956</v>
       </c>
     </row>
     <row r="10">
@@ -5919,7 +5919,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5747.49</v>
+        <v>5747.4943659</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5935,10 +5935,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5505.6</v>
+        <v>5505.5993074</v>
       </c>
       <c r="G10" t="n">
-        <v>5505.6</v>
+        <v>5505.5993074</v>
       </c>
     </row>
     <row r="11">
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>450.01</v>
+        <v>450.008</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>458</v>
+        <v>458.0047555</v>
       </c>
       <c r="G11" t="n">
-        <v>458</v>
+        <v>458.0047555</v>
       </c>
     </row>
     <row r="12">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5078.75</v>
+        <v>5078.7504794</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -5993,10 +5993,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5033</v>
+        <v>5032.9964901</v>
       </c>
       <c r="G12" t="n">
-        <v>5033</v>
+        <v>5032.9964901</v>
       </c>
     </row>
     <row r="13">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.44</v>
+        <v>27.4411765</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>27.56</v>
+        <v>27.5615963</v>
       </c>
       <c r="G13" t="n">
-        <v>27.56</v>
+        <v>27.5615963</v>
       </c>
     </row>
     <row r="14">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.77</v>
+        <v>307.7745</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6051,10 +6051,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>307.76</v>
+        <v>307.7557688</v>
       </c>
       <c r="G14" t="n">
-        <v>307.76</v>
+        <v>307.7557688</v>
       </c>
     </row>
     <row r="15">
@@ -6064,7 +6064,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>612.84</v>
+        <v>612.8382433</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>612.89</v>
+        <v>612.8880199</v>
       </c>
       <c r="G15" t="n">
-        <v>612.89</v>
+        <v>612.8880199</v>
       </c>
     </row>
     <row r="16">
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1308.14</v>
+        <v>1308.1360596</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -6109,10 +6109,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1312.27</v>
+        <v>1312.2672695</v>
       </c>
       <c r="G16" t="n">
-        <v>1312.27</v>
+        <v>1312.2672695</v>
       </c>
     </row>
     <row r="17">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2365.38</v>
+        <v>2365.38289</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2399.44</v>
+        <v>2399.4363435</v>
       </c>
       <c r="G18" t="n">
-        <v>2399.44</v>
+        <v>2399.4363435</v>
       </c>
     </row>
     <row r="19">
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1442.61</v>
+        <v>1442.6083</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1443.45</v>
+        <v>1443.4518</v>
       </c>
       <c r="G19" t="n">
-        <v>1443.45</v>
+        <v>1443.4518</v>
       </c>
     </row>
     <row r="20">
@@ -6193,7 +6193,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>450.04</v>
+        <v>450.0414933</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6209,10 +6209,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>453.11</v>
+        <v>453.1107884</v>
       </c>
       <c r="G20" t="n">
-        <v>453.11</v>
+        <v>453.1107884</v>
       </c>
     </row>
     <row r="21">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.56</v>
+        <v>112.5559</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>114.29</v>
+        <v>114.2942557</v>
       </c>
       <c r="G21" t="n">
-        <v>114.29</v>
+        <v>114.2942557</v>
       </c>
     </row>
     <row r="22">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>341.57</v>
+        <v>341.5671227</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6267,10 +6267,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>341.79</v>
+        <v>341.7946618</v>
       </c>
       <c r="G22" t="n">
-        <v>341.79</v>
+        <v>341.7946618</v>
       </c>
     </row>
     <row r="23">
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>580.9</v>
+        <v>580.8963427</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>580.89</v>
+        <v>580.8896023</v>
       </c>
       <c r="G23" t="n">
-        <v>580.89</v>
+        <v>580.8896023</v>
       </c>
     </row>
     <row r="24">
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>447.41</v>
+        <v>447.4121933</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>446.84</v>
+        <v>446.8442666</v>
       </c>
       <c r="G24" t="n">
-        <v>446.84</v>
+        <v>446.8442666</v>
       </c>
     </row>
     <row r="25">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3363.47</v>
+        <v>3363.4717829</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3362.09</v>
+        <v>3362.0876349</v>
       </c>
       <c r="G25" t="n">
-        <v>3362.09</v>
+        <v>3362.0876349</v>
       </c>
     </row>
     <row r="26">
@@ -6448,10 +6448,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>116.58</v>
+        <v>116.5758607</v>
       </c>
       <c r="G31" t="n">
-        <v>116.58</v>
+        <v>116.5758607</v>
       </c>
     </row>
     <row r="32">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.16</v>
+        <v>51.16062</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>52.52</v>
+        <v>52.5226604</v>
       </c>
       <c r="G34" t="n">
-        <v>52.52</v>
+        <v>52.5226604</v>
       </c>
     </row>
     <row r="35">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.96</v>
+        <v>134.9583333</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>134.98</v>
+        <v>134.9757904</v>
       </c>
       <c r="G35" t="n">
-        <v>134.98</v>
+        <v>134.9757904</v>
       </c>
     </row>
   </sheetData>
@@ -6601,10 +6601,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3199.01</v>
+        <v>3199.0077295</v>
       </c>
       <c r="C2" t="n">
-        <v>-2122.76</v>
+        <v>-2122.7639152</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -6617,10 +6617,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3366.09</v>
+        <v>3366.0901045</v>
       </c>
       <c r="G2" t="n">
-        <v>3366.09</v>
+        <v>3366.0901045</v>
       </c>
     </row>
     <row r="3">
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>725.83</v>
+        <v>725.8270530999999</v>
       </c>
       <c r="C3" t="n">
-        <v>848.75</v>
+        <v>848.7498639</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -6646,10 +6646,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>713.21</v>
+        <v>713.2068862</v>
       </c>
       <c r="G3" t="n">
-        <v>713.21</v>
+        <v>713.2068862</v>
       </c>
     </row>
     <row r="4">
@@ -6659,10 +6659,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.32</v>
+        <v>104.3228513</v>
       </c>
       <c r="C4" t="n">
-        <v>1493.29</v>
+        <v>1493.2858581</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>101.9</v>
+        <v>101.8981843</v>
       </c>
       <c r="G4" t="n">
-        <v>101.9</v>
+        <v>101.8981843</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1046.58</v>
+        <v>1046.5812808</v>
       </c>
       <c r="C5" t="n">
-        <v>-171.6</v>
+        <v>-171.6005121</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -6704,10 +6704,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1129.93</v>
+        <v>1129.9344636</v>
       </c>
       <c r="G5" t="n">
-        <v>1129.93</v>
+        <v>1129.9344636</v>
       </c>
     </row>
     <row r="6">
@@ -6717,10 +6717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14671.89</v>
+        <v>14671.8850242</v>
       </c>
       <c r="C6" t="n">
-        <v>1012.98</v>
+        <v>1012.9821063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -6733,10 +6733,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>14747.06</v>
+        <v>14747.0627808</v>
       </c>
       <c r="G6" t="n">
-        <v>14747.06</v>
+        <v>14747.0627808</v>
       </c>
     </row>
     <row r="7">
@@ -6746,10 +6746,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.16</v>
+        <v>435.1637427</v>
       </c>
       <c r="C7" t="n">
-        <v>209.98</v>
+        <v>209.9828962</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -6762,10 +6762,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>540.12</v>
+        <v>540.1224356</v>
       </c>
       <c r="G7" t="n">
-        <v>540.12</v>
+        <v>540.1224356</v>
       </c>
     </row>
     <row r="8">
@@ -6775,10 +6775,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.8</v>
+        <v>1744.7956989</v>
       </c>
       <c r="C8" t="n">
-        <v>-1786.61</v>
+        <v>-1786.6121821</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -6791,10 +6791,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1676.89</v>
+        <v>1676.8916418</v>
       </c>
       <c r="G8" t="n">
-        <v>1676.89</v>
+        <v>1676.8916418</v>
       </c>
     </row>
     <row r="9">
@@ -6804,10 +6804,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12954.12</v>
+        <v>12954.1198068</v>
       </c>
       <c r="C9" t="n">
-        <v>-1133.8</v>
+        <v>-1133.8014178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -6820,10 +6820,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13255.96</v>
+        <v>13255.9586203</v>
       </c>
       <c r="G9" t="n">
-        <v>13255.96</v>
+        <v>13255.9586203</v>
       </c>
     </row>
     <row r="10">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7204.77</v>
+        <v>7204.7661836</v>
       </c>
       <c r="C10" t="n">
-        <v>-484.13</v>
+        <v>-484.1327988</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -6849,10 +6849,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7080.45</v>
+        <v>7080.4469559</v>
       </c>
       <c r="G10" t="n">
-        <v>7080.45</v>
+        <v>7080.4469559</v>
       </c>
     </row>
     <row r="11">
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.12</v>
+        <v>62.1150491</v>
       </c>
       <c r="C11" t="n">
-        <v>42.38</v>
+        <v>42.3768348</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -6878,10 +6878,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>62.57</v>
+        <v>62.5701238</v>
       </c>
       <c r="G11" t="n">
-        <v>62.57</v>
+        <v>62.5701238</v>
       </c>
     </row>
     <row r="12">
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19391.07</v>
+        <v>19391.0743961</v>
       </c>
       <c r="C12" t="n">
-        <v>1873.34</v>
+        <v>1873.3424893</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19485.27</v>
+        <v>19485.2690076</v>
       </c>
       <c r="G12" t="n">
-        <v>19485.27</v>
+        <v>19485.2690076</v>
       </c>
     </row>
     <row r="13">
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>625.1799999999999</v>
+        <v>625.1818182</v>
       </c>
       <c r="C13" t="n">
-        <v>-244.59</v>
+        <v>-244.5885175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -6936,10 +6936,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>593.5</v>
+        <v>593.5025753</v>
       </c>
       <c r="G13" t="n">
-        <v>593.5</v>
+        <v>593.5025753</v>
       </c>
     </row>
     <row r="14">
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2899.72</v>
+        <v>2899.7240836</v>
       </c>
       <c r="C14" t="n">
-        <v>-1367.44</v>
+        <v>-1367.4354227</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -6965,10 +6965,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3471.2</v>
+        <v>3471.202559</v>
       </c>
       <c r="G14" t="n">
-        <v>3471.2</v>
+        <v>3471.202559</v>
       </c>
     </row>
     <row r="15">
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.75</v>
+        <v>204.7468599</v>
       </c>
       <c r="C15" t="n">
-        <v>53.35</v>
+        <v>53.3486562</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>207.16</v>
+        <v>207.1638268</v>
       </c>
       <c r="G15" t="n">
-        <v>207.16</v>
+        <v>207.1638268</v>
       </c>
     </row>
     <row r="16">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.41</v>
+        <v>78.4090909</v>
       </c>
       <c r="C16" t="n">
-        <v>466.28</v>
+        <v>466.2822042</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>62.78</v>
+        <v>62.7754612</v>
       </c>
       <c r="G16" t="n">
-        <v>62.78</v>
+        <v>62.7754612</v>
       </c>
     </row>
     <row r="17">
@@ -7036,10 +7036,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>663.59</v>
+        <v>663.5874396</v>
       </c>
       <c r="C17" t="n">
-        <v>216.63</v>
+        <v>216.6310289</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -7052,10 +7052,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>679.87</v>
+        <v>679.8686304</v>
       </c>
       <c r="G17" t="n">
-        <v>679.87</v>
+        <v>679.8686304</v>
       </c>
     </row>
     <row r="18">
@@ -7065,10 +7065,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4249.82</v>
+        <v>4249.8183575</v>
       </c>
       <c r="C18" t="n">
-        <v>1686.63</v>
+        <v>1686.6348703</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -7081,10 +7081,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4235.79</v>
+        <v>4235.7947525</v>
       </c>
       <c r="G18" t="n">
-        <v>4235.79</v>
+        <v>4235.7947525</v>
       </c>
     </row>
     <row r="19">
@@ -7094,10 +7094,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1935.29</v>
+        <v>1935.2869565</v>
       </c>
       <c r="C19" t="n">
-        <v>-1174.21</v>
+        <v>-1174.2117498</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -7110,10 +7110,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1906.37</v>
+        <v>1906.3681191</v>
       </c>
       <c r="G19" t="n">
-        <v>1906.37</v>
+        <v>1906.3681191</v>
       </c>
     </row>
     <row r="20">
@@ -7123,10 +7123,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1200.11</v>
+        <v>1200.1140097</v>
       </c>
       <c r="C20" t="n">
-        <v>1510.02</v>
+        <v>1510.0157995</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -7139,10 +7139,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1172.52</v>
+        <v>1172.518002</v>
       </c>
       <c r="G20" t="n">
-        <v>1172.52</v>
+        <v>1172.518002</v>
       </c>
     </row>
     <row r="21">
@@ -7152,10 +7152,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.87</v>
+        <v>600.8690101</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.97</v>
+        <v>-1.9708008</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>607.58</v>
+        <v>607.5826473</v>
       </c>
       <c r="G21" t="n">
-        <v>607.58</v>
+        <v>607.5826473</v>
       </c>
     </row>
     <row r="22">
@@ -7181,10 +7181,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.33</v>
+        <v>392.3323907</v>
       </c>
       <c r="C22" t="n">
-        <v>157.03</v>
+        <v>157.0286762</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -7197,10 +7197,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>393.8</v>
+        <v>393.8008757</v>
       </c>
       <c r="G22" t="n">
-        <v>393.8</v>
+        <v>393.8008757</v>
       </c>
     </row>
     <row r="23">
@@ -7210,10 +7210,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1494.77</v>
+        <v>1494.7710145</v>
       </c>
       <c r="C23" t="n">
-        <v>-710.5</v>
+        <v>-710.5014422</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -7226,10 +7226,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1527.37</v>
+        <v>1527.3693103</v>
       </c>
       <c r="G23" t="n">
-        <v>1527.37</v>
+        <v>1527.3693103</v>
       </c>
     </row>
     <row r="24">
@@ -7239,10 +7239,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1511.44</v>
+        <v>1511.4415459</v>
       </c>
       <c r="C24" t="n">
-        <v>2642.07</v>
+        <v>2642.0656541</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -7255,10 +7255,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1549.7</v>
+        <v>1549.703443</v>
       </c>
       <c r="G24" t="n">
-        <v>1549.7</v>
+        <v>1549.703443</v>
       </c>
     </row>
     <row r="25">
@@ -7268,10 +7268,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1532.61</v>
+        <v>1532.6067633</v>
       </c>
       <c r="C25" t="n">
-        <v>9102.09</v>
+        <v>9102.091617300001</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1480.33</v>
+        <v>1480.3344919</v>
       </c>
       <c r="G25" t="n">
-        <v>1480.33</v>
+        <v>1480.3344919</v>
       </c>
     </row>
     <row r="26">
@@ -7297,10 +7297,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>675.73</v>
+        <v>675.7333333</v>
       </c>
       <c r="C26" t="n">
-        <v>185.37</v>
+        <v>185.3668443</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>713.12</v>
+        <v>713.1151271</v>
       </c>
       <c r="G26" t="n">
-        <v>713.12</v>
+        <v>713.1151271</v>
       </c>
     </row>
     <row r="27">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1459.87</v>
+        <v>1459.8697095</v>
       </c>
       <c r="C27" t="n">
-        <v>-880.3200000000001</v>
+        <v>-880.3186406</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1534.54</v>
+        <v>1534.5434957</v>
       </c>
       <c r="G27" t="n">
-        <v>1534.54</v>
+        <v>1534.5434957</v>
       </c>
     </row>
     <row r="28">
@@ -7355,10 +7355,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.83</v>
+        <v>106.8283193</v>
       </c>
       <c r="C28" t="n">
-        <v>80.72</v>
+        <v>80.7175987</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -7371,10 +7371,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>104.28</v>
+        <v>104.2800598</v>
       </c>
       <c r="G28" t="n">
-        <v>104.28</v>
+        <v>104.2800598</v>
       </c>
     </row>
     <row r="29">
@@ -7384,10 +7384,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240.72</v>
+        <v>240.7228474</v>
       </c>
       <c r="C29" t="n">
-        <v>100.51</v>
+        <v>100.5139171</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>243.03</v>
+        <v>243.027875</v>
       </c>
       <c r="G29" t="n">
-        <v>243.03</v>
+        <v>243.027875</v>
       </c>
     </row>
     <row r="30">
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>427.07</v>
+        <v>427.0728205</v>
       </c>
       <c r="C30" t="n">
-        <v>100.6</v>
+        <v>100.5996401</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -7429,10 +7429,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>422.52</v>
+        <v>422.5212102</v>
       </c>
       <c r="G30" t="n">
-        <v>422.52</v>
+        <v>422.5212102</v>
       </c>
     </row>
     <row r="31">
@@ -7458,10 +7458,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>216.12</v>
+        <v>216.1178056</v>
       </c>
       <c r="G31" t="n">
-        <v>216.12</v>
+        <v>216.1178056</v>
       </c>
     </row>
     <row r="32">
@@ -7471,10 +7471,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>210.28</v>
+        <v>210.2801247</v>
       </c>
       <c r="C32" t="n">
-        <v>0.38</v>
+        <v>0.3795355</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -7487,10 +7487,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>190.28</v>
+        <v>190.2777646</v>
       </c>
       <c r="G32" t="n">
-        <v>190.28</v>
+        <v>190.2777646</v>
       </c>
     </row>
     <row r="33">
@@ -7647,10 +7647,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.0599999999999</v>
+        <v>639.0579923</v>
       </c>
       <c r="C6" t="n">
-        <v>960.3200000000001</v>
+        <v>960.3242058</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>643.54</v>
+        <v>643.5408371</v>
       </c>
       <c r="G6" t="n">
-        <v>643.54</v>
+        <v>643.5408371</v>
       </c>
     </row>
     <row r="7">
@@ -7689,10 +7689,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.25</v>
+        <v>184.2491938</v>
       </c>
       <c r="C8" t="n">
-        <v>47.01</v>
+        <v>47.0144495</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -7705,10 +7705,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>174.88</v>
+        <v>174.8771503</v>
       </c>
       <c r="G8" t="n">
-        <v>174.88</v>
+        <v>174.8771503</v>
       </c>
     </row>
     <row r="9">
@@ -7718,10 +7718,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441.45</v>
+        <v>441.4496971</v>
       </c>
       <c r="C9" t="n">
-        <v>32.95</v>
+        <v>32.9513841</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -7734,10 +7734,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>468.52</v>
+        <v>468.5192796</v>
       </c>
       <c r="G9" t="n">
-        <v>468.52</v>
+        <v>468.5192796</v>
       </c>
     </row>
     <row r="10">
@@ -7747,10 +7747,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.72</v>
+        <v>415.7159465</v>
       </c>
       <c r="C10" t="n">
-        <v>306.92</v>
+        <v>306.9211345</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -7763,10 +7763,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>395.8</v>
+        <v>395.8014321</v>
       </c>
       <c r="G10" t="n">
-        <v>395.8</v>
+        <v>395.8014321</v>
       </c>
     </row>
     <row r="11">
@@ -7776,18 +7776,18 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.57</v>
+        <v>-7.5662342</v>
       </c>
       <c r="C11" t="n">
-        <v>59.77</v>
+        <v>59.7713628</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-6.8</v>
+        <v>-6.7968192</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.8</v>
+        <v>-6.7968192</v>
       </c>
     </row>
     <row r="12">
@@ -7797,10 +7797,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.29</v>
+        <v>134.2864617</v>
       </c>
       <c r="C12" t="n">
-        <v>161.32</v>
+        <v>161.3167042</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -7813,10 +7813,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>135.8</v>
+        <v>135.7983767</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8</v>
+        <v>135.7983767</v>
       </c>
     </row>
     <row r="13">
@@ -7852,10 +7852,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.29</v>
+        <v>7.2873684</v>
       </c>
       <c r="C15" t="n">
-        <v>73.01000000000001</v>
+        <v>73.01462960000001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.7</v>
+        <v>6.7010601</v>
       </c>
       <c r="G15" t="n">
-        <v>6.7</v>
+        <v>6.7010601</v>
       </c>
     </row>
     <row r="16">
@@ -7881,10 +7881,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.39</v>
+        <v>205.3947325</v>
       </c>
       <c r="C16" t="n">
-        <v>162.47</v>
+        <v>162.4713852</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -7897,10 +7897,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>216.74</v>
+        <v>216.7381705</v>
       </c>
       <c r="G16" t="n">
-        <v>216.74</v>
+        <v>216.7381705</v>
       </c>
     </row>
     <row r="17">
@@ -7910,18 +7910,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13</v>
+        <v>-12.9955061</v>
       </c>
       <c r="C17" t="n">
-        <v>144.5</v>
+        <v>144.4964313</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-16.36</v>
+        <v>-16.3561366</v>
       </c>
       <c r="G17" t="n">
-        <v>-16.36</v>
+        <v>-16.3561366</v>
       </c>
     </row>
     <row r="18">
@@ -7931,10 +7931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.61</v>
+        <v>14.6121406</v>
       </c>
       <c r="C18" t="n">
-        <v>78.08</v>
+        <v>78.0826756</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -7947,10 +7947,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10.52</v>
+        <v>10.5236445</v>
       </c>
       <c r="G18" t="n">
-        <v>10.52</v>
+        <v>10.5236445</v>
       </c>
     </row>
     <row r="19">
@@ -7973,10 +7973,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>270.01</v>
+        <v>270.0055621</v>
       </c>
       <c r="C20" t="n">
-        <v>94.09999999999999</v>
+        <v>94.09630300000001</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -7989,10 +7989,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>255.26</v>
+        <v>255.2634131</v>
       </c>
       <c r="G20" t="n">
-        <v>255.26</v>
+        <v>255.2634131</v>
       </c>
     </row>
     <row r="21">
@@ -8002,10 +8002,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.45999999999999</v>
+        <v>71.46082730000001</v>
       </c>
       <c r="C21" t="n">
-        <v>70.81</v>
+        <v>70.80806490000001</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -8018,10 +8018,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>72.90000000000001</v>
+        <v>72.897114</v>
       </c>
       <c r="G21" t="n">
-        <v>72.90000000000001</v>
+        <v>72.897114</v>
       </c>
     </row>
     <row r="22">
@@ -8031,10 +8031,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.88</v>
+        <v>164.8812881</v>
       </c>
       <c r="C22" t="n">
-        <v>4.6</v>
+        <v>4.6022425</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -8047,10 +8047,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>162.43</v>
+        <v>162.4320214</v>
       </c>
       <c r="G22" t="n">
-        <v>162.43</v>
+        <v>162.4320214</v>
       </c>
     </row>
     <row r="23">
@@ -8073,10 +8073,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.38</v>
+        <v>125.3796514</v>
       </c>
       <c r="C24" t="n">
-        <v>10.24</v>
+        <v>10.2374987</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -8089,10 +8089,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>135.13</v>
+        <v>135.130912</v>
       </c>
       <c r="G24" t="n">
-        <v>135.13</v>
+        <v>135.130912</v>
       </c>
     </row>
     <row r="25">
@@ -8102,10 +8102,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.66</v>
+        <v>256.6649333</v>
       </c>
       <c r="C25" t="n">
-        <v>139.94</v>
+        <v>139.9434987</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>282.2</v>
+        <v>282.2007898</v>
       </c>
       <c r="G25" t="n">
-        <v>282.2</v>
+        <v>282.2007898</v>
       </c>
     </row>
     <row r="26">
@@ -8131,10 +8131,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1443.26</v>
+        <v>1443.2626807</v>
       </c>
       <c r="C26" t="n">
-        <v>-25.85</v>
+        <v>-25.8494766</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -8147,10 +8147,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1574.33</v>
+        <v>1574.3293736</v>
       </c>
       <c r="G26" t="n">
-        <v>1574.33</v>
+        <v>1574.3293736</v>
       </c>
     </row>
     <row r="27">
@@ -8160,10 +8160,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.86</v>
+        <v>5.8581879</v>
       </c>
       <c r="C27" t="n">
-        <v>266.2</v>
+        <v>266.1988286</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -8176,10 +8176,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.55</v>
+        <v>2.5482984</v>
       </c>
       <c r="G27" t="n">
-        <v>2.55</v>
+        <v>2.5482984</v>
       </c>
     </row>
     <row r="28">
@@ -8189,10 +8189,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.44</v>
+        <v>76.4389257</v>
       </c>
       <c r="C28" t="n">
-        <v>136.29</v>
+        <v>136.2936</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -8205,10 +8205,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>77.75</v>
+        <v>77.74596219999999</v>
       </c>
       <c r="G28" t="n">
-        <v>77.75</v>
+        <v>77.74596219999999</v>
       </c>
     </row>
     <row r="29">
@@ -8257,10 +8257,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.8</v>
+        <v>144.8014147</v>
       </c>
       <c r="C32" t="n">
-        <v>52.36</v>
+        <v>52.3573203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -8273,10 +8273,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>139.96</v>
+        <v>139.9555562</v>
       </c>
       <c r="G32" t="n">
-        <v>139.96</v>
+        <v>139.9555562</v>
       </c>
     </row>
     <row r="33">
@@ -8286,10 +8286,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>706.3</v>
+        <v>706.3021969</v>
       </c>
       <c r="C33" t="n">
-        <v>-1242.92</v>
+        <v>-1242.9182326</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>768.66</v>
+        <v>768.6608934</v>
       </c>
       <c r="G33" t="n">
-        <v>768.66</v>
+        <v>768.6608934</v>
       </c>
     </row>
     <row r="34">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13.17</v>
+        <v>13.1709773</v>
       </c>
       <c r="G3" t="n">
-        <v>13.17</v>
+        <v>13.1709773</v>
       </c>
     </row>
     <row r="4">
@@ -8455,10 +8455,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14.87</v>
+        <v>14.8654718</v>
       </c>
       <c r="G4" t="n">
-        <v>14.87</v>
+        <v>14.8654718</v>
       </c>
     </row>
     <row r="5">
@@ -8484,10 +8484,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>24.88</v>
+        <v>24.8837086</v>
       </c>
       <c r="G5" t="n">
-        <v>24.88</v>
+        <v>24.8837086</v>
       </c>
     </row>
     <row r="6">
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>795.91</v>
+        <v>795.9127629</v>
       </c>
       <c r="G6" t="n">
-        <v>795.91</v>
+        <v>795.9127629</v>
       </c>
     </row>
     <row r="7">
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.97</v>
+        <v>2.9721572</v>
       </c>
       <c r="G8" t="n">
-        <v>2.97</v>
+        <v>2.9721572</v>
       </c>
     </row>
     <row r="9">
@@ -8584,10 +8584,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>242.97</v>
+        <v>242.9703453</v>
       </c>
       <c r="G9" t="n">
-        <v>242.97</v>
+        <v>242.9703453</v>
       </c>
     </row>
     <row r="10">
@@ -8613,10 +8613,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>212.66</v>
+        <v>212.6566758</v>
       </c>
       <c r="G10" t="n">
-        <v>212.66</v>
+        <v>212.6566758</v>
       </c>
     </row>
     <row r="11">
@@ -8642,10 +8642,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>2.0355405</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>2.0355405</v>
       </c>
     </row>
     <row r="12">
@@ -8671,10 +8671,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>660</v>
+        <v>660.0000681</v>
       </c>
       <c r="G12" t="n">
-        <v>660</v>
+        <v>660.0000681</v>
       </c>
     </row>
     <row r="13">
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>50.0040611</v>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>50.0040611</v>
       </c>
     </row>
     <row r="16">
@@ -8755,10 +8755,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25.08</v>
+        <v>25.0789522</v>
       </c>
       <c r="G16" t="n">
-        <v>25.08</v>
+        <v>25.0789522</v>
       </c>
     </row>
     <row r="17">
@@ -8784,10 +8784,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>149.9998643</v>
       </c>
       <c r="G17" t="n">
-        <v>150</v>
+        <v>149.9998643</v>
       </c>
     </row>
     <row r="18">
@@ -8813,10 +8813,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>19.27</v>
+        <v>19.2735353</v>
       </c>
       <c r="G18" t="n">
-        <v>19.27</v>
+        <v>19.2735353</v>
       </c>
     </row>
     <row r="19">
@@ -8842,10 +8842,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18.01</v>
+        <v>18.0105247</v>
       </c>
       <c r="G19" t="n">
-        <v>18.01</v>
+        <v>18.0105247</v>
       </c>
     </row>
     <row r="20">
@@ -8871,10 +8871,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11.08</v>
+        <v>11.0750203</v>
       </c>
       <c r="G20" t="n">
-        <v>11.08</v>
+        <v>11.0750203</v>
       </c>
     </row>
     <row r="21">
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20.31</v>
+        <v>20.3088875</v>
       </c>
       <c r="G21" t="n">
-        <v>20.31</v>
+        <v>20.3088875</v>
       </c>
     </row>
     <row r="22">
@@ -8942,10 +8942,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>35.9995823</v>
       </c>
       <c r="G23" t="n">
-        <v>36</v>
+        <v>35.9995823</v>
       </c>
     </row>
     <row r="24">
@@ -8971,10 +8971,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>31.96</v>
+        <v>31.9593805</v>
       </c>
       <c r="G24" t="n">
-        <v>31.96</v>
+        <v>31.9593805</v>
       </c>
     </row>
     <row r="25">
@@ -9000,10 +9000,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>197.92</v>
+        <v>197.9185183</v>
       </c>
       <c r="G25" t="n">
-        <v>197.92</v>
+        <v>197.9185183</v>
       </c>
     </row>
     <row r="26">
@@ -9042,10 +9042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>190</v>
+        <v>190.0023431</v>
       </c>
       <c r="G27" t="n">
-        <v>190</v>
+        <v>190.0023431</v>
       </c>
     </row>
     <row r="28">
@@ -9110,10 +9110,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.06</v>
+        <v>1.0646197</v>
       </c>
       <c r="G31" t="n">
-        <v>1.06</v>
+        <v>1.0646197</v>
       </c>
     </row>
     <row r="32">
@@ -9123,10 +9123,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.02</v>
+        <v>0.0153439</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02</v>
+        <v>0.0153439</v>
       </c>
     </row>
     <row r="33">
@@ -9247,18 +9247,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.49</v>
+        <v>-1.4907755</v>
       </c>
       <c r="C2" t="n">
-        <v>9.779999999999999</v>
+        <v>9.782432099999999</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-1.74</v>
+        <v>-1.7433204</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.74</v>
+        <v>-1.7433204</v>
       </c>
     </row>
     <row r="3">
@@ -9268,10 +9268,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.67</v>
+        <v>290.674871</v>
       </c>
       <c r="C3" t="n">
-        <v>-27.08</v>
+        <v>-27.0811765</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -9284,10 +9284,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>283.45</v>
+        <v>283.4512791</v>
       </c>
       <c r="G3" t="n">
-        <v>283.45</v>
+        <v>283.4512791</v>
       </c>
     </row>
     <row r="4">
@@ -9297,18 +9297,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02</v>
+        <v>-0.0246305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13</v>
+        <v>0.1275373</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-0.03</v>
+        <v>-0.0251187</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03</v>
+        <v>-0.0251187</v>
       </c>
     </row>
     <row r="5">
@@ -9331,10 +9331,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.47</v>
+        <v>339.4703803</v>
       </c>
       <c r="C6" t="n">
-        <v>2.96</v>
+        <v>2.9574569</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -9347,10 +9347,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>341.35</v>
+        <v>341.3475614</v>
       </c>
       <c r="G6" t="n">
-        <v>341.35</v>
+        <v>341.3475614</v>
       </c>
     </row>
     <row r="7">
@@ -9386,10 +9386,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.69</v>
+        <v>311.68566</v>
       </c>
       <c r="C9" t="n">
-        <v>-114.57</v>
+        <v>-114.5730326</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>319.78</v>
+        <v>319.7759321</v>
       </c>
       <c r="G9" t="n">
-        <v>319.78</v>
+        <v>319.7759321</v>
       </c>
     </row>
     <row r="10">
@@ -9415,18 +9415,18 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.68</v>
+        <v>-0.6789165</v>
       </c>
       <c r="C10" t="n">
-        <v>4.04</v>
+        <v>4.0390545</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.8</v>
+        <v>-0.7985387</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8</v>
+        <v>-0.7985387</v>
       </c>
     </row>
     <row r="11">
@@ -9514,18 +9514,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04</v>
+        <v>-0.035386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.16</v>
+        <v>0.1626456</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-0.04</v>
+        <v>-0.0413494</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04</v>
+        <v>-0.0413494</v>
       </c>
     </row>
     <row r="18">
@@ -9535,10 +9535,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>571.86</v>
+        <v>571.8614276</v>
       </c>
       <c r="C18" t="n">
-        <v>375.66</v>
+        <v>375.6557366</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -9551,10 +9551,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>574.6</v>
+        <v>574.599099</v>
       </c>
       <c r="G18" t="n">
-        <v>574.6</v>
+        <v>574.599099</v>
       </c>
     </row>
     <row r="19">
@@ -9564,18 +9564,18 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.86</v>
+        <v>-0.85878</v>
       </c>
       <c r="C19" t="n">
-        <v>4.99</v>
+        <v>4.9865549</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.91</v>
+        <v>-0.9108216</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.91</v>
+        <v>-0.9108216</v>
       </c>
     </row>
     <row r="20">
@@ -9585,18 +9585,18 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.36</v>
+        <v>-6.3558204</v>
       </c>
       <c r="C20" t="n">
-        <v>32.16</v>
+        <v>32.1642957</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>-5.69</v>
+        <v>-5.6889425</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.69</v>
+        <v>-5.6889425</v>
       </c>
     </row>
     <row r="21">
@@ -9619,18 +9619,18 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.52</v>
+        <v>-1.5162189</v>
       </c>
       <c r="C22" t="n">
-        <v>5.02</v>
+        <v>5.0222083</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>-1.73</v>
+        <v>-1.7283977</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.73</v>
+        <v>-1.7283977</v>
       </c>
     </row>
     <row r="23">
@@ -9640,10 +9640,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>189.5</v>
+        <v>189.4981485</v>
       </c>
       <c r="C23" t="n">
-        <v>-36.52</v>
+        <v>-36.5152265</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -9656,10 +9656,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>193.33</v>
+        <v>193.3269538</v>
       </c>
       <c r="G23" t="n">
-        <v>193.33</v>
+        <v>193.3269538</v>
       </c>
     </row>
     <row r="24">
@@ -9669,10 +9669,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>185.29</v>
+        <v>185.2862847</v>
       </c>
       <c r="C24" t="n">
-        <v>-76.87</v>
+        <v>-76.8669896</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -9685,10 +9685,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>198.23</v>
+        <v>198.233416</v>
       </c>
       <c r="G24" t="n">
-        <v>198.23</v>
+        <v>198.233416</v>
       </c>
     </row>
     <row r="25">
@@ -9711,10 +9711,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.77</v>
+        <v>6.7740796</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>40.0030714</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -9727,10 +9727,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.99</v>
+        <v>6.9887042</v>
       </c>
       <c r="G26" t="n">
-        <v>6.99</v>
+        <v>6.9887042</v>
       </c>
     </row>
     <row r="27">
@@ -9779,10 +9779,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.88</v>
+        <v>0.8809709999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>5.21</v>
+        <v>5.2055185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -9795,10 +9795,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.26</v>
+        <v>0.259808</v>
       </c>
       <c r="G30" t="n">
-        <v>0.26</v>
+        <v>0.259808</v>
       </c>
     </row>
     <row r="31">
@@ -9808,10 +9808,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.43</v>
+        <v>22.4263287</v>
       </c>
       <c r="C31" t="n">
-        <v>41.05</v>
+        <v>41.0461395</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -9824,10 +9824,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>23.51</v>
+        <v>23.5135472</v>
       </c>
       <c r="G31" t="n">
-        <v>23.51</v>
+        <v>23.5135472</v>
       </c>
     </row>
     <row r="32">
@@ -9945,10 +9945,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.22</v>
+        <v>152.2203222</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.85</v>
+        <v>-15.8541513</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -9961,10 +9961,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>158.9</v>
+        <v>158.8966246</v>
       </c>
       <c r="G2" t="n">
-        <v>158.9</v>
+        <v>158.8966246</v>
       </c>
     </row>
     <row r="3">
@@ -9974,10 +9974,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.35</v>
+        <v>46.3469315</v>
       </c>
       <c r="C3" t="n">
-        <v>-24.47</v>
+        <v>-24.467427</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -9990,10 +9990,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>45.44</v>
+        <v>45.4443347</v>
       </c>
       <c r="G3" t="n">
-        <v>45.44</v>
+        <v>45.4443347</v>
       </c>
     </row>
     <row r="4">
@@ -10029,10 +10029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253.99</v>
+        <v>253.9876041</v>
       </c>
       <c r="C6" t="n">
-        <v>-132.21</v>
+        <v>-132.2103812</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -10045,10 +10045,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>256.16</v>
+        <v>256.1645289</v>
       </c>
       <c r="G6" t="n">
-        <v>256.16</v>
+        <v>256.1645289</v>
       </c>
     </row>
     <row r="7">
@@ -10084,10 +10084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.86</v>
+        <v>11.8562492</v>
       </c>
       <c r="C9" t="n">
-        <v>44.53</v>
+        <v>44.5294265</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -10100,10 +10100,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11.46</v>
+        <v>11.4633553</v>
       </c>
       <c r="G9" t="n">
-        <v>11.46</v>
+        <v>11.4633553</v>
       </c>
     </row>
     <row r="10">
@@ -10113,18 +10113,18 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.39</v>
+        <v>-0.3885455</v>
       </c>
       <c r="C10" t="n">
-        <v>11.54</v>
+        <v>11.5377274</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.48</v>
+        <v>-0.4813625</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.48</v>
+        <v>-0.4813625</v>
       </c>
     </row>
     <row r="11">
@@ -10186,18 +10186,18 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.19</v>
+        <v>-0.1942733</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16</v>
+        <v>0.1562327</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.18</v>
+        <v>-0.1800314</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.18</v>
+        <v>-0.1800314</v>
       </c>
     </row>
     <row r="16">
@@ -10220,10 +10220,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.06999999999999</v>
+        <v>85.071928</v>
       </c>
       <c r="C17" t="n">
-        <v>-37.08</v>
+        <v>-37.0830262</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -10236,10 +10236,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>89.02</v>
+        <v>89.02450570000001</v>
       </c>
       <c r="G17" t="n">
-        <v>89.02</v>
+        <v>89.02450570000001</v>
       </c>
     </row>
     <row r="18">
@@ -10249,10 +10249,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.34</v>
+        <v>64.34227629999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.89</v>
+        <v>-6.8902662</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -10265,10 +10265,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>65.09</v>
+        <v>65.09031779999999</v>
       </c>
       <c r="G18" t="n">
-        <v>65.09</v>
+        <v>65.09031779999999</v>
       </c>
     </row>
     <row r="19">
@@ -10278,18 +10278,18 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.24</v>
+        <v>-0.2358</v>
       </c>
       <c r="C19" t="n">
-        <v>2.68</v>
+        <v>2.6773953</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.24</v>
+        <v>-0.2445132</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.24</v>
+        <v>-0.2445132</v>
       </c>
     </row>
     <row r="20">
@@ -10299,18 +10299,18 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.04</v>
+        <v>-1.0443605</v>
       </c>
       <c r="C20" t="n">
-        <v>1.81</v>
+        <v>1.8058535</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>-0.92</v>
+        <v>-0.9204765</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.92</v>
+        <v>-0.9204765</v>
       </c>
     </row>
     <row r="21">
@@ -10333,10 +10333,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.39</v>
+        <v>29.3873519</v>
       </c>
       <c r="C22" t="n">
-        <v>-24.75</v>
+        <v>-24.7524354</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -10349,10 +10349,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29.49</v>
+        <v>29.4947364</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49</v>
+        <v>29.4947364</v>
       </c>
     </row>
     <row r="23">
@@ -10362,10 +10362,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.17</v>
+        <v>1.1661071</v>
       </c>
       <c r="C23" t="n">
-        <v>24.12</v>
+        <v>24.1231589</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -10378,10 +10378,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.82</v>
+        <v>0.8189999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.82</v>
+        <v>0.8189999</v>
       </c>
     </row>
     <row r="24">
@@ -10391,10 +10391,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.33</v>
+        <v>53.3293747</v>
       </c>
       <c r="C24" t="n">
-        <v>-26.85</v>
+        <v>-26.8474277</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -10407,10 +10407,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>56.15</v>
+        <v>56.1498197</v>
       </c>
       <c r="G24" t="n">
-        <v>56.15</v>
+        <v>56.1498197</v>
       </c>
     </row>
     <row r="25">
@@ -10498,18 +10498,18 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4</v>
+        <v>-4.001579</v>
       </c>
       <c r="C31" t="n">
-        <v>42.08</v>
+        <v>42.0847207</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-4.32</v>
+        <v>-4.3167313</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.32</v>
+        <v>-4.3167313</v>
       </c>
     </row>
     <row r="32">
@@ -10627,10 +10627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>912.95</v>
+        <v>912.9467253</v>
       </c>
       <c r="C2" t="n">
-        <v>-1053.57</v>
+        <v>-1053.5706576</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -10643,10 +10643,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>916.8200000000001</v>
+        <v>916.8196994</v>
       </c>
       <c r="G2" t="n">
-        <v>916.8200000000001</v>
+        <v>916.8196994</v>
       </c>
     </row>
     <row r="3">
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100.51</v>
+        <v>100.5057223</v>
       </c>
       <c r="G3" t="n">
-        <v>100.51</v>
+        <v>100.5057223</v>
       </c>
     </row>
     <row r="4">
@@ -10685,10 +10685,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.87</v>
+        <v>121.8682927</v>
       </c>
       <c r="C4" t="n">
-        <v>271.2</v>
+        <v>271.1984171</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -10701,10 +10701,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>120.59</v>
+        <v>120.5942661</v>
       </c>
       <c r="G4" t="n">
-        <v>120.59</v>
+        <v>120.5942661</v>
       </c>
     </row>
     <row r="5">
@@ -10727,10 +10727,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4374.29</v>
+        <v>4374.2947368</v>
       </c>
       <c r="C6" t="n">
-        <v>776.83</v>
+        <v>776.8312145</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -10743,10 +10743,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4442.51</v>
+        <v>4442.5087201</v>
       </c>
       <c r="G6" t="n">
-        <v>4442.51</v>
+        <v>4442.5087201</v>
       </c>
     </row>
     <row r="7">
@@ -10756,10 +10756,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.15</v>
+        <v>8.1463415</v>
       </c>
       <c r="C7" t="n">
-        <v>2.52</v>
+        <v>2.5168141</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -10772,10 +10772,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.09</v>
+        <v>8.094175</v>
       </c>
       <c r="G7" t="n">
-        <v>8.09</v>
+        <v>8.094175</v>
       </c>
     </row>
     <row r="8">
@@ -10785,10 +10785,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.83</v>
+        <v>20.8292683</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.84</v>
+        <v>-4.8437096</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -10801,10 +10801,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20.18</v>
+        <v>20.1772296</v>
       </c>
       <c r="G8" t="n">
-        <v>20.18</v>
+        <v>20.1772296</v>
       </c>
     </row>
     <row r="9">
@@ -10814,10 +10814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>455.15</v>
+        <v>455.1473684</v>
       </c>
       <c r="C9" t="n">
-        <v>1592.44</v>
+        <v>1592.4415135</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -10830,10 +10830,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>435.49</v>
+        <v>435.4868366</v>
       </c>
       <c r="G9" t="n">
-        <v>435.49</v>
+        <v>435.4868366</v>
       </c>
     </row>
     <row r="10">
@@ -10843,10 +10843,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1114.16</v>
+        <v>1114.1557895</v>
       </c>
       <c r="C10" t="n">
-        <v>2917.04</v>
+        <v>2917.042763</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -10859,10 +10859,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1054.44</v>
+        <v>1054.4386658</v>
       </c>
       <c r="G10" t="n">
-        <v>1054.44</v>
+        <v>1054.4386658</v>
       </c>
     </row>
     <row r="11">
@@ -10885,10 +10885,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.69</v>
+        <v>150.6905263</v>
       </c>
       <c r="C12" t="n">
-        <v>-3153.84</v>
+        <v>-3153.8387344</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -10901,10 +10901,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>139.89</v>
+        <v>139.8886383</v>
       </c>
       <c r="G12" t="n">
-        <v>139.89</v>
+        <v>139.8886383</v>
       </c>
     </row>
     <row r="13">
@@ -10940,10 +10940,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>332.51</v>
+        <v>332.5073171</v>
       </c>
       <c r="C15" t="n">
-        <v>-315.75</v>
+        <v>-315.7537344</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -10956,10 +10956,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>331.03</v>
+        <v>331.026154</v>
       </c>
       <c r="G15" t="n">
-        <v>331.03</v>
+        <v>331.026154</v>
       </c>
     </row>
     <row r="16">
@@ -10969,10 +10969,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.34</v>
+        <v>720.3384714</v>
       </c>
       <c r="C16" t="n">
-        <v>-399.8</v>
+        <v>-399.7990097</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -10985,10 +10985,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>728.05</v>
+        <v>728.0506172</v>
       </c>
       <c r="G16" t="n">
-        <v>728.05</v>
+        <v>728.0506172</v>
       </c>
     </row>
     <row r="17">
@@ -10998,10 +10998,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.81</v>
+        <v>60.8097561</v>
       </c>
       <c r="C17" t="n">
-        <v>-23.86</v>
+        <v>-23.859766</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>61.46</v>
+        <v>61.4626437</v>
       </c>
       <c r="G17" t="n">
-        <v>61.46</v>
+        <v>61.4626437</v>
       </c>
     </row>
     <row r="18">
@@ -11027,10 +11027,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>290.1</v>
+        <v>290.102439</v>
       </c>
       <c r="C18" t="n">
-        <v>393.79</v>
+        <v>393.790752</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -11043,10 +11043,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>294.49</v>
+        <v>294.4938874</v>
       </c>
       <c r="G18" t="n">
-        <v>294.49</v>
+        <v>294.4938874</v>
       </c>
     </row>
     <row r="19">
@@ -11056,10 +11056,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.06</v>
+        <v>116.0634146</v>
       </c>
       <c r="C19" t="n">
-        <v>10.8</v>
+        <v>10.7997437</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -11072,10 +11072,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>114.93</v>
+        <v>114.9340092</v>
       </c>
       <c r="G19" t="n">
-        <v>114.93</v>
+        <v>114.9340092</v>
       </c>
     </row>
     <row r="20">
@@ -11085,10 +11085,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.22</v>
+        <v>151.2205128</v>
       </c>
       <c r="C20" t="n">
-        <v>651.01</v>
+        <v>651.0064976</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -11101,10 +11101,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>153.77</v>
+        <v>153.7725459</v>
       </c>
       <c r="G20" t="n">
-        <v>153.77</v>
+        <v>153.7725459</v>
       </c>
     </row>
     <row r="21">
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.03</v>
+        <v>13.0294118</v>
       </c>
       <c r="C21" t="n">
-        <v>10.51</v>
+        <v>10.5137906</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -11130,10 +11130,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>13.19</v>
+        <v>13.1856324</v>
       </c>
       <c r="G21" t="n">
-        <v>13.19</v>
+        <v>13.1856324</v>
       </c>
     </row>
     <row r="22">
@@ -11159,10 +11159,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>60.99</v>
+        <v>60.9943307</v>
       </c>
       <c r="G22" t="n">
-        <v>60.99</v>
+        <v>60.9943307</v>
       </c>
     </row>
     <row r="23">
@@ -11172,10 +11172,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.01000000000001</v>
+        <v>79.0097561</v>
       </c>
       <c r="C23" t="n">
-        <v>162.7</v>
+        <v>162.6997424</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>78.63</v>
+        <v>78.6295566</v>
       </c>
       <c r="G23" t="n">
-        <v>78.63</v>
+        <v>78.6295566</v>
       </c>
     </row>
     <row r="24">
@@ -11201,10 +11201,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.01</v>
+        <v>63.0146341</v>
       </c>
       <c r="C24" t="n">
-        <v>873.38</v>
+        <v>873.379532</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -11217,10 +11217,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59.24</v>
+        <v>59.2409361</v>
       </c>
       <c r="G24" t="n">
-        <v>59.24</v>
+        <v>59.2409361</v>
       </c>
     </row>
     <row r="25">
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.2</v>
+        <v>427.2042105</v>
       </c>
       <c r="C25" t="n">
-        <v>2325.46</v>
+        <v>2325.4572167</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -11246,10 +11246,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>420.95</v>
+        <v>420.9457734</v>
       </c>
       <c r="G25" t="n">
-        <v>420.95</v>
+        <v>420.9457734</v>
       </c>
     </row>
     <row r="26">
@@ -11259,10 +11259,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.35</v>
+        <v>288.3463415</v>
       </c>
       <c r="C26" t="n">
-        <v>-908.2</v>
+        <v>-908.1960748</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -11275,10 +11275,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>291.4</v>
+        <v>291.4030809</v>
       </c>
       <c r="G26" t="n">
-        <v>291.4</v>
+        <v>291.4030809</v>
       </c>
     </row>
     <row r="27">
@@ -11288,10 +11288,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.19</v>
+        <v>18.1853659</v>
       </c>
       <c r="C27" t="n">
-        <v>266.46</v>
+        <v>266.4603661</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>16.02</v>
+        <v>16.0172342</v>
       </c>
       <c r="G27" t="n">
-        <v>16.02</v>
+        <v>16.0172342</v>
       </c>
     </row>
     <row r="28">
@@ -11493,10 +11493,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>831.5599999999999</v>
+        <v>831.5646955</v>
       </c>
       <c r="G2" t="n">
-        <v>831.5599999999999</v>
+        <v>831.5646955</v>
       </c>
     </row>
     <row r="3">
@@ -11522,10 +11522,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>324.21</v>
+        <v>324.2086725</v>
       </c>
       <c r="G3" t="n">
-        <v>324.21</v>
+        <v>324.2086725</v>
       </c>
     </row>
     <row r="4">
@@ -11551,10 +11551,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>198.21</v>
+        <v>198.2062908</v>
       </c>
       <c r="G4" t="n">
-        <v>198.21</v>
+        <v>198.2062908</v>
       </c>
     </row>
     <row r="5">
@@ -11564,10 +11564,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.22</v>
+        <v>0.223068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22</v>
+        <v>0.223068</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -11580,10 +11580,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.22</v>
+        <v>0.2220304</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>0.2220304</v>
       </c>
     </row>
     <row r="6">
@@ -11593,10 +11593,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583.01</v>
+        <v>2583.0129167</v>
       </c>
       <c r="C6" t="n">
-        <v>2583.01</v>
+        <v>2583.0129167</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -11609,10 +11609,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2582.73</v>
+        <v>2582.7298332</v>
       </c>
       <c r="G6" t="n">
-        <v>2582.73</v>
+        <v>2582.7298332</v>
       </c>
     </row>
     <row r="7">
@@ -11635,10 +11635,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.98</v>
+        <v>52.975622</v>
       </c>
       <c r="C8" t="n">
-        <v>52.98</v>
+        <v>52.975622</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -11651,10 +11651,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>52.48</v>
+        <v>52.4839596</v>
       </c>
       <c r="G8" t="n">
-        <v>52.48</v>
+        <v>52.4839596</v>
       </c>
     </row>
     <row r="9">
@@ -11664,10 +11664,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>417.77</v>
+        <v>417.7713333</v>
       </c>
       <c r="C9" t="n">
-        <v>417.77</v>
+        <v>417.7713333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -11680,10 +11680,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>417.72</v>
+        <v>417.7203503</v>
       </c>
       <c r="G9" t="n">
-        <v>417.72</v>
+        <v>417.7203503</v>
       </c>
     </row>
     <row r="10">
@@ -11693,10 +11693,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.25</v>
+        <v>785.2521053</v>
       </c>
       <c r="C10" t="n">
-        <v>785.25</v>
+        <v>785.2521053</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -11709,10 +11709,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>752.2</v>
+        <v>752.203164</v>
       </c>
       <c r="G10" t="n">
-        <v>752.2</v>
+        <v>752.203164</v>
       </c>
     </row>
     <row r="11">
@@ -11722,10 +11722,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.59</v>
+        <v>325.59425</v>
       </c>
       <c r="C11" t="n">
-        <v>325.59</v>
+        <v>325.59425</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -11738,10 +11738,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>331.38</v>
+        <v>331.3801419</v>
       </c>
       <c r="G11" t="n">
-        <v>331.38</v>
+        <v>331.3801419</v>
       </c>
     </row>
     <row r="12">
@@ -11751,10 +11751,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304.98</v>
+        <v>304.979</v>
       </c>
       <c r="C12" t="n">
-        <v>304.98</v>
+        <v>304.979</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -11767,10 +11767,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>302.23</v>
+        <v>302.2314726</v>
       </c>
       <c r="G12" t="n">
-        <v>302.23</v>
+        <v>302.2314726</v>
       </c>
     </row>
     <row r="13">
@@ -11822,10 +11822,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>300.02</v>
+        <v>300.0243669</v>
       </c>
       <c r="G15" t="n">
-        <v>300.02</v>
+        <v>300.0243669</v>
       </c>
     </row>
     <row r="16">
@@ -11851,10 +11851,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1805.68</v>
+        <v>1805.68456</v>
       </c>
       <c r="G16" t="n">
-        <v>1805.68</v>
+        <v>1805.68456</v>
       </c>
     </row>
     <row r="17">
@@ -11880,10 +11880,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>399.999638</v>
       </c>
       <c r="G17" t="n">
-        <v>400</v>
+        <v>399.999638</v>
       </c>
     </row>
     <row r="18">
@@ -11893,10 +11893,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2028.43</v>
+        <v>2028.428</v>
       </c>
       <c r="C18" t="n">
-        <v>2028.43</v>
+        <v>2028.428</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -11909,10 +11909,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2057.63</v>
+        <v>2057.6304513</v>
       </c>
       <c r="G18" t="n">
-        <v>2057.63</v>
+        <v>2057.6304513</v>
       </c>
     </row>
     <row r="19">
@@ -11935,10 +11935,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.92</v>
+        <v>750.921272</v>
       </c>
       <c r="C20" t="n">
-        <v>750.92</v>
+        <v>750.921272</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -11951,10 +11951,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>756.04</v>
+        <v>756.0425753</v>
       </c>
       <c r="G20" t="n">
-        <v>756.04</v>
+        <v>756.0425753</v>
       </c>
     </row>
     <row r="21">
@@ -11977,10 +11977,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.2</v>
+        <v>399.19604</v>
       </c>
       <c r="C22" t="n">
-        <v>399.2</v>
+        <v>399.19604</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -11993,10 +11993,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>399.46</v>
+        <v>399.4619693</v>
       </c>
       <c r="G22" t="n">
-        <v>399.46</v>
+        <v>399.4619693</v>
       </c>
     </row>
     <row r="23">
@@ -12032,10 +12032,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>313.39</v>
+        <v>313.3929835</v>
       </c>
       <c r="C25" t="n">
-        <v>313.39</v>
+        <v>313.3929835</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -12048,10 +12048,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>313.26</v>
+        <v>313.2640149</v>
       </c>
       <c r="G25" t="n">
-        <v>313.26</v>
+        <v>313.2640149</v>
       </c>
     </row>
     <row r="26">
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>74.52</v>
+        <v>74.5233812</v>
       </c>
       <c r="G31" t="n">
-        <v>74.52</v>
+        <v>74.5233812</v>
       </c>
     </row>
     <row r="32">
@@ -12181,10 +12181,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.55</v>
+        <v>763.5463066</v>
       </c>
       <c r="C34" t="n">
-        <v>763.55</v>
+        <v>763.5463066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -12197,10 +12197,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>783.87</v>
+        <v>783.8740693</v>
       </c>
       <c r="G34" t="n">
-        <v>783.87</v>
+        <v>783.8740693</v>
       </c>
     </row>
     <row r="35">
@@ -12210,10 +12210,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.68</v>
+        <v>50.6763</v>
       </c>
       <c r="C35" t="n">
-        <v>50.68</v>
+        <v>50.6763</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50.68</v>
+        <v>50.6828551</v>
       </c>
       <c r="G35" t="n">
-        <v>50.68</v>
+        <v>50.6828551</v>
       </c>
     </row>
   </sheetData>
@@ -12295,10 +12295,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.48</v>
+        <v>5.480067</v>
       </c>
       <c r="C2" t="n">
-        <v>5.48</v>
+        <v>5.480067</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -12311,10 +12311,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.49</v>
+        <v>5.4903979</v>
       </c>
       <c r="G2" t="n">
-        <v>5.49</v>
+        <v>5.4903979</v>
       </c>
     </row>
     <row r="3">
@@ -12337,10 +12337,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -12353,10 +12353,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.48</v>
+        <v>0.4786682</v>
       </c>
       <c r="G4" t="n">
-        <v>0.48</v>
+        <v>0.4786682</v>
       </c>
     </row>
     <row r="5">
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.25</v>
+        <v>0.25165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25</v>
+        <v>0.25165</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.25</v>
+        <v>0.2504794</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.2504794</v>
       </c>
     </row>
     <row r="6">
@@ -12395,10 +12395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129.56</v>
+        <v>1129.557</v>
       </c>
       <c r="C6" t="n">
-        <v>1129.56</v>
+        <v>1129.557</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -12411,10 +12411,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1129.43</v>
+        <v>1129.433207</v>
       </c>
       <c r="G6" t="n">
-        <v>1129.43</v>
+        <v>1129.433207</v>
       </c>
     </row>
     <row r="7">
@@ -12450,10 +12450,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8125</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8124008</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8124008</v>
       </c>
     </row>
     <row r="10">
@@ -12479,10 +12479,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.64</v>
+        <v>13.637166</v>
       </c>
       <c r="C10" t="n">
-        <v>13.64</v>
+        <v>13.637166</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -12495,10 +12495,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13.06</v>
+        <v>13.063218</v>
       </c>
       <c r="G10" t="n">
-        <v>13.06</v>
+        <v>13.063218</v>
       </c>
     </row>
     <row r="11">
@@ -12508,10 +12508,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.001312</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.001312</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.0013353</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.0013353</v>
       </c>
     </row>
     <row r="12">
@@ -12576,10 +12576,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -12592,10 +12592,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>0.1030084</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>0.1030084</v>
       </c>
     </row>
     <row r="16">
@@ -12621,10 +12621,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>478.85</v>
+        <v>478.8474821</v>
       </c>
       <c r="G16" t="n">
-        <v>478.85</v>
+        <v>478.8474821</v>
       </c>
     </row>
     <row r="17">
@@ -12673,10 +12673,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01</v>
+        <v>0.010061</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0.010061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -12689,10 +12689,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.01</v>
+        <v>0.0101296</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>0.0101296</v>
       </c>
     </row>
     <row r="21">
@@ -12754,10 +12754,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.16</v>
+        <v>0.164385</v>
       </c>
       <c r="C25" t="n">
-        <v>0.16</v>
+        <v>0.164385</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -12770,10 +12770,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.16</v>
+        <v>0.1643174</v>
       </c>
       <c r="G25" t="n">
-        <v>0.16</v>
+        <v>0.1643174</v>
       </c>
     </row>
     <row r="26">
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>720.05</v>
+        <v>720.0547599</v>
       </c>
       <c r="G26" t="n">
-        <v>720.05</v>
+        <v>720.0547599</v>
       </c>
     </row>
     <row r="27">
@@ -12880,10 +12880,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>166.08</v>
+        <v>166.0806782</v>
       </c>
       <c r="G31" t="n">
-        <v>166.08</v>
+        <v>166.0806782</v>
       </c>
     </row>
     <row r="32">

--- a/output/endemo2_amount_prognosis.xlsx
+++ b/output/endemo2_amount_prognosis.xlsx
@@ -491,26 +491,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4815.5410628</v>
+        <v>5010.18759020092</v>
       </c>
       <c r="C2" t="n">
-        <v>18364.5922884</v>
+        <v>18110.54450444307</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00041967602655065134</t>
+          <t>0.00043799804836671535</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00041967602655065134</t>
+          <t>0.00043799804836671535</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4804.7012789</v>
+        <v>5014.462704538984</v>
       </c>
       <c r="G2" t="n">
-        <v>4804.7012789</v>
+        <v>5014.462704538984</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +520,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.152657</v>
+        <v>175.498285609254</v>
       </c>
       <c r="C3" t="n">
-        <v>2567.6204988</v>
+        <v>2552.803775701957</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00002462900204516436</t>
+          <t>0.00002920120804382649</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00002462900204516436</t>
+          <t>0.00002920120804382649</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>175.2952227</v>
+        <v>207.83758336858</v>
       </c>
       <c r="G3" t="n">
-        <v>175.2952227</v>
+        <v>207.83758336858</v>
       </c>
     </row>
     <row r="4">
@@ -549,26 +549,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3935.4362311</v>
+        <v>3995.700982811104</v>
       </c>
       <c r="C4" t="n">
-        <v>8015.5535181</v>
+        <v>7951.518171265409</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00037272643630247015</t>
+          <t>0.00037857264627675496</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00037272643630247015</t>
+          <t>0.00037857264627675496</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3926.5213068</v>
+        <v>3988.108749458579</v>
       </c>
       <c r="G4" t="n">
-        <v>3926.5213068</v>
+        <v>3988.108749458579</v>
       </c>
     </row>
     <row r="5">
@@ -578,18 +578,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-86.87536230000001</v>
+        <v>-88.65406076204501</v>
       </c>
       <c r="C5" t="n">
-        <v>477.8190511</v>
+        <v>478.769657678121</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-98.7023641</v>
+        <v>-100.724599724085</v>
       </c>
       <c r="G5" t="n">
-        <v>-98.7023641</v>
+        <v>-100.724599724085</v>
       </c>
     </row>
     <row r="6">
@@ -599,26 +599,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29005.0531401</v>
+        <v>29552.07936756025</v>
       </c>
       <c r="C6" t="n">
-        <v>37558.3974122</v>
+        <v>37127.59544979748</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00034837983225994174</t>
+          <t>0.00035503086304714080</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00034837983225994174</t>
+          <t>0.00035503086304714080</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28879.5370474</v>
+        <v>29430.88552463647</v>
       </c>
       <c r="G6" t="n">
-        <v>28879.5370474</v>
+        <v>29430.88552463647</v>
       </c>
     </row>
     <row r="7">
@@ -628,18 +628,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.3603865</v>
+        <v>-19.694038700186</v>
       </c>
       <c r="C7" t="n">
-        <v>47.2733321</v>
+        <v>47.246349002958</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-28.5246151</v>
+        <v>-29.023999066932</v>
       </c>
       <c r="G7" t="n">
-        <v>-28.5246151</v>
+        <v>-29.023999066932</v>
       </c>
     </row>
     <row r="8">
@@ -649,18 +649,18 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-276.7613527</v>
+        <v>-279.416371742416</v>
       </c>
       <c r="C8" t="n">
-        <v>1754.4237425</v>
+        <v>1799.995256620978</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-312.762388</v>
+        <v>-315.949631824669</v>
       </c>
       <c r="G8" t="n">
-        <v>-312.762388</v>
+        <v>-315.949631824669</v>
       </c>
     </row>
     <row r="9">
@@ -670,26 +670,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3480.1603865</v>
+        <v>3543.772395091277</v>
       </c>
       <c r="C9" t="n">
-        <v>8583.3393916</v>
+        <v>8513.555624890323</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00006842934707084782</t>
+          <t>0.00006998123904402350</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00006842934707084782</t>
+          <t>0.00006998123904402350</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3201.9489506</v>
+        <v>3274.565146541227</v>
       </c>
       <c r="G9" t="n">
-        <v>3201.9489506</v>
+        <v>3274.565146541227</v>
       </c>
     </row>
     <row r="10">
@@ -699,26 +699,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8249.8811594</v>
+        <v>8415.99127637106</v>
       </c>
       <c r="C10" t="n">
-        <v>28553.2417471</v>
+        <v>28304.90534892552</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00011316504492600056</t>
+          <t>0.00011571109898770096</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00011316504492600056</t>
+          <t>0.00011571109898770096</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7274.0010301</v>
+        <v>7437.655804200437</v>
       </c>
       <c r="G10" t="n">
-        <v>7274.0010301</v>
+        <v>7437.655804200437</v>
       </c>
     </row>
     <row r="11">
@@ -741,26 +741,26 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7237.0202899</v>
+        <v>7401.462242037145</v>
       </c>
       <c r="C12" t="n">
-        <v>16074.3736498</v>
+        <v>15820.61741994209</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00012050753621851984</t>
+          <t>0.00012336326360217961</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00012050753621851984</t>
+          <t>0.00012336326360217961</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7215.6810824</v>
+        <v>7386.674687458003</v>
       </c>
       <c r="G12" t="n">
-        <v>7215.6810824</v>
+        <v>7386.674687458003</v>
       </c>
     </row>
     <row r="13">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.4931521</v>
+        <v>82.49315212811101</v>
       </c>
       <c r="C13" t="n">
-        <v>659.6913835</v>
+        <v>659.691383517864</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>79.45070370000001</v>
+        <v>79.450703665693</v>
       </c>
       <c r="G13" t="n">
-        <v>79.45070370000001</v>
+        <v>79.450703665693</v>
       </c>
     </row>
     <row r="14">
@@ -799,18 +799,18 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1216.221256</v>
+        <v>-1212.237652249751</v>
       </c>
       <c r="C14" t="n">
-        <v>7341.2457476</v>
+        <v>7345.49226966255</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>-2084.3126324</v>
+        <v>-2081.127079945298</v>
       </c>
       <c r="G14" t="n">
-        <v>-2084.3126324</v>
+        <v>-2081.127079945298</v>
       </c>
     </row>
     <row r="15">
@@ -820,26 +820,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.7932367</v>
+        <v>910.122195155607</v>
       </c>
       <c r="C15" t="n">
-        <v>1896.4425357</v>
+        <v>1891.295018446169</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00009591746402117483</t>
+          <t>0.00009687507043115544</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00009591746402117483</t>
+          <t>0.00009687507043115544</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>937.7234667</v>
+        <v>947.0853698101899</v>
       </c>
       <c r="G15" t="n">
-        <v>937.7234667</v>
+        <v>947.0853698101899</v>
       </c>
     </row>
     <row r="16">
@@ -849,26 +849,26 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6966.5594203</v>
+        <v>7051.899462242014</v>
       </c>
       <c r="C16" t="n">
-        <v>2916.7071948</v>
+        <v>2800.838073797611</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00040442504588242799</t>
+          <t>0.00040954066586773065</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00040442504588242799</t>
+          <t>0.00040954066586773065</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6990.9087334</v>
+        <v>7079.337560438225</v>
       </c>
       <c r="G16" t="n">
-        <v>6990.9087334</v>
+        <v>7079.337560438225</v>
       </c>
     </row>
     <row r="17">
@@ -878,26 +878,26 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6947.5497585</v>
+        <v>7016.461166521098</v>
       </c>
       <c r="C17" t="n">
-        <v>378.9550999</v>
+        <v>297.186023889202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00081135752909413869</t>
+          <t>0.00081939170548321616</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00081135752909413869</t>
+          <t>0.00081939170548321616</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7172.8167836</v>
+        <v>7243.843024416544</v>
       </c>
       <c r="G17" t="n">
-        <v>7172.8167836</v>
+        <v>7243.843024416544</v>
       </c>
     </row>
     <row r="18">
@@ -907,26 +907,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2709.0318841</v>
+        <v>2841.541002895683</v>
       </c>
       <c r="C18" t="n">
-        <v>9557.0617131</v>
+        <v>9526.409532512369</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00006036280547156922</t>
+          <t>0.00006364336631053263</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00006036280547156922</t>
+          <t>0.00006364336631053263</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2325.2632154</v>
+        <v>2451.635198666432</v>
       </c>
       <c r="G18" t="n">
-        <v>2325.2632154</v>
+        <v>2451.635198666432</v>
       </c>
     </row>
     <row r="19">
@@ -936,18 +936,18 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-15.0483092</v>
+        <v>-9.565647837468999</v>
       </c>
       <c r="C19" t="n">
-        <v>719.2993545</v>
+        <v>713.526190264894</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-22.8603774</v>
+        <v>-17.414545654187</v>
       </c>
       <c r="G19" t="n">
-        <v>-22.8603774</v>
+        <v>-17.414545654187</v>
       </c>
     </row>
     <row r="20">
@@ -957,26 +957,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>934.1652174</v>
+        <v>1010.587755664892</v>
       </c>
       <c r="C20" t="n">
-        <v>5921.939308</v>
+        <v>5898.559696769042</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00005033176427873473</t>
+          <t>0.00005366329713208523</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.00005033176427873473</t>
+          <t>0.00005366329713208523</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>986.8439802</v>
+        <v>1052.164621933317</v>
       </c>
       <c r="G20" t="n">
-        <v>986.8439802</v>
+        <v>1052.164621933317</v>
       </c>
     </row>
     <row r="21">
@@ -999,26 +999,26 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3849.5444453</v>
+        <v>3882.8680018835</v>
       </c>
       <c r="C22" t="n">
-        <v>3092.466609</v>
+        <v>3081.398151004619</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00068138270465327617</t>
+          <t>0.00068700417353225254</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00068138270465327617</t>
+          <t>0.00068700417353225254</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3711.318521</v>
+        <v>3741.937234170102</v>
       </c>
       <c r="G22" t="n">
-        <v>3711.318521</v>
+        <v>3741.937234170102</v>
       </c>
     </row>
     <row r="23">
@@ -1028,26 +1028,26 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3121.3594203</v>
+        <v>3162.574794319044</v>
       </c>
       <c r="C23" t="n">
-        <v>1123.2386439</v>
+        <v>1079.495196654173</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.00057336303702197958</t>
+          <t>0.00058117048592263958</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00057336303702197958</t>
+          <t>0.00058117048592263958</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3162.3614695</v>
+        <v>3205.423149457368</v>
       </c>
       <c r="G23" t="n">
-        <v>3162.3614695</v>
+        <v>3205.423149457368</v>
       </c>
     </row>
     <row r="24">
@@ -1057,26 +1057,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3429.3507246</v>
+        <v>3517.232339017348</v>
       </c>
       <c r="C24" t="n">
-        <v>1727.351848</v>
+        <v>1640.105608055927</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00035526126957069449</t>
+          <t>0.00036460550199502546</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00035526126957069449</t>
+          <t>0.00036460550199502546</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3610.2708892</v>
+        <v>3705.229763713043</v>
       </c>
       <c r="G24" t="n">
-        <v>3610.2708892</v>
+        <v>3705.229763713043</v>
       </c>
     </row>
     <row r="25">
@@ -1086,26 +1086,26 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8118.9768116</v>
+        <v>8205.981127912935</v>
       </c>
       <c r="C25" t="n">
-        <v>17315.228725</v>
+        <v>17216.306886824</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00012527809024174674</t>
+          <t>0.00012677144495457961</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.00012527809024174674</t>
+          <t>0.00012677144495457961</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8322.598617400001</v>
+        <v>8421.806642038917</v>
       </c>
       <c r="G25" t="n">
-        <v>8322.598617400001</v>
+        <v>8421.806642038917</v>
       </c>
     </row>
     <row r="26">
@@ -1115,18 +1115,18 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-134.0328502</v>
+        <v>-135.160821804468</v>
       </c>
       <c r="C26" t="n">
-        <v>815.1762301</v>
+        <v>816.789406305555</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-175.2484237</v>
+        <v>-176.77403041127</v>
       </c>
       <c r="G26" t="n">
-        <v>-175.2484237</v>
+        <v>-176.77403041127</v>
       </c>
     </row>
     <row r="27">
@@ -1136,18 +1136,18 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-154.0695652</v>
+        <v>-154.531507101168</v>
       </c>
       <c r="C27" t="n">
-        <v>2300.2429977</v>
+        <v>2304.416905163017</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>-206.1948851</v>
+        <v>-206.859410018842</v>
       </c>
       <c r="G27" t="n">
-        <v>-206.1948851</v>
+        <v>-206.859410018842</v>
       </c>
     </row>
     <row r="28">
@@ -1170,18 +1170,18 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-12.7144817</v>
+        <v>-12.62817991723</v>
       </c>
       <c r="C29" t="n">
-        <v>14.0058977</v>
+        <v>13.960862269738</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>-14.3984652</v>
+        <v>-14.32470321484</v>
       </c>
       <c r="G29" t="n">
-        <v>-14.3984652</v>
+        <v>-14.32470321484</v>
       </c>
     </row>
     <row r="30">
@@ -1191,26 +1191,26 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.9652174</v>
+        <v>3.326405294847</v>
       </c>
       <c r="C30" t="n">
-        <v>13.597583</v>
+        <v>13.682970850669</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00000099415529650527</t>
+          <t>0.00000111074742304348</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.00000099415529650527</t>
+          <t>0.00000111074742304348</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.8601977</v>
+        <v>3.195634775813</v>
       </c>
       <c r="G30" t="n">
-        <v>2.8601977</v>
+        <v>3.195634775813</v>
       </c>
     </row>
     <row r="31">
@@ -1220,26 +1220,26 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>794.8190267</v>
+        <v>788.237831608029</v>
       </c>
       <c r="C31" t="n">
-        <v>251.8029739</v>
+        <v>251.347508793428</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.00011027925924644508</t>
+          <t>0.00010941178549903324</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.00011027925924644508</t>
+          <t>0.00010941178549903324</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>819.7959423999999</v>
+        <v>813.347300454852</v>
       </c>
       <c r="G31" t="n">
-        <v>819.7959423999999</v>
+        <v>813.347300454852</v>
       </c>
     </row>
     <row r="32">
@@ -1249,26 +1249,26 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>307.116711</v>
+        <v>299.421097033755</v>
       </c>
       <c r="C32" t="n">
-        <v>24.6393879</v>
+        <v>22.943160626209</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.00009822606898414986</t>
+          <t>0.00009653084803999028</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.00009822606898414986</t>
+          <t>0.00009653084803999028</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>333.9813057</v>
+        <v>328.217335815364</v>
       </c>
       <c r="G32" t="n">
-        <v>333.9813057</v>
+        <v>328.217335815364</v>
       </c>
     </row>
     <row r="33">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0732873</v>
+        <v>-0.073287307488</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.0565855</v>
+        <v>-0.056585488151</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0565855</v>
+        <v>-0.056585488151</v>
       </c>
     </row>
     <row r="35">
@@ -1312,18 +1312,18 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1381215</v>
+        <v>-0.138121546961</v>
       </c>
       <c r="C35" t="n">
-        <v>3.4614715</v>
+        <v>3.461471536744</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.1120739</v>
+        <v>-0.112073932691</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1120739</v>
+        <v>-0.112073932691</v>
       </c>
     </row>
   </sheetData>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2653.979795</v>
+        <v>2653.97979497316</v>
       </c>
       <c r="G2" t="n">
-        <v>2653.979795</v>
+        <v>2653.97979497316</v>
       </c>
     </row>
     <row r="3">
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>215.6484444</v>
+        <v>215.648444354468</v>
       </c>
       <c r="G4" t="n">
-        <v>215.6484444</v>
+        <v>215.648444354468</v>
       </c>
     </row>
     <row r="5">
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4942.2450833</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="C6" t="n">
-        <v>4942.2450833</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4941.7034415</v>
+        <v>4941.703441511208</v>
       </c>
       <c r="G6" t="n">
-        <v>4941.7034415</v>
+        <v>4941.703441511208</v>
       </c>
     </row>
     <row r="7">
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>791.9033477</v>
+        <v>791.9033476692071</v>
       </c>
       <c r="G9" t="n">
-        <v>791.9033477</v>
+        <v>791.9033476692071</v>
       </c>
     </row>
     <row r="10">
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2622.9848896</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="C10" t="n">
-        <v>2622.9848896</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2512.5912044</v>
+        <v>2512.591204448795</v>
       </c>
       <c r="G10" t="n">
-        <v>2512.5912044</v>
+        <v>2512.591204448795</v>
       </c>
     </row>
     <row r="11">
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>990.9910933</v>
+        <v>990.991093275005</v>
       </c>
       <c r="G12" t="n">
-        <v>990.9910933</v>
+        <v>990.991093275005</v>
       </c>
     </row>
     <row r="13">
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>580.4391411</v>
+        <v>580.439141141729</v>
       </c>
       <c r="G15" t="n">
-        <v>580.4391411</v>
+        <v>580.439141141729</v>
       </c>
     </row>
     <row r="16">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2504.2214065</v>
+        <v>2504.2214064689</v>
       </c>
       <c r="G16" t="n">
-        <v>2504.2214065</v>
+        <v>2504.2214064689</v>
       </c>
     </row>
     <row r="17">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>199.999819</v>
+        <v>199.999819015192</v>
       </c>
       <c r="G17" t="n">
-        <v>199.999819</v>
+        <v>199.999819015192</v>
       </c>
     </row>
     <row r="18">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>474.5712442</v>
+        <v>474.571244236025</v>
       </c>
       <c r="G18" t="n">
-        <v>474.5712442</v>
+        <v>474.571244236025</v>
       </c>
     </row>
     <row r="19">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>297.1598662</v>
+        <v>297.15986625</v>
       </c>
       <c r="C19" t="n">
-        <v>297.1598662</v>
+        <v>297.15986625</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>297.333617</v>
+        <v>297.333617047686</v>
       </c>
       <c r="G19" t="n">
-        <v>297.333617</v>
+        <v>297.333617047686</v>
       </c>
     </row>
     <row r="20">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>35.9536006</v>
+        <v>35.95360057984</v>
       </c>
       <c r="G22" t="n">
-        <v>35.9536006</v>
+        <v>35.95360057984</v>
       </c>
     </row>
     <row r="23">
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>177.9979346</v>
+        <v>177.997934557454</v>
       </c>
       <c r="G23" t="n">
-        <v>177.9979346</v>
+        <v>177.997934557454</v>
       </c>
     </row>
     <row r="24">
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>206.4423175</v>
+        <v>206.442317517902</v>
       </c>
       <c r="G24" t="n">
-        <v>206.4423175</v>
+        <v>206.442317517902</v>
       </c>
     </row>
     <row r="25">
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>170.3391571</v>
+        <v>170.339157139657</v>
       </c>
       <c r="G31" t="n">
-        <v>170.3391571</v>
+        <v>170.339157139657</v>
       </c>
     </row>
     <row r="32">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.0465023</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="C2" t="n">
-        <v>1193.0465023</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1195.2956041</v>
+        <v>1195.295604075515</v>
       </c>
       <c r="G2" t="n">
-        <v>1195.2956041</v>
+        <v>1195.295604075515</v>
       </c>
     </row>
     <row r="3">
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>215.6484444</v>
+        <v>215.648444354468</v>
       </c>
       <c r="G4" t="n">
-        <v>215.6484444</v>
+        <v>215.648444354468</v>
       </c>
     </row>
     <row r="5">
@@ -2227,10 +2227,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3837.8338492</v>
+        <v>3837.833849237825</v>
       </c>
       <c r="G6" t="n">
-        <v>3837.8338492</v>
+        <v>3837.833849237825</v>
       </c>
     </row>
     <row r="7">
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1219.5317553</v>
+        <v>1219.531755337356</v>
       </c>
       <c r="G9" t="n">
-        <v>1219.5317553</v>
+        <v>1219.531755337356</v>
       </c>
     </row>
     <row r="10">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2176.8173598</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="C10" t="n">
-        <v>2176.8173598</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2311,10 +2311,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2085.201548</v>
+        <v>2085.201547950021</v>
       </c>
       <c r="G10" t="n">
-        <v>2085.201548</v>
+        <v>2085.201547950021</v>
       </c>
     </row>
     <row r="11">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1040.5406479</v>
+        <v>1040.540647938756</v>
       </c>
       <c r="G12" t="n">
-        <v>1040.5406479</v>
+        <v>1040.540647938756</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>360.0602428</v>
+        <v>360.060242774535</v>
       </c>
       <c r="G15" t="n">
-        <v>360.0602428</v>
+        <v>360.060242774535</v>
       </c>
     </row>
     <row r="16">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1980.5271818</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="C16" t="n">
-        <v>1980.5271818</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1986.7818627</v>
+        <v>1986.781862671673</v>
       </c>
       <c r="G16" t="n">
-        <v>1986.7818627</v>
+        <v>1986.781862671673</v>
       </c>
     </row>
     <row r="17">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>199.999819</v>
+        <v>199.999819015192</v>
       </c>
       <c r="G17" t="n">
-        <v>199.999819</v>
+        <v>199.999819015192</v>
       </c>
     </row>
     <row r="18">
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>362.582114</v>
+        <v>362.582114026195</v>
       </c>
       <c r="G18" t="n">
-        <v>362.582114</v>
+        <v>362.582114026195</v>
       </c>
     </row>
     <row r="19">
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>142.5712139</v>
+        <v>142.571213858176</v>
       </c>
       <c r="G19" t="n">
-        <v>142.5712139</v>
+        <v>142.571213858176</v>
       </c>
     </row>
     <row r="20">
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>242.2907451</v>
+        <v>242.290745134122</v>
       </c>
       <c r="G20" t="n">
-        <v>242.2907451</v>
+        <v>242.290745134122</v>
       </c>
     </row>
     <row r="21">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.8125172</v>
+        <v>33.81251725</v>
       </c>
       <c r="C22" t="n">
-        <v>33.8125172</v>
+        <v>33.81251725</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>33.8350419</v>
+        <v>33.835041865946</v>
       </c>
       <c r="G22" t="n">
-        <v>33.8350419</v>
+        <v>33.835041865946</v>
       </c>
     </row>
     <row r="23">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>167.9980506</v>
+        <v>167.998050593552</v>
       </c>
       <c r="G23" t="n">
-        <v>167.9980506</v>
+        <v>167.998050593552</v>
       </c>
     </row>
     <row r="24">
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>267.5420614</v>
+        <v>267.542061431416</v>
       </c>
       <c r="G24" t="n">
-        <v>267.5420614</v>
+        <v>267.542061431416</v>
       </c>
     </row>
     <row r="25">
@@ -2679,10 +2679,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175.2603333</v>
+        <v>175.260333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>175.2603333</v>
+        <v>175.260333333333</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>175.2736628</v>
+        <v>175.273662831516</v>
       </c>
       <c r="G26" t="n">
-        <v>175.2736628</v>
+        <v>175.273662831516</v>
       </c>
     </row>
     <row r="27">
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>101.6711844</v>
+        <v>101.671184417733</v>
       </c>
       <c r="G31" t="n">
-        <v>101.6711844</v>
+        <v>101.671184417733</v>
       </c>
     </row>
     <row r="32">
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50.982873</v>
+        <v>50.982872997368</v>
       </c>
       <c r="G34" t="n">
-        <v>50.982873</v>
+        <v>50.982872997368</v>
       </c>
     </row>
     <row r="35">
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>786.9018397</v>
+        <v>786.9018397177369</v>
       </c>
       <c r="G2" t="n">
-        <v>786.9018397</v>
+        <v>786.9018397177369</v>
       </c>
     </row>
     <row r="3">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>444.1834689</v>
+        <v>444.183468909441</v>
       </c>
       <c r="G4" t="n">
-        <v>444.1834689</v>
+        <v>444.183468909441</v>
       </c>
     </row>
     <row r="5">
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3360.3094389</v>
+        <v>3360.309438920846</v>
       </c>
       <c r="G6" t="n">
-        <v>3360.3094389</v>
+        <v>3360.309438920846</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>542.2790645</v>
+        <v>542.279064479157</v>
       </c>
       <c r="G9" t="n">
-        <v>542.2790645</v>
+        <v>542.279064479157</v>
       </c>
     </row>
     <row r="10">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1104.7296557</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="C10" t="n">
-        <v>1104.7296557</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1058.2348481</v>
+        <v>1058.234848071406</v>
       </c>
       <c r="G10" t="n">
-        <v>1058.2348481</v>
+        <v>1058.234848071406</v>
       </c>
     </row>
     <row r="11">
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.8676667</v>
+        <v>15.867666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>15.8676667</v>
+        <v>15.867666666667</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3126,10 +3126,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16.1496391</v>
+        <v>16.149639101029</v>
       </c>
       <c r="G11" t="n">
-        <v>16.1496391</v>
+        <v>16.149639101029</v>
       </c>
     </row>
     <row r="12">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>952.7279167</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="C12" t="n">
-        <v>952.7279167</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>944.1448797</v>
+        <v>944.144879731118</v>
       </c>
       <c r="G12" t="n">
-        <v>944.1448797</v>
+        <v>944.144879731118</v>
       </c>
     </row>
     <row r="13">
@@ -3210,10 +3210,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>471.7441133</v>
+        <v>471.744113329563</v>
       </c>
       <c r="G15" t="n">
-        <v>471.7441133</v>
+        <v>471.744113329563</v>
       </c>
     </row>
     <row r="16">
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2320.4530333</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="C16" t="n">
-        <v>2320.4530333</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2327.7812302</v>
+        <v>2327.781230235783</v>
       </c>
       <c r="G16" t="n">
-        <v>2327.7812302</v>
+        <v>2327.781230235783</v>
       </c>
     </row>
     <row r="17">
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>560.7430936</v>
+        <v>560.743093570409</v>
       </c>
       <c r="G18" t="n">
-        <v>560.7430936</v>
+        <v>560.743093570409</v>
       </c>
     </row>
     <row r="19">
@@ -3294,10 +3294,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>304.9448478</v>
+        <v>304.94484775</v>
       </c>
       <c r="C19" t="n">
-        <v>304.9448478</v>
+        <v>304.94484775</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>305.1231505</v>
+        <v>305.123150463672</v>
       </c>
       <c r="G19" t="n">
-        <v>305.1231505</v>
+        <v>305.123150463672</v>
       </c>
     </row>
     <row r="20">
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>43.0657953</v>
+        <v>43.06579534377</v>
       </c>
       <c r="G20" t="n">
-        <v>43.0657953</v>
+        <v>43.06579534377</v>
       </c>
     </row>
     <row r="21">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>123.3969985</v>
+        <v>123.396998474312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3969985</v>
+        <v>123.396998474312</v>
       </c>
     </row>
     <row r="23">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.3955889</v>
+        <v>10.395588888889</v>
       </c>
       <c r="C24" t="n">
-        <v>10.3955889</v>
+        <v>10.395588888889</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10.3823932</v>
+        <v>10.382393154029</v>
       </c>
       <c r="G24" t="n">
-        <v>10.3823932</v>
+        <v>10.382393154029</v>
       </c>
     </row>
     <row r="25">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.7730691</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="C25" t="n">
-        <v>66.7730691</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>66.7455904</v>
+        <v>66.74559043123099</v>
       </c>
       <c r="G25" t="n">
-        <v>66.7455904</v>
+        <v>66.74559043123099</v>
       </c>
     </row>
     <row r="26">
@@ -3582,10 +3582,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0030259</v>
+        <v>0.003025925926</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0030259</v>
+        <v>0.003025925926</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.0030263</v>
+        <v>0.003026317335</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0030263</v>
+        <v>0.003026317335</v>
       </c>
     </row>
   </sheetData>
@@ -3667,26 +3667,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2211.7495015</v>
+        <v>2207.590357677713</v>
       </c>
       <c r="C2" t="n">
-        <v>-350.4861603</v>
+        <v>-346.809060955564</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00020356574985260119</t>
+          <t>0.00020321555130989495</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00020356574985260119</t>
+          <t>0.00020321555130989495</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2330.5420295</v>
+        <v>2326.532747864258</v>
       </c>
       <c r="G2" t="n">
-        <v>2330.5420295</v>
+        <v>2326.532747864258</v>
       </c>
     </row>
     <row r="3">
@@ -3696,26 +3696,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330.2861469</v>
+        <v>335.514783012308</v>
       </c>
       <c r="C3" t="n">
-        <v>267.1139471</v>
+        <v>263.787070710635</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00004381418967338028</t>
+          <t>0.00004443756080666145</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00004381418967338028</t>
+          <t>0.00004443756080666145</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>311.8444718</v>
+        <v>316.281272849717</v>
       </c>
       <c r="G3" t="n">
-        <v>311.8444718</v>
+        <v>316.281272849717</v>
       </c>
     </row>
     <row r="4">
@@ -3725,26 +3725,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927.8759307</v>
+        <v>931.1560748091071</v>
       </c>
       <c r="C4" t="n">
-        <v>676.4948764</v>
+        <v>675.002459685906</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00008843616134635523</t>
+          <t>0.00008875832548196428</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00008843616134635523</t>
+          <t>0.00008875832548196428</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>931.6389663</v>
+        <v>935.032834314022</v>
       </c>
       <c r="G4" t="n">
-        <v>931.6389663</v>
+        <v>935.032834314022</v>
       </c>
     </row>
     <row r="5">
@@ -3754,26 +3754,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.3763559</v>
+        <v>482.202166642579</v>
       </c>
       <c r="C5" t="n">
-        <v>46.6501344</v>
+        <v>46.611186416722</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00008594201837813656</t>
+          <t>0.00008609752994835564</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.00008594201837813656</t>
+          <t>0.00008609752994835564</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>495.6006342</v>
+        <v>496.497420587763</v>
       </c>
       <c r="G5" t="n">
-        <v>495.6006342</v>
+        <v>496.497420587763</v>
       </c>
     </row>
     <row r="6">
@@ -3783,26 +3783,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24201.0801318</v>
+        <v>24197.68755525257</v>
       </c>
       <c r="C6" t="n">
-        <v>-7557.6674643</v>
+        <v>-7492.891703422224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00029485089741804887</t>
+          <t>0.00029483207875182632</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00029485089741804887</t>
+          <t>0.00029483207875182632</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>24442.1652086</v>
+        <v>24440.60520333821</v>
       </c>
       <c r="G6" t="n">
-        <v>24442.1652086</v>
+        <v>24440.60520333821</v>
       </c>
     </row>
     <row r="7">
@@ -3812,26 +3812,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.5875706</v>
+        <v>28.217496920526</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17473270000001</v>
+        <v>68.156356639069</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00000332952034312888</t>
+          <t>0.00000321084908008209</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.00000332952034312888</t>
+          <t>0.00000321084908008209</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>16.0965894</v>
+        <v>15.5228723536</v>
       </c>
       <c r="G7" t="n">
-        <v>16.0965894</v>
+        <v>15.5228723536</v>
       </c>
     </row>
     <row r="8">
@@ -3841,26 +3841,26 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>642.8426378</v>
+        <v>644.792426565244</v>
       </c>
       <c r="C8" t="n">
-        <v>-25.1447556</v>
+        <v>-29.763920856414</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00005852377290421632</t>
+          <t>0.00005876371030408994</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00005852377290421632</t>
+          <t>0.00005876371030408994</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>622.2991372</v>
+        <v>624.850456628881</v>
       </c>
       <c r="G8" t="n">
-        <v>622.2991372</v>
+        <v>624.850456628881</v>
       </c>
     </row>
     <row r="9">
@@ -3870,26 +3870,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6642.9794237</v>
+        <v>6639.524020954152</v>
       </c>
       <c r="C9" t="n">
-        <v>-1431.8489897</v>
+        <v>-1430.5556927274</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00014815643195051614</t>
+          <t>0.00014840343827811093</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00014815643195051614</t>
+          <t>0.00014840343827811093</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6932.5421346</v>
+        <v>6944.100065257213</v>
       </c>
       <c r="G9" t="n">
-        <v>6932.5421346</v>
+        <v>6944.100065257213</v>
       </c>
     </row>
     <row r="10">
@@ -3899,26 +3899,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10079.7249068</v>
+        <v>10113.91237127103</v>
       </c>
       <c r="C10" t="n">
-        <v>-36.4744488</v>
+        <v>-53.894163817463</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00015511934161278364</t>
+          <t>0.00015577839594210514</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00015511934161278364</t>
+          <t>0.00015577839594210514</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9970.7312573</v>
+        <v>10013.09382491461</v>
       </c>
       <c r="G10" t="n">
-        <v>9970.7312573</v>
+        <v>10013.09382491461</v>
       </c>
     </row>
     <row r="11">
@@ -3928,26 +3928,26 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>472.836522</v>
+        <v>467.439269063398</v>
       </c>
       <c r="C11" t="n">
-        <v>181.7773951</v>
+        <v>190.081165371063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00010896583781025253</t>
+          <t>0.00010764378811442890</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00010896583781025253</t>
+          <t>0.00010764378811442890</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>453.3507337</v>
+        <v>447.85036579326</v>
       </c>
       <c r="G11" t="n">
-        <v>453.3507337</v>
+        <v>447.85036579326</v>
       </c>
     </row>
     <row r="12">
@@ -3957,26 +3957,26 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10209.940209</v>
+        <v>10235.54232499975</v>
       </c>
       <c r="C12" t="n">
-        <v>-1442.0091894</v>
+        <v>-1439.332387453476</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00017255762222524815</t>
+          <t>0.00017303596953357602</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00017255762222524815</t>
+          <t>0.00017303596953357602</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10332.3062555</v>
+        <v>10360.94846108495</v>
       </c>
       <c r="G12" t="n">
-        <v>10332.3062555</v>
+        <v>10360.94846108495</v>
       </c>
     </row>
     <row r="13">
@@ -3986,26 +3986,26 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.2421262</v>
+        <v>40.647200795404</v>
       </c>
       <c r="C13" t="n">
-        <v>16.4676511</v>
+        <v>16.288032806086</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00001880270783581581</t>
+          <t>0.00001847476409730675</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.00001880270783581581</t>
+          <t>0.00001847476409730675</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>36.3951042</v>
+        <v>35.760326104434</v>
       </c>
       <c r="G13" t="n">
-        <v>36.3951042</v>
+        <v>35.760326104434</v>
       </c>
     </row>
     <row r="14">
@@ -4015,26 +4015,26 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.6818577</v>
+        <v>6.77046802545</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0126419</v>
+        <v>15.594502389056</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.00001163502247167976</t>
+          <t>0.00001188480342943733</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.00001163502247167976</t>
+          <t>0.00001188480342943733</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7.0730814</v>
+        <v>7.2249265072</v>
       </c>
       <c r="G14" t="n">
-        <v>7.0730814</v>
+        <v>7.2249265072</v>
       </c>
     </row>
     <row r="15">
@@ -4044,26 +4044,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>632.0943927</v>
+        <v>637.676376335869</v>
       </c>
       <c r="C15" t="n">
-        <v>100.442797</v>
+        <v>98.603866256548</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00006302961217483929</t>
+          <t>0.00006356988776920632</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00006302961217483929</t>
+          <t>0.00006356988776920632</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>616.2000532</v>
+        <v>621.481980851582</v>
       </c>
       <c r="G15" t="n">
-        <v>616.2000532</v>
+        <v>621.481980851582</v>
       </c>
     </row>
     <row r="16">
@@ -4073,26 +4073,26 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3407.4514124</v>
+        <v>3431.271113496667</v>
       </c>
       <c r="C16" t="n">
-        <v>356.1155758</v>
+        <v>333.396331509784</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00020201120115619347</t>
+          <t>0.00020351733154209484</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00020201120115619347</t>
+          <t>0.00020351733154209484</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3491.9743097</v>
+        <v>3518.009344281908</v>
       </c>
       <c r="G16" t="n">
-        <v>3491.9743097</v>
+        <v>3518.009344281908</v>
       </c>
     </row>
     <row r="17">
@@ -4102,26 +4102,26 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5608.1354972</v>
+        <v>5616.017221199116</v>
       </c>
       <c r="C17" t="n">
-        <v>-1448.6864389</v>
+        <v>-1453.692082993846</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00067159674641086020</t>
+          <t>0.00067272600248017081</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00067159674641086020</t>
+          <t>0.00067272600248017081</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5937.2597674</v>
+        <v>5947.242970363982</v>
       </c>
       <c r="G17" t="n">
-        <v>5937.2597674</v>
+        <v>5947.242970363982</v>
       </c>
     </row>
     <row r="18">
@@ -4131,26 +4131,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3655.5220734</v>
+        <v>3646.511118533919</v>
       </c>
       <c r="C18" t="n">
-        <v>-169.4747808</v>
+        <v>-171.207696490439</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00009452778264853372</t>
+          <t>0.00009427124891863304</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00009452778264853372</t>
+          <t>0.00009427124891863304</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3641.3479146</v>
+        <v>3631.465861555419</v>
       </c>
       <c r="G18" t="n">
-        <v>3641.3479146</v>
+        <v>3631.465861555419</v>
       </c>
     </row>
     <row r="19">
@@ -4160,26 +4160,26 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2023.3581977</v>
+        <v>2025.803873848185</v>
       </c>
       <c r="C19" t="n">
-        <v>-404.7757318</v>
+        <v>-404.145601178949</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00019415742189677569</t>
+          <t>0.00019454188452705176</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.00019415742189677569</t>
+          <t>0.00019454188452705176</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1997.8478353</v>
+        <v>2001.803892372416</v>
       </c>
       <c r="G19" t="n">
-        <v>1997.8478353</v>
+        <v>2001.803892372416</v>
       </c>
     </row>
     <row r="20">
@@ -4189,26 +4189,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>431.899904</v>
+        <v>442.438362118678</v>
       </c>
       <c r="C20" t="n">
-        <v>352.4201178</v>
+        <v>349.445959383303</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00002003424260418936</t>
+          <t>0.00002048955230445713</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.00002003424260418936</t>
+          <t>0.00002048955230445713</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>392.8070473</v>
+        <v>401.734205800641</v>
       </c>
       <c r="G20" t="n">
-        <v>392.8070473</v>
+        <v>401.734205800641</v>
       </c>
     </row>
     <row r="21">
@@ -4218,26 +4218,26 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>801.1790031</v>
+        <v>800.779389784137</v>
       </c>
       <c r="C21" t="n">
-        <v>12.6251735</v>
+        <v>14.415125488099</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00038745152552639283</t>
+          <t>0.00038728562193894155</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.00038745152552639283</t>
+          <t>0.00038728562193894155</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>815.9434664</v>
+        <v>815.594086096144</v>
       </c>
       <c r="G21" t="n">
-        <v>815.9434664</v>
+        <v>815.594086096144</v>
       </c>
     </row>
     <row r="22">
@@ -4247,26 +4247,26 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.6606783</v>
+        <v>857.527230440159</v>
       </c>
       <c r="C22" t="n">
-        <v>305.3644061</v>
+        <v>307.707797466605</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00015788734562379326</t>
+          <t>0.00015613630140022886</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00015788734562379326</t>
+          <t>0.00015613630140022886</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>859.9722682</v>
+        <v>850.434775106491</v>
       </c>
       <c r="G22" t="n">
-        <v>859.9722682</v>
+        <v>850.434775106491</v>
       </c>
     </row>
     <row r="23">
@@ -4276,26 +4276,26 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13506.5934087</v>
+        <v>13570.79752793303</v>
       </c>
       <c r="C23" t="n">
-        <v>-33.527229</v>
+        <v>-79.707807400814</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.00252619753610011655</t>
+          <t>0.00253932964062308919</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00252619753610011655</t>
+          <t>0.00253932964062308919</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13933.1439887</v>
+        <v>14005.57359900066</v>
       </c>
       <c r="G23" t="n">
-        <v>13933.1439887</v>
+        <v>14005.57359900066</v>
       </c>
     </row>
     <row r="24">
@@ -4305,26 +4305,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12505.4988333</v>
+        <v>12507.96389263455</v>
       </c>
       <c r="C24" t="n">
-        <v>-1101.8141418</v>
+        <v>-1092.253324762754</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00133278073475701087</t>
+          <t>0.00133335659423042263</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00133278073475701087</t>
+          <t>0.00133335659423042263</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13544.1149953</v>
+        <v>13549.96705083464</v>
       </c>
       <c r="G24" t="n">
-        <v>13544.1149953</v>
+        <v>13549.96705083464</v>
       </c>
     </row>
     <row r="25">
@@ -4334,26 +4334,26 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4769.2724802</v>
+        <v>4791.165864379258</v>
       </c>
       <c r="C25" t="n">
-        <v>4034.0782462</v>
+        <v>4017.005661767946</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00007579621047952638</t>
+          <t>0.00007620898937396473</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.00007579621047952638</t>
+          <t>0.00007620898937396473</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5035.369196</v>
+        <v>5062.791333826663</v>
       </c>
       <c r="G25" t="n">
-        <v>5035.369196</v>
+        <v>5062.791333826663</v>
       </c>
     </row>
     <row r="26">
@@ -4363,26 +4363,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1856.3259887</v>
+        <v>1865.689992912045</v>
       </c>
       <c r="C26" t="n">
-        <v>935.5186825</v>
+        <v>927.774253415987</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00038196981997664476</t>
+          <t>0.00038444515285458573</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00038196981997664476</t>
+          <t>0.00038444515285458573</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2029.1459141</v>
+        <v>2042.295674412473</v>
       </c>
       <c r="G26" t="n">
-        <v>2029.1459141</v>
+        <v>2042.295674412473</v>
       </c>
     </row>
     <row r="27">
@@ -4392,26 +4392,26 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1689.5944633</v>
+        <v>1689.018374794403</v>
       </c>
       <c r="C27" t="n">
-        <v>354.1398932</v>
+        <v>365.039234827094</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00021673942661933196</t>
+          <t>0.00021687901206185944</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.00021673942661933196</t>
+          <t>0.00021687901206185944</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1845.4135431</v>
+        <v>1846.602034185906</v>
       </c>
       <c r="G27" t="n">
-        <v>1845.4135431</v>
+        <v>1846.602034185906</v>
       </c>
     </row>
     <row r="28">
@@ -4434,26 +4434,26 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.3013502</v>
+        <v>29.721020999186</v>
       </c>
       <c r="C29" t="n">
-        <v>16.0679045</v>
+        <v>16.005815625312</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00001389736248826365</t>
+          <t>0.00001409958396609525</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.00001389736248826365</t>
+          <t>0.00001409958396609525</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>29.3719505</v>
+        <v>29.799343816087</v>
       </c>
       <c r="G29" t="n">
-        <v>29.3719505</v>
+        <v>29.799343816087</v>
       </c>
     </row>
     <row r="30">
@@ -4476,26 +4476,26 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>309.2448014</v>
+        <v>322.26624820796</v>
       </c>
       <c r="C31" t="n">
-        <v>-75.95450390000001</v>
+        <v>-80.628760811682</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.00004310013012081334</t>
+          <t>0.00004491393144758675</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.00004310013012081334</t>
+          <t>0.00004491393144758675</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>320.3985231</v>
+        <v>333.881992045836</v>
       </c>
       <c r="G31" t="n">
-        <v>320.3985231</v>
+        <v>333.881992045836</v>
       </c>
     </row>
     <row r="32">
@@ -4521,23 +4521,23 @@
         <v>3.3</v>
       </c>
       <c r="C33" t="n">
-        <v>-8.152199100000001</v>
+        <v>-7.33889632191</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.00000970863486752550</t>
+          <t>0.00000970572591629977</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.00000970863486752550</t>
+          <t>0.00000970572591629977</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.4266238</v>
+        <v>3.425597139254</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4266238</v>
+        <v>3.425597139254</v>
       </c>
     </row>
     <row r="34">
@@ -4547,26 +4547,26 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.8622525</v>
+        <v>120.934079153561</v>
       </c>
       <c r="C34" t="n">
-        <v>6.14927</v>
+        <v>6.658533212992</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.00003835782696706138</t>
+          <t>0.00003870583344070945</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.00003835782696706138</t>
+          <t>0.00003870583344070945</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>110.3220202</v>
+        <v>111.322931322161</v>
       </c>
       <c r="G34" t="n">
-        <v>110.3220202</v>
+        <v>111.322931322161</v>
       </c>
     </row>
     <row r="35">
@@ -4576,26 +4576,26 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>76.0747418</v>
+        <v>76.43208560389201</v>
       </c>
       <c r="C35" t="n">
-        <v>31.0235961</v>
+        <v>31.09851693539</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.00005544243184240705</t>
+          <t>0.00005562020998477841</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.00005544243184240705</t>
+          <t>0.00005562020998477841</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>73.30310040000001</v>
+        <v>73.538149390955</v>
       </c>
       <c r="G35" t="n">
-        <v>73.30310040000001</v>
+        <v>73.538149390955</v>
       </c>
     </row>
   </sheetData>
@@ -4661,26 +4661,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7603.3702509</v>
+        <v>7559.293851961214</v>
       </c>
       <c r="C2" t="n">
-        <v>5416.118281</v>
+        <v>5446.457156358251</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00069561176432275467</t>
+          <t>0.00069191075587717466</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00069561176432275467</t>
+          <t>0.00069191075587717466</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7963.7780626</v>
+        <v>7921.406712092398</v>
       </c>
       <c r="G2" t="n">
-        <v>7963.7780626</v>
+        <v>7921.406712092398</v>
       </c>
     </row>
     <row r="3">
@@ -4690,26 +4690,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2664.7763523</v>
+        <v>2676.893413744059</v>
       </c>
       <c r="C3" t="n">
-        <v>4586.389253</v>
+        <v>4582.357476512618</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00034850247885361268</t>
+          <t>0.00034897760736965228</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00034850247885361268</t>
+          <t>0.00034897760736965228</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2480.4423466</v>
+        <v>2483.824040998591</v>
       </c>
       <c r="G3" t="n">
-        <v>2480.4423466</v>
+        <v>2483.824040998591</v>
       </c>
     </row>
     <row r="4">
@@ -4719,26 +4719,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4415.5634905</v>
+        <v>4463.208833148157</v>
       </c>
       <c r="C4" t="n">
-        <v>6402.9566966</v>
+        <v>6379.673277213987</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00041778927718069897</t>
+          <t>0.00042234176397797432</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00041778927718069897</t>
+          <t>0.00042234176397797432</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4401.2399949</v>
+        <v>4449.19859041002</v>
       </c>
       <c r="G4" t="n">
-        <v>4401.2399949</v>
+        <v>4449.19859041002</v>
       </c>
     </row>
     <row r="5">
@@ -4748,26 +4748,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.998283</v>
+        <v>1955.459528755762</v>
       </c>
       <c r="C5" t="n">
-        <v>2394.4985604</v>
+        <v>2392.726838867378</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00034117877951720613</t>
+          <t>0.00034123233221842585</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.00034117877951720613</t>
+          <t>0.00034123233221842585</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1967.4708913</v>
+        <v>1967.779712951345</v>
       </c>
       <c r="G5" t="n">
-        <v>1967.4708913</v>
+        <v>1967.779712951345</v>
       </c>
     </row>
     <row r="6">
@@ -4777,26 +4777,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31167.4541948</v>
+        <v>31305.21749144286</v>
       </c>
       <c r="C6" t="n">
-        <v>57877.3234351</v>
+        <v>57761.25428417027</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00037175938264404594</t>
+          <t>0.00037336737423428450</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00037175938264404594</t>
+          <t>0.00037336737423428450</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30817.6245282</v>
+        <v>30950.92171821772</v>
       </c>
       <c r="G6" t="n">
-        <v>30817.6245282</v>
+        <v>30950.92171821772</v>
       </c>
     </row>
     <row r="7">
@@ -4806,26 +4806,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2987.1770127</v>
+        <v>2990.418799417806</v>
       </c>
       <c r="C7" t="n">
-        <v>1038.6865066</v>
+        <v>1038.762110010134</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00066632011946752764</t>
+          <t>0.00066879610247563490</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.00066632011946752764</t>
+          <t>0.00066879610247563490</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3221.3292818</v>
+        <v>3233.299438991174</v>
       </c>
       <c r="G7" t="n">
-        <v>3221.3292818</v>
+        <v>3233.299438991174</v>
       </c>
     </row>
     <row r="8">
@@ -4835,26 +4835,26 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14304.7686741</v>
+        <v>14146.90965601447</v>
       </c>
       <c r="C8" t="n">
-        <v>268.7134104</v>
+        <v>283.205830708452</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00130324690591286652</t>
+          <t>0.00129092238307171314</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00130324690591286652</t>
+          <t>0.00129092238307171314</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13857.7775305</v>
+        <v>13726.72753916734</v>
       </c>
       <c r="G8" t="n">
-        <v>13857.7775305</v>
+        <v>13726.72753916734</v>
       </c>
     </row>
     <row r="9">
@@ -4864,26 +4864,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33749.7685483</v>
+        <v>33829.19928488682</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.098326</v>
+        <v>7740.326315954644</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00075654112277892191</t>
+          <t>0.00076078850145788399</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00075654112277892191</t>
+          <t>0.00076078850145788399</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>35400.1047483</v>
+        <v>35598.84827412287</v>
       </c>
       <c r="G9" t="n">
-        <v>35400.1047483</v>
+        <v>35598.84827412287</v>
       </c>
     </row>
     <row r="10">
@@ -4893,26 +4893,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18525.9732417</v>
+        <v>18603.4986625617</v>
       </c>
       <c r="C10" t="n">
-        <v>28332.9198689</v>
+        <v>28248.91237516478</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00026765779846038562</t>
+          <t>0.00026896567636891175</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00026765779846038562</t>
+          <t>0.00026896567636891175</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17204.4565791</v>
+        <v>17288.52410423105</v>
       </c>
       <c r="G10" t="n">
-        <v>17204.4565791</v>
+        <v>17288.52410423105</v>
       </c>
     </row>
     <row r="11">
@@ -4922,26 +4922,26 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3174.2038793</v>
+        <v>3180.771529010824</v>
       </c>
       <c r="C11" t="n">
-        <v>1831.6790491</v>
+        <v>1826.293810259278</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00073031766827917448</t>
+          <t>0.00073129817354470293</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00073031766827917448</t>
+          <t>0.00073129817354470293</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3038.4757041</v>
+        <v>3042.555081560133</v>
       </c>
       <c r="G11" t="n">
-        <v>3038.4757041</v>
+        <v>3042.555081560133</v>
       </c>
     </row>
     <row r="12">
@@ -4951,26 +4951,26 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35728.9050122</v>
+        <v>35658.49326316395</v>
       </c>
       <c r="C12" t="n">
-        <v>23492.9571521</v>
+        <v>23487.02643303639</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00059939410643355018</t>
+          <t>0.00059845057769494108</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00059939410643355018</t>
+          <t>0.00059845057769494108</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35890.1762528</v>
+        <v>35833.68018058609</v>
       </c>
       <c r="G12" t="n">
-        <v>35890.1762528</v>
+        <v>35833.68018058609</v>
       </c>
     </row>
     <row r="13">
@@ -4980,26 +4980,26 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.3846717</v>
+        <v>703.453723006045</v>
       </c>
       <c r="C13" t="n">
-        <v>-177.3346375</v>
+        <v>-173.478092017004</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00033262846664535231</t>
+          <t>0.00034042141999122283</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.00033262846664535231</t>
+          <t>0.00034042141999122283</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>643.8459715</v>
+        <v>658.9302535990309</v>
       </c>
       <c r="G13" t="n">
-        <v>643.8459715</v>
+        <v>658.9302535990309</v>
       </c>
     </row>
     <row r="14">
@@ -5009,26 +5009,26 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1074.2359249</v>
+        <v>1081.580118802514</v>
       </c>
       <c r="C14" t="n">
-        <v>-50.0004566</v>
+        <v>-55.143868232275</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.00211135410755575181</t>
+          <t>0.00212712290482450217</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.00211135410755575181</t>
+          <t>0.00212712290482450217</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1283.5196096</v>
+        <v>1293.105666440578</v>
       </c>
       <c r="G14" t="n">
-        <v>1283.5196096</v>
+        <v>1293.105666440578</v>
       </c>
     </row>
     <row r="15">
@@ -5038,26 +5038,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2921.6403312</v>
+        <v>2909.608170105925</v>
       </c>
       <c r="C15" t="n">
-        <v>3353.3137487</v>
+        <v>3364.78151119985</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00028946640081951923</t>
+          <t>0.00028804049495635199</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00028946640081951923</t>
+          <t>0.00028804049495635199</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2829.9271634</v>
+        <v>2815.986997190491</v>
       </c>
       <c r="G15" t="n">
-        <v>2829.9271634</v>
+        <v>2815.986997190491</v>
       </c>
     </row>
     <row r="16">
@@ -5067,26 +5067,26 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2694.8609945</v>
+        <v>2700.839650698814</v>
       </c>
       <c r="C16" t="n">
-        <v>3636.7547136</v>
+        <v>3630.612388200956</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00015070816667212602</t>
+          <t>0.00015104144025833086</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00015070816667212602</t>
+          <t>0.00015104144025833086</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2605.1478495</v>
+        <v>2610.908831087438</v>
       </c>
       <c r="G16" t="n">
-        <v>2605.1478495</v>
+        <v>2610.908831087438</v>
       </c>
     </row>
     <row r="17">
@@ -5096,26 +5096,26 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4537.6343891</v>
+        <v>4535.725435991289</v>
       </c>
       <c r="C17" t="n">
-        <v>4718.0252948</v>
+        <v>4718.731868082996</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00052997382909853417</t>
+          <t>0.00052986705032216728</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00052997382909853417</t>
+          <t>0.00052986705032216728</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4685.2405258</v>
+        <v>4684.296546644774</v>
       </c>
       <c r="G17" t="n">
-        <v>4685.2405258</v>
+        <v>4684.296546644774</v>
       </c>
     </row>
     <row r="18">
@@ -5125,26 +5125,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16362.8991987</v>
+        <v>16373.1764931323</v>
       </c>
       <c r="C18" t="n">
-        <v>11605.217968</v>
+        <v>11610.8773294055</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00041236217995169275</t>
+          <t>0.00041236126443513989</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00041236217995169275</t>
+          <t>0.00041236126443513989</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15884.7919834</v>
+        <v>15884.75671640387</v>
       </c>
       <c r="G18" t="n">
-        <v>15884.7919834</v>
+        <v>15884.75671640387</v>
       </c>
     </row>
     <row r="19">
@@ -5154,26 +5154,26 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9278.322096899999</v>
+        <v>9039.16182230413</v>
       </c>
       <c r="C19" t="n">
-        <v>700.6776165</v>
+        <v>806.058141032277</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00088730686034989986</t>
+          <t>0.00086549291035291007</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.00088730686034989986</t>
+          <t>0.00086549291035291007</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9130.241187400001</v>
+        <v>8905.779241201237</v>
       </c>
       <c r="G19" t="n">
-        <v>9130.241187400001</v>
+        <v>8905.779241201237</v>
       </c>
     </row>
     <row r="20">
@@ -5183,26 +5183,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8015.5890799</v>
+        <v>8040.6813718333</v>
       </c>
       <c r="C20" t="n">
-        <v>6496.096788</v>
+        <v>6505.004759982238</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00037293721006375962</t>
+          <t>0.00037307833251484530</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.00037293721006375962</t>
+          <t>0.00037307833251484530</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7312.0989503</v>
+        <v>7314.865907620416</v>
       </c>
       <c r="G20" t="n">
-        <v>7312.0989503</v>
+        <v>7314.865907620416</v>
       </c>
     </row>
     <row r="21">
@@ -5212,26 +5212,26 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1229.3576763</v>
+        <v>1237.484921987543</v>
       </c>
       <c r="C21" t="n">
-        <v>1445.6555511</v>
+        <v>1442.159343723217</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00059325076243690877</t>
+          <t>0.00059734558524874182</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.00059325076243690877</t>
+          <t>0.00059734558524874182</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1249.3410186</v>
+        <v>1257.964404269371</v>
       </c>
       <c r="G21" t="n">
-        <v>1249.3410186</v>
+        <v>1257.964404269371</v>
       </c>
     </row>
     <row r="22">
@@ -5241,26 +5241,26 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3616.7759052</v>
+        <v>3641.765056947443</v>
       </c>
       <c r="C22" t="n">
-        <v>2411.0600952</v>
+        <v>2405.241274075285</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00064115965292072202</t>
+          <t>0.00064531533355380777</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00064115965292072202</t>
+          <t>0.00064531533355380777</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3492.2337749</v>
+        <v>3514.868711772868</v>
       </c>
       <c r="G22" t="n">
-        <v>3492.2337749</v>
+        <v>3514.868711772868</v>
       </c>
     </row>
     <row r="23">
@@ -5270,26 +5270,26 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1225.1236179</v>
+        <v>1201.564042879207</v>
       </c>
       <c r="C23" t="n">
-        <v>1795.0955388</v>
+        <v>1809.43291832969</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.00021752210044194333</t>
+          <t>0.00021305888666122829</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00021752210044194333</t>
+          <t>0.00021305888666122829</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1199.7346616</v>
+        <v>1175.117980083425</v>
       </c>
       <c r="G23" t="n">
-        <v>1199.7346616</v>
+        <v>1175.117980083425</v>
       </c>
     </row>
     <row r="24">
@@ -5299,26 +5299,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2270.6781695</v>
+        <v>2242.807351349118</v>
       </c>
       <c r="C24" t="n">
-        <v>3514.3383123</v>
+        <v>3533.301971400997</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00022356068482239869</t>
+          <t>0.00022026427141138335</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00022356068482239869</t>
+          <t>0.00022026427141138335</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2271.8903002</v>
+        <v>2238.391164835358</v>
       </c>
       <c r="G24" t="n">
-        <v>2271.8903002</v>
+        <v>2238.391164835358</v>
       </c>
     </row>
     <row r="25">
@@ -5328,26 +5328,26 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8912.644331900001</v>
+        <v>9053.087901868508</v>
       </c>
       <c r="C25" t="n">
-        <v>20275.7153346</v>
+        <v>20170.39326870663</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00013632303405614662</t>
+          <t>0.00013862806929426826</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.00013632303405614662</t>
+          <t>0.00013862806929426826</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9056.347303500001</v>
+        <v>9209.477695657708</v>
       </c>
       <c r="G25" t="n">
-        <v>9056.347303500001</v>
+        <v>9209.477695657708</v>
       </c>
     </row>
     <row r="26">
@@ -5357,26 +5357,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1617.8542939</v>
+        <v>1619.340684321405</v>
       </c>
       <c r="C26" t="n">
-        <v>2125.1962556</v>
+        <v>2124.717746102839</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00030940843950921608</t>
+          <t>0.00030962597859752680</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00030940843950921608</t>
+          <t>0.00030962597859752680</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1643.6766414</v>
+        <v>1644.832278623214</v>
       </c>
       <c r="G26" t="n">
-        <v>1643.6766414</v>
+        <v>1644.832278623214</v>
       </c>
     </row>
     <row r="27">
@@ -5386,26 +5386,26 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4340.4522948</v>
+        <v>4355.708563990963</v>
       </c>
       <c r="C27" t="n">
-        <v>3942.9783712</v>
+        <v>3897.69153508686</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00052527229764569739</t>
+          <t>0.00052723723684330003</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.00052527229764569739</t>
+          <t>0.00052723723684330003</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4472.3963103</v>
+        <v>4489.126655444647</v>
       </c>
       <c r="G27" t="n">
-        <v>4472.3963103</v>
+        <v>4489.126655444647</v>
       </c>
     </row>
     <row r="28">
@@ -5428,26 +5428,26 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>893.7473154</v>
+        <v>888.238018805339</v>
       </c>
       <c r="C29" t="n">
-        <v>408.8148656</v>
+        <v>410.680656107341</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00042702526785760603</t>
+          <t>0.00042427032811405072</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.00042702526785760603</t>
+          <t>0.00042427032811405072</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>902.5140603999999</v>
+        <v>896.691520036093</v>
       </c>
       <c r="G29" t="n">
-        <v>902.5140603999999</v>
+        <v>896.691520036093</v>
       </c>
     </row>
     <row r="30">
@@ -5457,26 +5457,26 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1352.2632136</v>
+        <v>1374.572378327677</v>
       </c>
       <c r="C30" t="n">
-        <v>679.6912681</v>
+        <v>691.031724008645</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00044944891118729909</t>
+          <t>0.00045684879292172756</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.00044944891118729909</t>
+          <t>0.00045684879292172756</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1293.0703603</v>
+        <v>1314.359916270118</v>
       </c>
       <c r="G30" t="n">
-        <v>1293.0703603</v>
+        <v>1314.359916270118</v>
       </c>
     </row>
     <row r="31">
@@ -5486,26 +5486,26 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2403.4549792</v>
+        <v>2407.951791336498</v>
       </c>
       <c r="C31" t="n">
-        <v>2196.2987091</v>
+        <v>2198.954011732737</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.00032283248143254086</t>
+          <t>0.00032324224680236290</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.00032283248143254086</t>
+          <t>0.00032324224680236290</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2399.8779115</v>
+        <v>2402.924032639848</v>
       </c>
       <c r="G31" t="n">
-        <v>2399.8779115</v>
+        <v>2402.924032639848</v>
       </c>
     </row>
     <row r="32">
@@ -5515,26 +5515,26 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>955.8014846999999</v>
+        <v>945.074144509526</v>
       </c>
       <c r="C32" t="n">
-        <v>492.8198198</v>
+        <v>489.224715722622</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.00025784077875046565</t>
+          <t>0.00025494044470556095</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.00025784077875046565</t>
+          <t>0.00025494044470556095</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>876.6919092000001</v>
+        <v>866.830399316274</v>
       </c>
       <c r="G32" t="n">
-        <v>876.6919092000001</v>
+        <v>866.830399316274</v>
       </c>
     </row>
     <row r="33">
@@ -5544,26 +5544,26 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.0756923</v>
+        <v>100.975106578722</v>
       </c>
       <c r="C33" t="n">
-        <v>-15.8075686</v>
+        <v>-18.475027466945</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.00017155783630826149</t>
+          <t>0.00017196633850231902</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.00017155783630826149</t>
+          <t>0.00017196633850231902</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>60.5506521</v>
+        <v>60.694831309039</v>
       </c>
       <c r="G33" t="n">
-        <v>60.5506521</v>
+        <v>60.694831309039</v>
       </c>
     </row>
     <row r="34">
@@ -5573,26 +5573,26 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>913.2389815</v>
+        <v>908.637618375891</v>
       </c>
       <c r="C34" t="n">
-        <v>479.3396469</v>
+        <v>472.869099542264</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.00027424656223528319</t>
+          <t>0.00027203449344817034</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.00027424656223528319</t>
+          <t>0.00027203449344817034</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>788.7682165</v>
+        <v>782.406023572099</v>
       </c>
       <c r="G34" t="n">
-        <v>788.7682165</v>
+        <v>782.406023572099</v>
       </c>
     </row>
     <row r="35">
@@ -5602,26 +5602,26 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>560.7144603</v>
+        <v>570.831014525844</v>
       </c>
       <c r="C35" t="n">
-        <v>278.678864</v>
+        <v>284.001871224029</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.00040654615021906790</t>
+          <t>0.00041340102020591581</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.00040654615021906790</t>
+          <t>0.00041340102020591581</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>537.5141794</v>
+        <v>546.577332063211</v>
       </c>
       <c r="G35" t="n">
-        <v>537.5141794</v>
+        <v>546.577332063211</v>
       </c>
     </row>
   </sheetData>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.262079</v>
+        <v>1696.262079019608</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1699.4598304</v>
+        <v>1699.459830400343</v>
       </c>
       <c r="G2" t="n">
-        <v>1699.4598304</v>
+        <v>1699.459830400343</v>
       </c>
     </row>
     <row r="3">
@@ -5732,10 +5732,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>172.9207481</v>
+        <v>172.920748083747</v>
       </c>
       <c r="G3" t="n">
-        <v>172.9207481</v>
+        <v>172.920748083747</v>
       </c>
     </row>
     <row r="4">
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1448.7715925</v>
+        <v>1448.77159254902</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1435.7782176</v>
+        <v>1435.778217638516</v>
       </c>
       <c r="G4" t="n">
-        <v>1435.7782176</v>
+        <v>1435.778217638516</v>
       </c>
     </row>
     <row r="5">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346.9094733</v>
+        <v>346.909473333333</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>345.2957699</v>
+        <v>345.295769899715</v>
       </c>
       <c r="G5" t="n">
-        <v>345.2957699</v>
+        <v>345.295769899715</v>
       </c>
     </row>
     <row r="6">
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7038.4156124</v>
+        <v>7038.415612352941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7037.6442422</v>
+        <v>7037.644242217938</v>
       </c>
       <c r="G6" t="n">
-        <v>7037.6442422</v>
+        <v>7037.644242217938</v>
       </c>
     </row>
     <row r="7">
@@ -5848,10 +5848,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>23.243917</v>
+        <v>23.243916992778</v>
       </c>
       <c r="G7" t="n">
-        <v>23.243917</v>
+        <v>23.243916992778</v>
       </c>
     </row>
     <row r="8">
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.5593067</v>
+        <v>322.559306666667</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>319.5656601</v>
+        <v>319.565660123606</v>
       </c>
       <c r="G8" t="n">
-        <v>319.5656601</v>
+        <v>319.565660123606</v>
       </c>
     </row>
     <row r="9">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3402.2591929</v>
+        <v>3402.259192941176</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3401.8439956</v>
+        <v>3401.84399561673</v>
       </c>
       <c r="G9" t="n">
-        <v>3401.8439956</v>
+        <v>3401.84399561673</v>
       </c>
     </row>
     <row r="10">
@@ -5919,7 +5919,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5747.4943659</v>
+        <v>5747.494365882352</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5935,10 +5935,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5505.5993074</v>
+        <v>5505.599307371152</v>
       </c>
       <c r="G10" t="n">
-        <v>5505.5993074</v>
+        <v>5505.599307371152</v>
       </c>
     </row>
     <row r="11">
@@ -5964,10 +5964,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>458.0047555</v>
+        <v>458.004755534887</v>
       </c>
       <c r="G11" t="n">
-        <v>458.0047555</v>
+        <v>458.004755534887</v>
       </c>
     </row>
     <row r="12">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5078.7504794</v>
+        <v>5078.750479411765</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -5993,10 +5993,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5032.9964901</v>
+        <v>5032.996490063223</v>
       </c>
       <c r="G12" t="n">
-        <v>5032.9964901</v>
+        <v>5032.996490063223</v>
       </c>
     </row>
     <row r="13">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.4411765</v>
+        <v>27.441176470588</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>27.5615963</v>
+        <v>27.561596333772</v>
       </c>
       <c r="G13" t="n">
-        <v>27.5615963</v>
+        <v>27.561596333772</v>
       </c>
     </row>
     <row r="14">
@@ -6051,10 +6051,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>307.7557688</v>
+        <v>307.755768761411</v>
       </c>
       <c r="G14" t="n">
-        <v>307.7557688</v>
+        <v>307.755768761411</v>
       </c>
     </row>
     <row r="15">
@@ -6064,7 +6064,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>612.8382433</v>
+        <v>612.838243333333</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>612.8880199</v>
+        <v>612.8880198541769</v>
       </c>
       <c r="G15" t="n">
-        <v>612.8880199</v>
+        <v>612.8880198541769</v>
       </c>
     </row>
     <row r="16">
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1308.1360596</v>
+        <v>1308.136059607843</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -6109,10 +6109,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1312.2672695</v>
+        <v>1312.267269540685</v>
       </c>
       <c r="G16" t="n">
-        <v>1312.2672695</v>
+        <v>1312.267269540685</v>
       </c>
     </row>
     <row r="17">
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2399.4363435</v>
+        <v>2399.436343509061</v>
       </c>
       <c r="G18" t="n">
-        <v>2399.4363435</v>
+        <v>2399.436343509061</v>
       </c>
     </row>
     <row r="19">
@@ -6180,10 +6180,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1443.4518</v>
+        <v>1443.451799985501</v>
       </c>
       <c r="G19" t="n">
-        <v>1443.4518</v>
+        <v>1443.451799985501</v>
       </c>
     </row>
     <row r="20">
@@ -6193,7 +6193,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>450.0414933</v>
+        <v>450.041493333333</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6209,10 +6209,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>453.1107884</v>
+        <v>453.11078844132</v>
       </c>
       <c r="G20" t="n">
-        <v>453.1107884</v>
+        <v>453.11078844132</v>
       </c>
     </row>
     <row r="21">
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>114.2942557</v>
+        <v>114.29425571008</v>
       </c>
       <c r="G21" t="n">
-        <v>114.2942557</v>
+        <v>114.29425571008</v>
       </c>
     </row>
     <row r="22">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>341.5671227</v>
+        <v>341.567122745098</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6267,10 +6267,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>341.7946618</v>
+        <v>341.794661801204</v>
       </c>
       <c r="G22" t="n">
-        <v>341.7946618</v>
+        <v>341.794661801204</v>
       </c>
     </row>
     <row r="23">
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>580.8963427</v>
+        <v>580.896342745098</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>580.8896023</v>
+        <v>580.889602250596</v>
       </c>
       <c r="G23" t="n">
-        <v>580.8896023</v>
+        <v>580.889602250596</v>
       </c>
     </row>
     <row r="24">
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>447.4121933</v>
+        <v>447.412193333333</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>446.8442666</v>
+        <v>446.844266615616</v>
       </c>
       <c r="G24" t="n">
-        <v>446.8442666</v>
+        <v>446.844266615616</v>
       </c>
     </row>
     <row r="25">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3363.4717829</v>
+        <v>3363.471782941177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3362.0876349</v>
+        <v>3362.08763492558</v>
       </c>
       <c r="G25" t="n">
-        <v>3362.0876349</v>
+        <v>3362.08763492558</v>
       </c>
     </row>
     <row r="26">
@@ -6448,10 +6448,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>116.5758607</v>
+        <v>116.575860667453</v>
       </c>
       <c r="G31" t="n">
-        <v>116.5758607</v>
+        <v>116.575860667453</v>
       </c>
     </row>
     <row r="32">
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>52.5226604</v>
+        <v>52.522660433682</v>
       </c>
       <c r="G34" t="n">
-        <v>52.5226604</v>
+        <v>52.522660433682</v>
       </c>
     </row>
     <row r="35">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.9583333</v>
+        <v>134.958333333333</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>134.9757904</v>
+        <v>134.975790426006</v>
       </c>
       <c r="G35" t="n">
-        <v>134.9757904</v>
+        <v>134.975790426006</v>
       </c>
     </row>
   </sheetData>
@@ -6601,26 +6601,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3199.0077295</v>
+        <v>3216.053527600292</v>
       </c>
       <c r="C2" t="n">
-        <v>-2122.7639152</v>
+        <v>-2147.508689264128</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00029401772099707513</t>
+          <t>0.00029563043327931159</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00029401772099707513</t>
+          <t>0.00029563043327931159</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3366.0901045</v>
+        <v>3384.553395919794</v>
       </c>
       <c r="G2" t="n">
-        <v>3366.0901045</v>
+        <v>3384.553395919794</v>
       </c>
     </row>
     <row r="3">
@@ -6630,26 +6630,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>725.8270530999999</v>
+        <v>726.264622879984</v>
       </c>
       <c r="C3" t="n">
-        <v>848.7498639</v>
+        <v>848.366660994418</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00010020566215768667</t>
+          <t>0.00010013579531898255</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00010020566215768667</t>
+          <t>0.00010013579531898255</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>713.2068862</v>
+        <v>712.709613812981</v>
       </c>
       <c r="G3" t="n">
-        <v>713.2068862</v>
+        <v>712.709613812981</v>
       </c>
     </row>
     <row r="4">
@@ -6659,26 +6659,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.3228513</v>
+        <v>112.286680534802</v>
       </c>
       <c r="C4" t="n">
-        <v>1493.2858581</v>
+        <v>1485.375363906427</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00000967272151264787</t>
+          <t>0.00001045421608718809</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00000967272151264787</t>
+          <t>0.00001045421608718809</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>101.8981843</v>
+        <v>110.130911612579</v>
       </c>
       <c r="G4" t="n">
-        <v>101.8981843</v>
+        <v>110.130911612579</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1046.5812808</v>
+        <v>1046.581280788178</v>
       </c>
       <c r="C5" t="n">
-        <v>-171.6005121</v>
+        <v>-171.600512098146</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -6704,10 +6704,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1129.9344636</v>
+        <v>1129.934463596826</v>
       </c>
       <c r="G5" t="n">
-        <v>1129.9344636</v>
+        <v>1129.934463596826</v>
       </c>
     </row>
     <row r="6">
@@ -6717,26 +6717,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14671.8850242</v>
+        <v>14783.74008365115</v>
       </c>
       <c r="C6" t="n">
-        <v>1012.9821063</v>
+        <v>964.582853179018</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00017789687035025528</t>
+          <t>0.00017926514541064973</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00017789687035025528</t>
+          <t>0.00017926514541064973</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>14747.0627808</v>
+        <v>14860.48826250243</v>
       </c>
       <c r="G6" t="n">
-        <v>14747.0627808</v>
+        <v>14860.48826250243</v>
       </c>
     </row>
     <row r="7">
@@ -6746,10 +6746,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.1637427</v>
+        <v>435.16374269006</v>
       </c>
       <c r="C7" t="n">
-        <v>209.9828962</v>
+        <v>209.982896194664</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -6762,10 +6762,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>540.1224356</v>
+        <v>540.122435594405</v>
       </c>
       <c r="G7" t="n">
-        <v>540.1224356</v>
+        <v>540.122435594405</v>
       </c>
     </row>
     <row r="8">
@@ -6775,26 +6775,26 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.7956989</v>
+        <v>1711.044468647888</v>
       </c>
       <c r="C8" t="n">
-        <v>-1786.6121821</v>
+        <v>-1840.700281817052</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00015770233278136411</t>
+          <t>0.00015482015664404145</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00015770233278136411</t>
+          <t>0.00015482015664404145</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1676.8916418</v>
+        <v>1646.244681858543</v>
       </c>
       <c r="G8" t="n">
-        <v>1676.8916418</v>
+        <v>1646.244681858543</v>
       </c>
     </row>
     <row r="9">
@@ -6804,26 +6804,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12954.1198068</v>
+        <v>12959.30207289604</v>
       </c>
       <c r="C9" t="n">
-        <v>-1133.8014178</v>
+        <v>-1166.987931000686</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00028329514529487100</t>
+          <t>0.00028410701963593916</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00028329514529487100</t>
+          <t>0.00028410701963593916</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13255.9586203</v>
+        <v>13293.94787940671</v>
       </c>
       <c r="G9" t="n">
-        <v>13255.9586203</v>
+        <v>13293.94787940671</v>
       </c>
     </row>
     <row r="10">
@@ -6833,26 +6833,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7204.7661836</v>
+        <v>7289.498929080233</v>
       </c>
       <c r="C10" t="n">
-        <v>-484.1327988</v>
+        <v>-600.380880591251</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00011015383343345245</t>
+          <t>0.00011156450316656720</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00011015383343345245</t>
+          <t>0.00011156450316656720</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7080.4469559</v>
+        <v>7171.121714155998</v>
       </c>
       <c r="G10" t="n">
-        <v>7080.4469559</v>
+        <v>7171.121714155998</v>
       </c>
     </row>
     <row r="11">
@@ -6862,26 +6862,26 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.1150491</v>
+        <v>64.23640744911501</v>
       </c>
       <c r="C11" t="n">
-        <v>42.3768348</v>
+        <v>39.496571525441</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00001503914178076790</t>
+          <t>0.00001552732837511105</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00001503914178076790</t>
+          <t>0.00001552732837511105</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>62.5701238</v>
+        <v>64.601216794724</v>
       </c>
       <c r="G11" t="n">
-        <v>62.5701238</v>
+        <v>64.601216794724</v>
       </c>
     </row>
     <row r="12">
@@ -6891,26 +6891,26 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19391.0743961</v>
+        <v>19617.15017695446</v>
       </c>
       <c r="C12" t="n">
-        <v>1873.3424893</v>
+        <v>1655.148351810658</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00032541928251186153</t>
+          <t>0.00032930204196973505</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00032541928251186153</t>
+          <t>0.00032930204196973505</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19485.2690076</v>
+        <v>19717.7586496917</v>
       </c>
       <c r="G12" t="n">
-        <v>19485.2690076</v>
+        <v>19717.7586496917</v>
       </c>
     </row>
     <row r="13">
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>625.1818182</v>
+        <v>625.1818181817511</v>
       </c>
       <c r="C13" t="n">
-        <v>-244.5885175</v>
+        <v>-244.5885175258</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -6936,10 +6936,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>593.5025753</v>
+        <v>593.5025752629959</v>
       </c>
       <c r="G13" t="n">
-        <v>593.5025753</v>
+        <v>593.5025752629959</v>
       </c>
     </row>
     <row r="14">
@@ -6949,26 +6949,26 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2899.7240836</v>
+        <v>2912.179565010869</v>
       </c>
       <c r="C14" t="n">
-        <v>-1367.4354227</v>
+        <v>-1384.187311927747</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.00571003179558621232</t>
+          <t>0.00573563597801171610</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.00571003179558621232</t>
+          <t>0.00573563597801171610</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3471.202559</v>
+        <v>3486.767674301037</v>
       </c>
       <c r="G14" t="n">
-        <v>3471.202559</v>
+        <v>3486.767674301037</v>
       </c>
     </row>
     <row r="15">
@@ -6978,26 +6978,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.7468599</v>
+        <v>211.785255320128</v>
       </c>
       <c r="C15" t="n">
-        <v>53.3486562</v>
+        <v>50.506949952808</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00002119028648536335</t>
+          <t>0.00002189667509139130</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00002119028648536335</t>
+          <t>0.00002189667509139130</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>207.1638268</v>
+        <v>214.069734703124</v>
       </c>
       <c r="G15" t="n">
-        <v>207.1638268</v>
+        <v>214.069734703124</v>
       </c>
     </row>
     <row r="16">
@@ -7007,26 +7007,26 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.4090909</v>
+        <v>83.35496262458599</v>
       </c>
       <c r="C16" t="n">
-        <v>466.2822042</v>
+        <v>459.943656817342</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00000363156918997275</t>
+          <t>0.00000391616158020036</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00000363156918997275</t>
+          <t>0.00000391616158020036</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>62.7754612</v>
+        <v>67.69493747029099</v>
       </c>
       <c r="G16" t="n">
-        <v>62.7754612</v>
+        <v>67.69493747029099</v>
       </c>
     </row>
     <row r="17">
@@ -7036,26 +7036,26 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>663.5874396</v>
+        <v>665.0750654961651</v>
       </c>
       <c r="C17" t="n">
-        <v>216.6310289</v>
+        <v>214.721763765222</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00007690375325111114</t>
+          <t>0.00007704977013233425</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00007690375325111114</t>
+          <t>0.00007704977013233425</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>679.8686304</v>
+        <v>681.1594945019129</v>
       </c>
       <c r="G17" t="n">
-        <v>679.8686304</v>
+        <v>681.1594945019129</v>
       </c>
     </row>
     <row r="18">
@@ -7065,26 +7065,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4249.8183575</v>
+        <v>4240.436254998349</v>
       </c>
       <c r="C18" t="n">
-        <v>1686.6348703</v>
+        <v>1687.955608400317</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00010995935985666158</t>
+          <t>0.00010969052088633663</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00010995935985666158</t>
+          <t>0.00010969052088633663</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4235.7947525</v>
+        <v>4225.438683630618</v>
       </c>
       <c r="G18" t="n">
-        <v>4235.7947525</v>
+        <v>4225.438683630618</v>
       </c>
     </row>
     <row r="19">
@@ -7094,26 +7094,26 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1935.2869565</v>
+        <v>1927.285489727452</v>
       </c>
       <c r="C19" t="n">
-        <v>-1174.2117498</v>
+        <v>-1161.510452665386</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00018526712226858179</t>
+          <t>0.00018463569034180352</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.00018526712226858179</t>
+          <t>0.00018463569034180352</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1906.3681191</v>
+        <v>1899.870788728252</v>
       </c>
       <c r="G19" t="n">
-        <v>1906.3681191</v>
+        <v>1899.870788728252</v>
       </c>
     </row>
     <row r="20">
@@ -7123,26 +7123,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1200.1140097</v>
+        <v>1229.742703497715</v>
       </c>
       <c r="C20" t="n">
-        <v>1510.0157995</v>
+        <v>1501.09385593047</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00005980165139781975</t>
+          <t>0.00006113167962753857</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.00005980165139781975</t>
+          <t>0.00006113167962753857</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1172.518002</v>
+        <v>1198.59557688267</v>
       </c>
       <c r="G20" t="n">
-        <v>1172.518002</v>
+        <v>1198.59557688267</v>
       </c>
     </row>
     <row r="21">
@@ -7152,26 +7152,26 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.8690101</v>
+        <v>609.725060433572</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.9708008</v>
+        <v>-17.402160356893</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00028851119381908988</t>
+          <t>0.00029282452252694783</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.00028851119381908988</t>
+          <t>0.00029282452252694783</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>607.5826473</v>
+        <v>616.66618977804</v>
       </c>
       <c r="G21" t="n">
-        <v>607.5826473</v>
+        <v>616.66618977804</v>
       </c>
     </row>
     <row r="22">
@@ -7181,26 +7181,26 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.3323907</v>
+        <v>401.849038039527</v>
       </c>
       <c r="C22" t="n">
-        <v>157.0286762</v>
+        <v>154.627854916612</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00007230020927248646</t>
+          <t>0.00007405377735895556</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00007230020927248646</t>
+          <t>0.00007405377735895556</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>393.8008757</v>
+        <v>403.352115614782</v>
       </c>
       <c r="G22" t="n">
-        <v>393.8008757</v>
+        <v>403.352115614782</v>
       </c>
     </row>
     <row r="23">
@@ -7210,26 +7210,26 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1494.7710145</v>
+        <v>1517.902321092035</v>
       </c>
       <c r="C23" t="n">
-        <v>-710.5014422</v>
+        <v>-734.697415829343</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.00027692504946711521</t>
+          <t>0.00028123727411547353</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00027692504946711521</t>
+          <t>0.00028123727411547353</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1527.3693103</v>
+        <v>1551.153217130204</v>
       </c>
       <c r="G23" t="n">
-        <v>1527.3693103</v>
+        <v>1551.153217130204</v>
       </c>
     </row>
     <row r="24">
@@ -7239,26 +7239,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1511.4415459</v>
+        <v>1554.470064806737</v>
       </c>
       <c r="C24" t="n">
-        <v>2642.0656541</v>
+        <v>2596.040087785517</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00015249537486760993</t>
+          <t>0.00015705971685807136</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00015249537486760993</t>
+          <t>0.00015705971685807136</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1549.703443</v>
+        <v>1596.087646507345</v>
       </c>
       <c r="G24" t="n">
-        <v>1549.703443</v>
+        <v>1596.087646507345</v>
       </c>
     </row>
     <row r="25">
@@ -7268,26 +7268,26 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1532.6067633</v>
+        <v>1555.421372431912</v>
       </c>
       <c r="C25" t="n">
-        <v>9102.091617300001</v>
+        <v>9069.56107040725</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00002228312172600222</t>
+          <t>0.00002267672773953282</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.00002228312172600222</t>
+          <t>0.00002267672773953282</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1480.3344919</v>
+        <v>1506.482917860017</v>
       </c>
       <c r="G25" t="n">
-        <v>1480.3344919</v>
+        <v>1506.482917860017</v>
       </c>
     </row>
     <row r="26">
@@ -7297,26 +7297,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>675.7333333</v>
+        <v>677.183619065127</v>
       </c>
       <c r="C26" t="n">
-        <v>185.3668443</v>
+        <v>183.290534921379</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00013423798398082710</t>
+          <t>0.00013453415456371985</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00013423798398082710</t>
+          <t>0.00013453415456371985</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>713.1151271</v>
+        <v>714.68847997194</v>
       </c>
       <c r="G26" t="n">
-        <v>713.1151271</v>
+        <v>714.68847997194</v>
       </c>
     </row>
     <row r="27">
@@ -7326,26 +7326,26 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1459.8697095</v>
+        <v>1481.335456967448</v>
       </c>
       <c r="C27" t="n">
-        <v>-880.3186406</v>
+        <v>-943.973460215775</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00018022847974053782</t>
+          <t>0.00018293020600563701</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.00018022847974053782</t>
+          <t>0.00018293020600563701</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1534.5434957</v>
+        <v>1557.5471656414</v>
       </c>
       <c r="G27" t="n">
-        <v>1534.5434957</v>
+        <v>1557.5471656414</v>
       </c>
     </row>
     <row r="28">
@@ -7355,26 +7355,26 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.8283193</v>
+        <v>106.609588078501</v>
       </c>
       <c r="C28" t="n">
-        <v>80.7175987</v>
+        <v>80.725083556269</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.00016514250383195365</t>
+          <t>0.00016470437419759988</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.00016514250383195365</t>
+          <t>0.00016470437419759988</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>104.2800598</v>
+        <v>104.003400608945</v>
       </c>
       <c r="G28" t="n">
-        <v>104.2800598</v>
+        <v>104.003400608945</v>
       </c>
     </row>
     <row r="29">
@@ -7384,26 +7384,26 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240.7228474</v>
+        <v>237.958202597215</v>
       </c>
       <c r="C29" t="n">
-        <v>100.5139171</v>
+        <v>101.070583946577</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00011498883839189292</t>
+          <t>0.00011361766978339963</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.00011498883839189292</t>
+          <t>0.00011361766978339963</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>243.027875</v>
+        <v>240.129922528187</v>
       </c>
       <c r="G29" t="n">
-        <v>243.027875</v>
+        <v>240.129922528187</v>
       </c>
     </row>
     <row r="30">
@@ -7413,26 +7413,26 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>427.0728205</v>
+        <v>431.818425760299</v>
       </c>
       <c r="C30" t="n">
-        <v>100.5996401</v>
+        <v>102.234551729581</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00014686107090422160</t>
+          <t>0.00014850042289893221</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.00014686107090422160</t>
+          <t>0.00014850042289893221</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>422.5212102</v>
+        <v>427.237647185726</v>
       </c>
       <c r="G30" t="n">
-        <v>422.5212102</v>
+        <v>427.237647185726</v>
       </c>
     </row>
     <row r="31">
@@ -7458,10 +7458,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>216.1178056</v>
+        <v>216.11780562094</v>
       </c>
       <c r="G31" t="n">
-        <v>216.1178056</v>
+        <v>216.11780562094</v>
       </c>
     </row>
     <row r="32">
@@ -7471,26 +7471,26 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>210.2801247</v>
+        <v>233.167070521431</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3795355</v>
+        <v>-8.725139853086</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.00005596192513811216</t>
+          <t>0.00006204563205987248</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.00005596192513811216</t>
+          <t>0.00006204563205987248</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>190.2777646</v>
+        <v>210.963152890102</v>
       </c>
       <c r="G32" t="n">
-        <v>190.2777646</v>
+        <v>210.963152890102</v>
       </c>
     </row>
     <row r="33">
@@ -7647,26 +7647,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.0579923</v>
+        <v>656.514144990537</v>
       </c>
       <c r="C6" t="n">
-        <v>960.3242058</v>
+        <v>948.145637629581</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00000776316630438938</t>
+          <t>0.00000797816417104005</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00000776316630438938</t>
+          <t>0.00000797816417104005</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>643.5408371</v>
+        <v>661.3634499247991</v>
       </c>
       <c r="G6" t="n">
-        <v>643.5408371</v>
+        <v>661.3634499247991</v>
       </c>
     </row>
     <row r="7">
@@ -7689,26 +7689,26 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.2491938</v>
+        <v>186.457992810307</v>
       </c>
       <c r="C8" t="n">
-        <v>47.0144495</v>
+        <v>41.370130232625</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00001644622339174985</t>
+          <t>0.00001666128581714793</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00001644622339174985</t>
+          <t>0.00001666128581714793</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>174.8771503</v>
+        <v>177.16396730219</v>
       </c>
       <c r="G8" t="n">
-        <v>174.8771503</v>
+        <v>177.16396730219</v>
       </c>
     </row>
     <row r="9">
@@ -7718,26 +7718,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441.4496971</v>
+        <v>443.088140326252</v>
       </c>
       <c r="C9" t="n">
-        <v>32.9513841</v>
+        <v>31.690536324566</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00001001279810743691</t>
+          <t>0.00001008088766372403</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00001001279810743691</t>
+          <t>0.00001008088766372403</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>468.5192796</v>
+        <v>471.705329039144</v>
       </c>
       <c r="G9" t="n">
-        <v>468.5192796</v>
+        <v>471.705329039144</v>
       </c>
     </row>
     <row r="10">
@@ -7747,26 +7747,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.7159465</v>
+        <v>418.88333487419</v>
       </c>
       <c r="C10" t="n">
-        <v>306.9211345</v>
+        <v>304.603248400256</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00000615766847765613</t>
+          <t>0.00000620871100104463</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00000615766847765613</t>
+          <t>0.00000620871100104463</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>395.8014321</v>
+        <v>399.082333652634</v>
       </c>
       <c r="G10" t="n">
-        <v>395.8014321</v>
+        <v>399.082333652634</v>
       </c>
     </row>
     <row r="11">
@@ -7776,18 +7776,18 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.5662342</v>
+        <v>-7.284992452733</v>
       </c>
       <c r="C11" t="n">
-        <v>59.7713628</v>
+        <v>59.669894693917</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-6.7968192</v>
+        <v>-6.536617752989</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.7968192</v>
+        <v>-6.536617752989</v>
       </c>
     </row>
     <row r="12">
@@ -7797,26 +7797,26 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.2864617</v>
+        <v>132.871640213328</v>
       </c>
       <c r="C12" t="n">
-        <v>161.3167042</v>
+        <v>161.442183692881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00000226793945155301</t>
+          <t>0.00000224624361510592</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00000226793945155301</t>
+          <t>0.00000224624361510592</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>135.7983767</v>
+        <v>134.499285841477</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7983767</v>
+        <v>134.499285841477</v>
       </c>
     </row>
     <row r="13">
@@ -7852,26 +7852,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.2873684</v>
+        <v>8.29768165424</v>
       </c>
       <c r="C15" t="n">
-        <v>73.01462960000001</v>
+        <v>72.69164512671</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00000068543521858095</t>
+          <t>0.00000078194959506045</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00000068543521858095</t>
+          <t>0.00000078194959506045</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.7010601</v>
+        <v>7.644619179266</v>
       </c>
       <c r="G15" t="n">
-        <v>6.7010601</v>
+        <v>7.644619179266</v>
       </c>
     </row>
     <row r="16">
@@ -7881,10 +7881,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.3947325</v>
+        <v>205.394732534731</v>
       </c>
       <c r="C16" t="n">
-        <v>162.4713852</v>
+        <v>162.471385158825</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -7897,10 +7897,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>216.7381705</v>
+        <v>216.738170549381</v>
       </c>
       <c r="G16" t="n">
-        <v>216.7381705</v>
+        <v>216.738170549381</v>
       </c>
     </row>
     <row r="17">
@@ -7910,18 +7910,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-12.9955061</v>
+        <v>-12.670642372497</v>
       </c>
       <c r="C17" t="n">
-        <v>144.4964313</v>
+        <v>144.253409200152</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-16.3561366</v>
+        <v>-16.009716470189</v>
       </c>
       <c r="G17" t="n">
-        <v>-16.3561366</v>
+        <v>-16.009716470189</v>
       </c>
     </row>
     <row r="18">
@@ -7931,26 +7931,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.6121406</v>
+        <v>16.015780065784</v>
       </c>
       <c r="C18" t="n">
-        <v>78.0826756</v>
+        <v>77.805313847458</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00000027318916082772</t>
+          <t>0.00000030797976202997</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00000027318916082772</t>
+          <t>0.00000030797976202997</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10.5236445</v>
+        <v>11.863829159908</v>
       </c>
       <c r="G18" t="n">
-        <v>10.5236445</v>
+        <v>11.863829159908</v>
       </c>
     </row>
     <row r="19">
@@ -7973,26 +7973,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>270.0055621</v>
+        <v>272.372807204109</v>
       </c>
       <c r="C20" t="n">
-        <v>94.09630300000001</v>
+        <v>93.21389988714</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00001301913797187553</t>
+          <t>0.00001311826069746904</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.00001301913797187553</t>
+          <t>0.00001311826069746904</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>255.2634131</v>
+        <v>257.206890832704</v>
       </c>
       <c r="G20" t="n">
-        <v>255.2634131</v>
+        <v>257.206890832704</v>
       </c>
     </row>
     <row r="21">
@@ -8002,26 +8002,26 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.46082730000001</v>
+        <v>74.582539735536</v>
       </c>
       <c r="C21" t="n">
-        <v>70.80806490000001</v>
+        <v>66.517588541455</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00003461526341320585</t>
+          <t>0.00003616048788627005</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.00003461526341320585</t>
+          <t>0.00003616048788627005</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>72.897114</v>
+        <v>76.15123929140501</v>
       </c>
       <c r="G21" t="n">
-        <v>72.897114</v>
+        <v>76.15123929140501</v>
       </c>
     </row>
     <row r="22">
@@ -8031,26 +8031,26 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.8812881</v>
+        <v>164.420024308924</v>
       </c>
       <c r="C22" t="n">
-        <v>4.6022425</v>
+        <v>4.474078251177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00002982184617537204</t>
+          <t>0.00002971793169426597</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00002982184617537204</t>
+          <t>0.00002971793169426597</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>162.4320214</v>
+        <v>161.866025584016</v>
       </c>
       <c r="G22" t="n">
-        <v>162.4320214</v>
+        <v>161.866025584016</v>
       </c>
     </row>
     <row r="23">
@@ -8073,26 +8073,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.3796514</v>
+        <v>127.6333270437</v>
       </c>
       <c r="C24" t="n">
-        <v>10.2374987</v>
+        <v>8.548995573048</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00001329727901855143</t>
+          <t>0.00001354195643691496</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00001329727901855143</t>
+          <t>0.00001354195643691496</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>135.130912</v>
+        <v>137.617396814948</v>
       </c>
       <c r="G24" t="n">
-        <v>135.130912</v>
+        <v>137.617396814948</v>
       </c>
     </row>
     <row r="25">
@@ -8102,26 +8102,26 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.6649333</v>
+        <v>256.174057924783</v>
       </c>
       <c r="C25" t="n">
-        <v>139.9434987</v>
+        <v>140.257538603731</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00000424790112339220</t>
+          <t>0.00000424879698221666</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.00000424790112339220</t>
+          <t>0.00000424879698221666</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>282.2007898</v>
+        <v>282.260304426818</v>
       </c>
       <c r="G25" t="n">
-        <v>282.2007898</v>
+        <v>282.260304426818</v>
       </c>
     </row>
     <row r="26">
@@ -8131,26 +8131,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1443.2626807</v>
+        <v>1450.042876359752</v>
       </c>
       <c r="C26" t="n">
-        <v>-25.8494766</v>
+        <v>-30.196637612883</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00029635439386368513</t>
+          <t>0.00029790975313226560</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00029635439386368513</t>
+          <t>0.00029790975313226560</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1574.3293736</v>
+        <v>1582.591939759597</v>
       </c>
       <c r="G26" t="n">
-        <v>1574.3293736</v>
+        <v>1582.591939759597</v>
       </c>
     </row>
     <row r="27">
@@ -8160,26 +8160,26 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.8581879</v>
+        <v>6.886278315288</v>
       </c>
       <c r="C27" t="n">
-        <v>266.1988286</v>
+        <v>264.078466680604</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00000029929158527680</t>
+          <t>0.00000043779306847336</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.00000029929158527680</t>
+          <t>0.00000043779306847336</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.5482984</v>
+        <v>3.727560187174</v>
       </c>
       <c r="G27" t="n">
-        <v>2.5482984</v>
+        <v>3.727560187174</v>
       </c>
     </row>
     <row r="28">
@@ -8189,26 +8189,26 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.4389257</v>
+        <v>77.207868306599</v>
       </c>
       <c r="C28" t="n">
-        <v>136.2936</v>
+        <v>136.271608623758</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.00012312193618472904</t>
+          <t>0.00012439416353829857</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.00012312193618472904</t>
+          <t>0.00012439416353829857</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>77.74596219999999</v>
+        <v>78.549316537076</v>
       </c>
       <c r="G28" t="n">
-        <v>77.74596219999999</v>
+        <v>78.549316537076</v>
       </c>
     </row>
     <row r="29">
@@ -8257,26 +8257,26 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.8014147</v>
+        <v>145.488627415398</v>
       </c>
       <c r="C32" t="n">
-        <v>52.3573203</v>
+        <v>52.615948024296</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.00004116183716506173</t>
+          <t>0.00004142819214179687</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.00004116183716506173</t>
+          <t>0.00004142819214179687</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>139.9555562</v>
+        <v>140.861197518896</v>
       </c>
       <c r="G32" t="n">
-        <v>139.9555562</v>
+        <v>140.861197518896</v>
       </c>
     </row>
     <row r="33">
@@ -8286,26 +8286,26 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>706.3021969</v>
+        <v>692.6318497816681</v>
       </c>
       <c r="C33" t="n">
-        <v>-1242.9182326</v>
+        <v>-1230.741284072246</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.00217784276747466643</t>
+          <t>0.00213435305248776963</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.00217784276747466643</t>
+          <t>0.00213435305248776963</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>768.6608934</v>
+        <v>753.311372463348</v>
       </c>
       <c r="G33" t="n">
-        <v>768.6608934</v>
+        <v>753.311372463348</v>
       </c>
     </row>
     <row r="34">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13.1709773</v>
+        <v>13.170977320119</v>
       </c>
       <c r="G3" t="n">
-        <v>13.1709773</v>
+        <v>13.170977320119</v>
       </c>
     </row>
     <row r="4">
@@ -8455,10 +8455,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14.8654718</v>
+        <v>14.865471807523</v>
       </c>
       <c r="G4" t="n">
-        <v>14.8654718</v>
+        <v>14.865471807523</v>
       </c>
     </row>
     <row r="5">
@@ -8484,10 +8484,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>24.8837086</v>
+        <v>24.883708607168</v>
       </c>
       <c r="G5" t="n">
-        <v>24.8837086</v>
+        <v>24.883708607168</v>
       </c>
     </row>
     <row r="6">
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>795.9127629</v>
+        <v>795.912762948186</v>
       </c>
       <c r="G6" t="n">
-        <v>795.9127629</v>
+        <v>795.912762948186</v>
       </c>
     </row>
     <row r="7">
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9721572</v>
+        <v>2.97215724537</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9721572</v>
+        <v>2.97215724537</v>
       </c>
     </row>
     <row r="9">
@@ -8584,10 +8584,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>242.9703453</v>
+        <v>242.970345307597</v>
       </c>
       <c r="G9" t="n">
-        <v>242.9703453</v>
+        <v>242.970345307597</v>
       </c>
     </row>
     <row r="10">
@@ -8613,10 +8613,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>212.6566758</v>
+        <v>212.656675836299</v>
       </c>
       <c r="G10" t="n">
-        <v>212.6566758</v>
+        <v>212.656675836299</v>
       </c>
     </row>
     <row r="11">
@@ -8642,10 +8642,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.0355405</v>
+        <v>2.035540503879</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0355405</v>
+        <v>2.035540503879</v>
       </c>
     </row>
     <row r="12">
@@ -8671,10 +8671,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>660.0000681</v>
+        <v>660.000068121154</v>
       </c>
       <c r="G12" t="n">
-        <v>660.0000681</v>
+        <v>660.000068121154</v>
       </c>
     </row>
     <row r="13">
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50.0040611</v>
+        <v>50.004061146753</v>
       </c>
       <c r="G15" t="n">
-        <v>50.0040611</v>
+        <v>50.004061146753</v>
       </c>
     </row>
     <row r="16">
@@ -8755,10 +8755,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25.0789522</v>
+        <v>25.078952221799</v>
       </c>
       <c r="G16" t="n">
-        <v>25.0789522</v>
+        <v>25.078952221799</v>
       </c>
     </row>
     <row r="17">
@@ -8784,10 +8784,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>149.9998643</v>
+        <v>149.999864261394</v>
       </c>
       <c r="G17" t="n">
-        <v>149.9998643</v>
+        <v>149.999864261394</v>
       </c>
     </row>
     <row r="18">
@@ -8813,10 +8813,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>19.2735353</v>
+        <v>19.27353525698</v>
       </c>
       <c r="G18" t="n">
-        <v>19.2735353</v>
+        <v>19.27353525698</v>
       </c>
     </row>
     <row r="19">
@@ -8842,10 +8842,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18.0105247</v>
+        <v>18.01052468625</v>
       </c>
       <c r="G19" t="n">
-        <v>18.0105247</v>
+        <v>18.01052468625</v>
       </c>
     </row>
     <row r="20">
@@ -8871,10 +8871,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11.0750203</v>
+        <v>11.075020296324</v>
       </c>
       <c r="G20" t="n">
-        <v>11.0750203</v>
+        <v>11.075020296324</v>
       </c>
     </row>
     <row r="21">
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20.3088875</v>
+        <v>20.308887532343</v>
       </c>
       <c r="G21" t="n">
-        <v>20.3088875</v>
+        <v>20.308887532343</v>
       </c>
     </row>
     <row r="22">
@@ -8942,10 +8942,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>35.9995823</v>
+        <v>35.999582270047</v>
       </c>
       <c r="G23" t="n">
-        <v>35.9995823</v>
+        <v>35.999582270047</v>
       </c>
     </row>
     <row r="24">
@@ -8971,10 +8971,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>31.9593805</v>
+        <v>31.959380510326</v>
       </c>
       <c r="G24" t="n">
-        <v>31.9593805</v>
+        <v>31.959380510326</v>
       </c>
     </row>
     <row r="25">
@@ -9000,10 +9000,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>197.9185183</v>
+        <v>197.91851832726</v>
       </c>
       <c r="G25" t="n">
-        <v>197.9185183</v>
+        <v>197.91851832726</v>
       </c>
     </row>
     <row r="26">
@@ -9042,10 +9042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>190.0023431</v>
+        <v>190.002343108893</v>
       </c>
       <c r="G27" t="n">
-        <v>190.0023431</v>
+        <v>190.002343108893</v>
       </c>
     </row>
     <row r="28">
@@ -9110,10 +9110,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.0646197</v>
+        <v>1.064619732123</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0646197</v>
+        <v>1.064619732123</v>
       </c>
     </row>
     <row r="32">
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0153439</v>
+        <v>0.015343870161</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0153439</v>
+        <v>0.015343870161</v>
       </c>
     </row>
     <row r="33">
@@ -9247,18 +9247,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.4907755</v>
+        <v>-1.504517937242</v>
       </c>
       <c r="C2" t="n">
-        <v>9.782432099999999</v>
+        <v>9.800216326698999</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-1.7433204</v>
+        <v>-1.75992095742</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.7433204</v>
+        <v>-1.75992095742</v>
       </c>
     </row>
     <row r="3">
@@ -9268,26 +9268,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.674871</v>
+        <v>289.003775801555</v>
       </c>
       <c r="C3" t="n">
-        <v>-27.0811765</v>
+        <v>-26.503270667548</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00003982494233005290</t>
+          <t>0.00003961017126979200</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00003982494233005290</t>
+          <t>0.00003961017126979200</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>283.4512791</v>
+        <v>281.922660910927</v>
       </c>
       <c r="G3" t="n">
-        <v>283.4512791</v>
+        <v>281.922660910927</v>
       </c>
     </row>
     <row r="4">
@@ -9297,18 +9297,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0246305</v>
+        <v>-0.024363233666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1275373</v>
+        <v>0.127389818807</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-0.0251187</v>
+        <v>-0.024846113603</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0251187</v>
+        <v>-0.024846113603</v>
       </c>
     </row>
     <row r="5">
@@ -9331,26 +9331,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.4703803</v>
+        <v>340.38650755</v>
       </c>
       <c r="C6" t="n">
-        <v>2.9574569</v>
+        <v>3.12353508107</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00000411774627832462</t>
+          <t>0.00000412898632724583</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00000411774627832462</t>
+          <t>0.00000412898632724583</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>341.3475614</v>
+        <v>342.279324357854</v>
       </c>
       <c r="G6" t="n">
-        <v>341.3475614</v>
+        <v>342.279324357854</v>
       </c>
     </row>
     <row r="7">
@@ -9386,26 +9386,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.68566</v>
+        <v>311.669209539235</v>
       </c>
       <c r="C9" t="n">
-        <v>-114.5730326</v>
+        <v>-114.938373357215</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00000683398098480384</t>
+          <t>0.00000684856840904740</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00000683398098480384</t>
+          <t>0.00000684856840904740</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>319.7759321</v>
+        <v>320.458507484587</v>
       </c>
       <c r="G9" t="n">
-        <v>319.7759321</v>
+        <v>320.458507484587</v>
       </c>
     </row>
     <row r="10">
@@ -9415,18 +9415,18 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.6789165</v>
+        <v>-0.691764469532</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0390545</v>
+        <v>4.050446075598</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.7985387</v>
+        <v>-0.813655670128</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7985387</v>
+        <v>-0.813655670128</v>
       </c>
     </row>
     <row r="11">
@@ -9514,18 +9514,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.035386</v>
+        <v>-0.03616169677</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1626456</v>
+        <v>0.163637988076</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-0.0413494</v>
+        <v>-0.042255884475</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0413494</v>
+        <v>-0.042255884475</v>
       </c>
     </row>
     <row r="18">
@@ -9535,26 +9535,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>571.8614276</v>
+        <v>575.4294149595841</v>
       </c>
       <c r="C18" t="n">
-        <v>375.6557366</v>
+        <v>375.252047672377</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00001491633867882236</t>
+          <t>0.00001501029334682966</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00001491633867882236</t>
+          <t>0.00001501029334682966</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>574.599099</v>
+        <v>578.218369717285</v>
       </c>
       <c r="G18" t="n">
-        <v>574.599099</v>
+        <v>578.218369717285</v>
       </c>
     </row>
     <row r="19">
@@ -9564,18 +9564,18 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.85878</v>
+        <v>-0.867675938349</v>
       </c>
       <c r="C19" t="n">
-        <v>4.9865549</v>
+        <v>4.998695701088</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.9108216</v>
+        <v>-0.920516568806</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9108216</v>
+        <v>-0.920516568806</v>
       </c>
     </row>
     <row r="20">
@@ -9585,18 +9585,18 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.3558204</v>
+        <v>-6.078154441257</v>
       </c>
       <c r="C20" t="n">
-        <v>32.1642957</v>
+        <v>32.096943342896</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>-5.6889425</v>
+        <v>-5.452561470844</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.6889425</v>
+        <v>-5.452561470844</v>
       </c>
     </row>
     <row r="21">
@@ -9619,18 +9619,18 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.5162189</v>
+        <v>-1.485477890487</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0222083</v>
+        <v>5.013016499164</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>-1.7283977</v>
+        <v>-1.699943832386</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.7283977</v>
+        <v>-1.699943832386</v>
       </c>
     </row>
     <row r="23">
@@ -9640,26 +9640,26 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>189.4981485</v>
+        <v>190.925748395426</v>
       </c>
       <c r="C23" t="n">
-        <v>-36.5152265</v>
+        <v>-38.048138981956</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.00003505182138688594</t>
+          <t>0.00003532083777943213</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00003505182138688594</t>
+          <t>0.00003532083777943213</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>193.3269538</v>
+        <v>194.810703259785</v>
       </c>
       <c r="G23" t="n">
-        <v>193.3269538</v>
+        <v>194.810703259785</v>
       </c>
     </row>
     <row r="24">
@@ -9669,26 +9669,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>185.2862847</v>
+        <v>185.900920796614</v>
       </c>
       <c r="C24" t="n">
-        <v>-76.8669896</v>
+        <v>-77.284039497213</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00001950675093224095</t>
+          <t>0.00001956812531111584</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00001950675093224095</t>
+          <t>0.00001956812531111584</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>198.233416</v>
+        <v>198.857120712902</v>
       </c>
       <c r="G24" t="n">
-        <v>198.233416</v>
+        <v>198.857120712902</v>
       </c>
     </row>
     <row r="25">
@@ -9711,26 +9711,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.7740796</v>
+        <v>7.358976211685</v>
       </c>
       <c r="C26" t="n">
-        <v>40.0030714</v>
+        <v>39.616859856219</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00000131556537246515</t>
+          <t>0.00000144602131937503</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00000131556537246515</t>
+          <t>0.00000144602131937503</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.9887042</v>
+        <v>7.681727975342</v>
       </c>
       <c r="G26" t="n">
-        <v>6.9887042</v>
+        <v>7.681727975342</v>
       </c>
     </row>
     <row r="27">
@@ -9779,26 +9779,26 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8809709999999999</v>
+        <v>0.986903112117</v>
       </c>
       <c r="C30" t="n">
-        <v>5.2055185</v>
+        <v>5.222534507893</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00000009030477172395</t>
+          <t>0.00000012151186194612</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.00000009030477172395</t>
+          <t>0.00000012151186194612</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.259808</v>
+        <v>0.349591206473</v>
       </c>
       <c r="G30" t="n">
-        <v>0.259808</v>
+        <v>0.349591206473</v>
       </c>
     </row>
     <row r="31">
@@ -9808,26 +9808,26 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.4263287</v>
+        <v>23.732440787735</v>
       </c>
       <c r="C31" t="n">
-        <v>41.0461395</v>
+        <v>40.749147795878</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.00000316305124045755</t>
+          <t>0.00000334123664343328</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.00000316305124045755</t>
+          <t>0.00000334123664343328</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>23.5135472</v>
+        <v>24.838145102214</v>
       </c>
       <c r="G31" t="n">
-        <v>23.5135472</v>
+        <v>24.838145102214</v>
       </c>
     </row>
     <row r="32">
@@ -9945,26 +9945,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.2203222</v>
+        <v>153.410262213457</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.8541513</v>
+        <v>-17.391177313324</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00001387913632578633</t>
+          <t>0.00001399114873457840</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00001387913632578633</t>
+          <t>0.00001399114873457840</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>158.8966246</v>
+        <v>160.179009438099</v>
       </c>
       <c r="G2" t="n">
-        <v>158.8966246</v>
+        <v>160.179009438099</v>
       </c>
     </row>
     <row r="3">
@@ -9974,26 +9974,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.3469315</v>
+        <v>45.561944358626</v>
       </c>
       <c r="C3" t="n">
-        <v>-24.467427</v>
+        <v>-24.21131750565</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00000638493506206072</t>
+          <t>0.00000628536851732123</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00000638493506206072</t>
+          <t>0.00000628536851732123</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>45.4443347</v>
+        <v>44.735676731606</v>
       </c>
       <c r="G3" t="n">
-        <v>45.4443347</v>
+        <v>44.735676731606</v>
       </c>
     </row>
     <row r="4">
@@ -10029,26 +10029,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253.9876041</v>
+        <v>245.452301839787</v>
       </c>
       <c r="C6" t="n">
-        <v>-132.2103812</v>
+        <v>-124.977406404791</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00000309016572794286</t>
+          <t>0.00000298591745219547</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00000309016572794286</t>
+          <t>0.00000298591745219547</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>256.1645289</v>
+        <v>247.522691315743</v>
       </c>
       <c r="G6" t="n">
-        <v>256.1645289</v>
+        <v>247.522691315743</v>
       </c>
     </row>
     <row r="7">
@@ -10084,26 +10084,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.8562492</v>
+        <v>12.229214214216</v>
       </c>
       <c r="C9" t="n">
-        <v>44.5294265</v>
+        <v>44.121846574581</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00000024498514135593</t>
+          <t>0.00000025458560118195</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00000024498514135593</t>
+          <t>0.00000025458560118195</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11.4633553</v>
+        <v>11.912580397687</v>
       </c>
       <c r="G9" t="n">
-        <v>11.4633553</v>
+        <v>11.912580397687</v>
       </c>
     </row>
     <row r="10">
@@ -10113,18 +10113,18 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3885455</v>
+        <v>-0.337097146306</v>
       </c>
       <c r="C10" t="n">
-        <v>11.5377274</v>
+        <v>11.453601594773</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.4813625</v>
+        <v>-0.425541389848</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4813625</v>
+        <v>-0.425541389848</v>
       </c>
     </row>
     <row r="11">
@@ -10186,18 +10186,18 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1942733</v>
+        <v>-0.197474533219</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1562327</v>
+        <v>0.155965670737</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.1800314</v>
+        <v>-0.182991599525</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1800314</v>
+        <v>-0.182991599525</v>
       </c>
     </row>
     <row r="16">
@@ -10220,26 +10220,26 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.071928</v>
+        <v>83.79215622446399</v>
       </c>
       <c r="C17" t="n">
-        <v>-37.0830262</v>
+        <v>-35.507641199038</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00001007006105477066</t>
+          <t>0.00000991677860262953</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00001007006105477066</t>
+          <t>0.00000991677860262953</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>89.02450570000001</v>
+        <v>87.669410154668</v>
       </c>
       <c r="G17" t="n">
-        <v>89.02450570000001</v>
+        <v>87.669410154668</v>
       </c>
     </row>
     <row r="18">
@@ -10249,26 +10249,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.34227629999999</v>
+        <v>63.453762253555</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.8902662</v>
+        <v>-6.718456227922</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00000168971588522526</t>
+          <t>0.00000166658991177794</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00000168971588522526</t>
+          <t>0.00000166658991177794</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>65.09031779999999</v>
+        <v>64.199471623188</v>
       </c>
       <c r="G18" t="n">
-        <v>65.09031779999999</v>
+        <v>64.199471623188</v>
       </c>
     </row>
     <row r="19">
@@ -10278,18 +10278,18 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2358</v>
+        <v>-0.227761811368</v>
       </c>
       <c r="C19" t="n">
-        <v>2.6773953</v>
+        <v>2.67153540534</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.2445132</v>
+        <v>-0.236268074625</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2445132</v>
+        <v>-0.236268074625</v>
       </c>
     </row>
     <row r="20">
@@ -10299,18 +10299,18 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.0443605</v>
+        <v>-1.022715133563</v>
       </c>
       <c r="C20" t="n">
-        <v>1.8058535</v>
+        <v>1.801417082447</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>-0.9204765</v>
+        <v>-0.902096674791</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.9204765</v>
+        <v>-0.902096674791</v>
       </c>
     </row>
     <row r="21">
@@ -10333,26 +10333,26 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.3873519</v>
+        <v>28.640415901092</v>
       </c>
       <c r="C22" t="n">
-        <v>-24.7524354</v>
+        <v>-24.571225947609</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00000541511141343955</t>
+          <t>0.00000527517867179248</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00000541511141343955</t>
+          <t>0.00000527517867179248</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29.4947364</v>
+        <v>28.732558329871</v>
       </c>
       <c r="G22" t="n">
-        <v>29.4947364</v>
+        <v>28.732558329871</v>
       </c>
     </row>
     <row r="23">
@@ -10362,26 +10362,26 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.1661071</v>
+        <v>1.292176395276</v>
       </c>
       <c r="C23" t="n">
-        <v>24.1231589</v>
+        <v>24.014684645091</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.00000014849164427775</t>
+          <t>0.00000017224135557422</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00000014849164427775</t>
+          <t>0.00000017224135557422</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8189999</v>
+        <v>0.949990479257</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8189999</v>
+        <v>0.949990479257</v>
       </c>
     </row>
     <row r="24">
@@ -10391,26 +10391,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.3293747</v>
+        <v>53.71974831421</v>
       </c>
       <c r="C24" t="n">
-        <v>-26.8474277</v>
+        <v>-27.114196639403</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00000552530733395899</t>
+          <t>0.00000556162194268619</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00000552530733395899</t>
+          <t>0.00000556162194268619</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>56.1498197</v>
+        <v>56.518859544916</v>
       </c>
       <c r="G24" t="n">
-        <v>56.1498197</v>
+        <v>56.518859544916</v>
       </c>
     </row>
     <row r="25">
@@ -10498,18 +10498,18 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4.001579</v>
+        <v>-3.54543463371</v>
       </c>
       <c r="C31" t="n">
-        <v>42.0847207</v>
+        <v>42.039999290901</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-4.3167313</v>
+        <v>-3.87832333315</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.3167313</v>
+        <v>-3.87832333315</v>
       </c>
     </row>
     <row r="32">
@@ -10627,26 +10627,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>912.9467253</v>
+        <v>911.310081743879</v>
       </c>
       <c r="C2" t="n">
-        <v>-1053.5706576</v>
+        <v>-1067.821060802773</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00008008140905283812</t>
+          <t>0.00007991097130162278</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00008008140905283812</t>
+          <t>0.00007991097130162278</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>916.8196994</v>
+        <v>914.868426399873</v>
       </c>
       <c r="G2" t="n">
-        <v>916.8196994</v>
+        <v>914.868426399873</v>
       </c>
     </row>
     <row r="3">
@@ -10663,19 +10663,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00001412106732624503</t>
+          <t>0.00001412112456470913</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00001412106732624503</t>
+          <t>0.00001412112456470913</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100.5057223</v>
+        <v>100.506129731722</v>
       </c>
       <c r="G3" t="n">
-        <v>100.5057223</v>
+        <v>100.506129731722</v>
       </c>
     </row>
     <row r="4">
@@ -10685,26 +10685,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.8682927</v>
+        <v>121.471878086637</v>
       </c>
       <c r="C4" t="n">
-        <v>271.1984171</v>
+        <v>270.025704208264</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00001144745374746022</t>
+          <t>0.00001141350315750399</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00001144745374746022</t>
+          <t>0.00001141350315750399</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>120.5942661</v>
+        <v>120.236610468519</v>
       </c>
       <c r="G4" t="n">
-        <v>120.5942661</v>
+        <v>120.236610468519</v>
       </c>
     </row>
     <row r="5">
@@ -10727,26 +10727,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4374.2947368</v>
+        <v>4363.485380116967</v>
       </c>
       <c r="C6" t="n">
-        <v>776.8312145</v>
+        <v>567.955736057032</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00005359090210432728</t>
+          <t>0.00005345857392245312</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00005359090210432728</t>
+          <t>0.00005345857392245312</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4442.5087201</v>
+        <v>4431.539151043124</v>
       </c>
       <c r="G6" t="n">
-        <v>4442.5087201</v>
+        <v>4431.539151043124</v>
       </c>
     </row>
     <row r="7">
@@ -10756,26 +10756,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.1463415</v>
+        <v>8.103739240864</v>
       </c>
       <c r="C7" t="n">
-        <v>2.5168141</v>
+        <v>2.088737507997</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00000167425034196543</t>
+          <t>0.00000166610207016570</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.00000167425034196543</t>
+          <t>0.00000166610207016570</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.094175</v>
+        <v>8.054782120931</v>
       </c>
       <c r="G7" t="n">
-        <v>8.094175</v>
+        <v>8.054782120931</v>
       </c>
     </row>
     <row r="8">
@@ -10785,26 +10785,26 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.8292683</v>
+        <v>20.768279949202</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.8437096</v>
+        <v>-6.06045087304</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00000189755622966462</t>
+          <t>0.00000189336691398039</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00000189755622966462</t>
+          <t>0.00000189336691398039</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20.1772296</v>
+        <v>20.132683498787</v>
       </c>
       <c r="G8" t="n">
-        <v>20.1772296</v>
+        <v>20.132683498787</v>
       </c>
     </row>
     <row r="9">
@@ -10814,26 +10814,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>455.1473684</v>
+        <v>449.976608187138</v>
       </c>
       <c r="C9" t="n">
-        <v>1592.4415135</v>
+        <v>1588.242811649991</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00000930685665173484</t>
+          <t>0.00000922144038275881</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00000930685665173484</t>
+          <t>0.00000922144038275881</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>435.4868366</v>
+        <v>431.490034911987</v>
       </c>
       <c r="G9" t="n">
-        <v>435.4868366</v>
+        <v>431.490034911987</v>
       </c>
     </row>
     <row r="10">
@@ -10843,26 +10843,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1114.1557895</v>
+        <v>1114.437660818719</v>
       </c>
       <c r="C10" t="n">
-        <v>2917.042763</v>
+        <v>2951.71749076374</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00001640439676739100</t>
+          <t>0.00001641544910907598</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00001640439676739100</t>
+          <t>0.00001641544910907598</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1054.4386658</v>
+        <v>1055.149086066957</v>
       </c>
       <c r="G10" t="n">
-        <v>1054.4386658</v>
+        <v>1055.149086066957</v>
       </c>
     </row>
     <row r="11">
@@ -10885,26 +10885,26 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.6905263</v>
+        <v>158.014502923987</v>
       </c>
       <c r="C12" t="n">
-        <v>-3153.8387344</v>
+        <v>-3109.728494769373</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00000233625003096634</t>
+          <t>0.00000246525959668041</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00000233625003096634</t>
+          <t>0.00000246525959668041</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>139.8886383</v>
+        <v>147.613399071021</v>
       </c>
       <c r="G12" t="n">
-        <v>139.8886383</v>
+        <v>147.613399071021</v>
       </c>
     </row>
     <row r="13">
@@ -10940,26 +10940,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>332.5073171</v>
+        <v>331.647467193463</v>
       </c>
       <c r="C15" t="n">
-        <v>-315.7537344</v>
+        <v>-328.513149377498</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00003385986417888060</t>
+          <t>0.00003378033120107933</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00003385986417888060</t>
+          <t>0.00003378033120107933</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>331.026154</v>
+        <v>330.248611180322</v>
       </c>
       <c r="G15" t="n">
-        <v>331.026154</v>
+        <v>330.248611180322</v>
       </c>
     </row>
     <row r="16">
@@ -10969,26 +10969,26 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.3384714</v>
+        <v>718.797456857414</v>
       </c>
       <c r="C16" t="n">
-        <v>-399.7990097</v>
+        <v>-401.529187474404</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00004211782981343080</t>
+          <t>0.00004201828656970579</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00004211782981343080</t>
+          <t>0.00004201828656970579</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>728.0506172</v>
+        <v>726.329908430257</v>
       </c>
       <c r="G16" t="n">
-        <v>728.0506172</v>
+        <v>726.329908430257</v>
       </c>
     </row>
     <row r="17">
@@ -10998,26 +10998,26 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.8097561</v>
+        <v>60.719627486948</v>
       </c>
       <c r="C17" t="n">
-        <v>-23.859766</v>
+        <v>-24.997703789094</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00000695238428952052</t>
+          <t>0.00000694020794603108</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00000695238428952052</t>
+          <t>0.00000694020794603108</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>61.4626437</v>
+        <v>61.354998569591</v>
       </c>
       <c r="G17" t="n">
-        <v>61.4626437</v>
+        <v>61.354998569591</v>
       </c>
     </row>
     <row r="18">
@@ -11027,26 +11027,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>290.102439</v>
+        <v>289.911104839849</v>
       </c>
       <c r="C18" t="n">
-        <v>393.790752</v>
+        <v>393.315119948442</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00000764493117131425</t>
+          <t>0.00000764037957160500</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00000764493117131425</t>
+          <t>0.00000764037957160500</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>294.4938874</v>
+        <v>294.31855313126</v>
       </c>
       <c r="G18" t="n">
-        <v>294.4938874</v>
+        <v>294.31855313126</v>
       </c>
     </row>
     <row r="19">
@@ -11056,26 +11056,26 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.0634146</v>
+        <v>115.143332862989</v>
       </c>
       <c r="C19" t="n">
-        <v>10.7997437</v>
+        <v>5.493112256741</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00001116966493187605</t>
+          <t>0.00001108678922557963</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.00001116966493187605</t>
+          <t>0.00001108678922557963</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>114.9340092</v>
+        <v>114.081231810992</v>
       </c>
       <c r="G19" t="n">
-        <v>114.9340092</v>
+        <v>114.081231810992</v>
       </c>
     </row>
     <row r="20">
@@ -11085,26 +11085,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.2205128</v>
+        <v>151.916970546983</v>
       </c>
       <c r="C20" t="n">
-        <v>651.0064976</v>
+        <v>635.2276802327</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00000784282387928563</t>
+          <t>0.00000787944775938179</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.00000784282387928563</t>
+          <t>0.00000787944775938179</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>153.7725459</v>
+        <v>154.490622378035</v>
       </c>
       <c r="G20" t="n">
-        <v>153.7725459</v>
+        <v>154.490622378035</v>
       </c>
     </row>
     <row r="21">
@@ -11114,26 +11114,26 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.0294118</v>
+        <v>13.016587677725</v>
       </c>
       <c r="C21" t="n">
-        <v>10.5137906</v>
+        <v>10.444587000772</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00000626120998970461</t>
+          <t>0.00000625571875454940</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.00000626120998970461</t>
+          <t>0.00000625571875454940</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>13.1856324</v>
+        <v>13.174068262456</v>
       </c>
       <c r="G21" t="n">
-        <v>13.1856324</v>
+        <v>13.174068262456</v>
       </c>
     </row>
     <row r="22">
@@ -11150,19 +11150,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00001119830641758590</t>
+          <t>0.00001119701486185614</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00001119830641758590</t>
+          <t>0.00001119701486185614</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>60.9943307</v>
+        <v>60.987295910755</v>
       </c>
       <c r="G22" t="n">
-        <v>60.9943307</v>
+        <v>60.987295910755</v>
       </c>
     </row>
     <row r="23">
@@ -11172,26 +11172,26 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.0097561</v>
+        <v>78.92693664456</v>
       </c>
       <c r="C23" t="n">
-        <v>162.6997424</v>
+        <v>161.90708269181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.00001425620752750650</t>
+          <t>0.00001424140065723765</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00001425620752750650</t>
+          <t>0.00001424140065723765</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>78.6295566</v>
+        <v>78.54788991036899</v>
       </c>
       <c r="G23" t="n">
-        <v>78.6295566</v>
+        <v>78.54788991036899</v>
       </c>
     </row>
     <row r="24">
@@ -11201,26 +11201,26 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.0146341</v>
+        <v>62.19218287004</v>
       </c>
       <c r="C24" t="n">
-        <v>873.379532</v>
+        <v>880.046779750454</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00000582948227415697</t>
+          <t>0.00000574727131151575</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00000582948227415697</t>
+          <t>0.00000574727131151575</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59.2409361</v>
+        <v>58.405483754474</v>
       </c>
       <c r="G24" t="n">
-        <v>59.2409361</v>
+        <v>58.405483754474</v>
       </c>
     </row>
     <row r="25">
@@ -11230,26 +11230,26 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.2042105</v>
+        <v>429.164444444439</v>
       </c>
       <c r="C25" t="n">
-        <v>2325.4572167</v>
+        <v>2399.620875113255</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00000633639623946378</t>
+          <t>0.00000637095107576318</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.00000633639623946378</t>
+          <t>0.00000637095107576318</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>420.9457734</v>
+        <v>423.241354590469</v>
       </c>
       <c r="G25" t="n">
-        <v>420.9457734</v>
+        <v>423.241354590469</v>
       </c>
     </row>
     <row r="26">
@@ -11259,26 +11259,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.3463415</v>
+        <v>287.453308875411</v>
       </c>
       <c r="C26" t="n">
-        <v>-908.1960748</v>
+        <v>-916.211433994344</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00005485420322685658</t>
+          <t>0.00005464679589951165</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00005485420322685658</t>
+          <t>0.00005464679589951165</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>291.4030809</v>
+        <v>290.301266792894</v>
       </c>
       <c r="G26" t="n">
-        <v>291.4030809</v>
+        <v>290.301266792894</v>
       </c>
     </row>
     <row r="27">
@@ -11288,26 +11288,26 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.1853659</v>
+        <v>18.551883730772</v>
       </c>
       <c r="C27" t="n">
-        <v>266.4603661</v>
+        <v>270.112486539549</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00000188118601708229</t>
+          <t>0.00000193165247788058</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.00000188118601708229</t>
+          <t>0.00000193165247788058</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>16.0172342</v>
+        <v>16.446927533851</v>
       </c>
       <c r="G27" t="n">
-        <v>16.0172342</v>
+        <v>16.446927533851</v>
       </c>
     </row>
     <row r="28">
@@ -11493,10 +11493,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>831.5646955</v>
+        <v>831.564695502445</v>
       </c>
       <c r="G2" t="n">
-        <v>831.5646955</v>
+        <v>831.564695502445</v>
       </c>
     </row>
     <row r="3">
@@ -11522,10 +11522,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>324.2086725</v>
+        <v>324.208672495248</v>
       </c>
       <c r="G3" t="n">
-        <v>324.2086725</v>
+        <v>324.208672495248</v>
       </c>
     </row>
     <row r="4">
@@ -11551,10 +11551,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>198.2062908</v>
+        <v>198.206290766974</v>
       </c>
       <c r="G4" t="n">
-        <v>198.2062908</v>
+        <v>198.206290766974</v>
       </c>
     </row>
     <row r="5">
@@ -11580,10 +11580,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2220304</v>
+        <v>0.222030364463</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2220304</v>
+        <v>0.222030364463</v>
       </c>
     </row>
     <row r="6">
@@ -11593,10 +11593,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583.0129167</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="C6" t="n">
-        <v>2583.0129167</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -11609,10 +11609,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2582.7298332</v>
+        <v>2582.729833209824</v>
       </c>
       <c r="G6" t="n">
-        <v>2582.7298332</v>
+        <v>2582.729833209824</v>
       </c>
     </row>
     <row r="7">
@@ -11651,10 +11651,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>52.4839596</v>
+        <v>52.483959585092</v>
       </c>
       <c r="G8" t="n">
-        <v>52.4839596</v>
+        <v>52.483959585092</v>
       </c>
     </row>
     <row r="9">
@@ -11664,10 +11664,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>417.7713333</v>
+        <v>417.771333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>417.7713333</v>
+        <v>417.771333333333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -11680,10 +11680,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>417.7203503</v>
+        <v>417.720350286483</v>
       </c>
       <c r="G9" t="n">
-        <v>417.7203503</v>
+        <v>417.720350286483</v>
       </c>
     </row>
     <row r="10">
@@ -11693,10 +11693,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.2521053</v>
+        <v>785.252105333333</v>
       </c>
       <c r="C10" t="n">
-        <v>785.2521053</v>
+        <v>785.252105333333</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -11709,10 +11709,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>752.203164</v>
+        <v>752.203164025413</v>
       </c>
       <c r="G10" t="n">
-        <v>752.203164</v>
+        <v>752.203164025413</v>
       </c>
     </row>
     <row r="11">
@@ -11738,10 +11738,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>331.3801419</v>
+        <v>331.380141852623</v>
       </c>
       <c r="G11" t="n">
-        <v>331.3801419</v>
+        <v>331.380141852623</v>
       </c>
     </row>
     <row r="12">
@@ -11767,10 +11767,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>302.2314726</v>
+        <v>302.231472635918</v>
       </c>
       <c r="G12" t="n">
-        <v>302.2314726</v>
+        <v>302.231472635918</v>
       </c>
     </row>
     <row r="13">
@@ -11822,10 +11822,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>300.0243669</v>
+        <v>300.02436688052</v>
       </c>
       <c r="G15" t="n">
-        <v>300.0243669</v>
+        <v>300.02436688052</v>
       </c>
     </row>
     <row r="16">
@@ -11851,10 +11851,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1805.68456</v>
+        <v>1805.684559969507</v>
       </c>
       <c r="G16" t="n">
-        <v>1805.68456</v>
+        <v>1805.684559969507</v>
       </c>
     </row>
     <row r="17">
@@ -11880,10 +11880,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>399.999638</v>
+        <v>399.999638030383</v>
       </c>
       <c r="G17" t="n">
-        <v>399.999638</v>
+        <v>399.999638030383</v>
       </c>
     </row>
     <row r="18">
@@ -11909,10 +11909,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2057.6304513</v>
+        <v>2057.630451276072</v>
       </c>
       <c r="G18" t="n">
-        <v>2057.6304513</v>
+        <v>2057.630451276072</v>
       </c>
     </row>
     <row r="19">
@@ -11951,10 +11951,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>756.0425753</v>
+        <v>756.04257530375</v>
       </c>
       <c r="G20" t="n">
-        <v>756.0425753</v>
+        <v>756.04257530375</v>
       </c>
     </row>
     <row r="21">
@@ -11993,10 +11993,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>399.4619693</v>
+        <v>399.461969254001</v>
       </c>
       <c r="G22" t="n">
-        <v>399.4619693</v>
+        <v>399.461969254001</v>
       </c>
     </row>
     <row r="23">
@@ -12048,10 +12048,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>313.2640149</v>
+        <v>313.26401489131</v>
       </c>
       <c r="G25" t="n">
-        <v>313.2640149</v>
+        <v>313.26401489131</v>
       </c>
     </row>
     <row r="26">
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>74.5233812</v>
+        <v>74.5233812486</v>
       </c>
       <c r="G31" t="n">
-        <v>74.5233812</v>
+        <v>74.5233812486</v>
       </c>
     </row>
     <row r="32">
@@ -12181,10 +12181,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.5463066</v>
+        <v>763.546306583333</v>
       </c>
       <c r="C34" t="n">
-        <v>763.5463066</v>
+        <v>763.546306583333</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -12197,10 +12197,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>783.8740693</v>
+        <v>783.87406927572</v>
       </c>
       <c r="G34" t="n">
-        <v>783.8740693</v>
+        <v>783.87406927572</v>
       </c>
     </row>
     <row r="35">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50.6828551</v>
+        <v>50.682855066616</v>
       </c>
       <c r="G35" t="n">
-        <v>50.6828551</v>
+        <v>50.682855066616</v>
       </c>
     </row>
   </sheetData>
@@ -12311,10 +12311,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.4903979</v>
+        <v>5.490397886973</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4903979</v>
+        <v>5.490397886973</v>
       </c>
     </row>
     <row r="3">
@@ -12353,10 +12353,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.4786682</v>
+        <v>0.478668192202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4786682</v>
+        <v>0.478668192202</v>
       </c>
     </row>
     <row r="5">
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2504794</v>
+        <v>0.25047941084</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2504794</v>
+        <v>0.25047941084</v>
       </c>
     </row>
     <row r="6">
@@ -12411,10 +12411,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1129.433207</v>
+        <v>1129.433207006865</v>
       </c>
       <c r="G6" t="n">
-        <v>1129.433207</v>
+        <v>1129.433207006865</v>
       </c>
     </row>
     <row r="7">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8124008</v>
+        <v>0.812400845936</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8124008</v>
+        <v>0.812400845936</v>
       </c>
     </row>
     <row r="10">
@@ -12495,10 +12495,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13.063218</v>
+        <v>13.063217970215</v>
       </c>
       <c r="G10" t="n">
-        <v>13.063218</v>
+        <v>13.063217970215</v>
       </c>
     </row>
     <row r="11">
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0013353</v>
+        <v>0.001335314571</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0013353</v>
+        <v>0.001335314571</v>
       </c>
     </row>
     <row r="12">
@@ -12592,10 +12592,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1030084</v>
+        <v>0.103008365962</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1030084</v>
+        <v>0.103008365962</v>
       </c>
     </row>
     <row r="16">
@@ -12621,10 +12621,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>478.8474821</v>
+        <v>478.847482142136</v>
       </c>
       <c r="G16" t="n">
-        <v>478.8474821</v>
+        <v>478.847482142136</v>
       </c>
     </row>
     <row r="17">
@@ -12689,10 +12689,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0101296</v>
+        <v>0.010129616291</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0101296</v>
+        <v>0.010129616291</v>
       </c>
     </row>
     <row r="21">
@@ -12770,10 +12770,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1643174</v>
+        <v>0.164317351693</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1643174</v>
+        <v>0.164317351693</v>
       </c>
     </row>
     <row r="26">
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>720.0547599</v>
+        <v>720.054759902077</v>
       </c>
       <c r="G26" t="n">
-        <v>720.0547599</v>
+        <v>720.054759902077</v>
       </c>
     </row>
     <row r="27">
@@ -12880,10 +12880,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>166.0806782</v>
+        <v>166.080678211166</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0806782</v>
+        <v>166.080678211166</v>
       </c>
     </row>
     <row r="32">
